--- a/src/main/TestData/数据迁移.xlsx
+++ b/src/main/TestData/数据迁移.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17520" activeTab="2"/>
+    <workbookView windowHeight="17520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="百融" sheetId="1" r:id="rId1"/>
     <sheet name="优分" sheetId="2" r:id="rId2"/>
     <sheet name="同盾" sheetId="3" r:id="rId3"/>
+    <sheet name="本地字段" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272">
   <si>
     <t>var_name</t>
   </si>
@@ -820,16 +821,52 @@
   <si>
     <t>同盾_3个月内申请人手机号作为联系人手机号出现次数大于等于2</t>
   </si>
+  <si>
+    <t>INTOVERDUEDAYSHIST</t>
+  </si>
+  <si>
+    <t>历史最大逾期天数</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>OVERDUESTATUS</t>
+  </si>
+  <si>
+    <t>是否当前逾期</t>
+  </si>
+  <si>
+    <t>OVDCNTSHIST</t>
+  </si>
+  <si>
+    <t>历史逾期次数</t>
+  </si>
+  <si>
+    <t>IDCARD</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>PHONENUM</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -891,17 +928,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,31 +960,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,15 +975,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,7 +999,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,9 +1013,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,6 +1024,22 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1027,13 +1064,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,19 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,7 +1124,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1148,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,13 +1172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,13 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,19 +1202,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,31 +1226,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,6 +1261,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1235,24 +1281,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1287,6 +1315,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1304,10 +1343,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1315,142 +1352,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1460,11 +1497,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1799,1073 +1835,1073 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.9140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.265625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="65.234375" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="25.9140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="65.234375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="5" customFormat="1" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="6" customFormat="1" spans="1:4">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="6" customFormat="1" spans="1:4">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="6" customFormat="1" spans="1:4">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="6" customFormat="1" spans="1:4">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" s="7" customFormat="1" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:4">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:4">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="6" customFormat="1" spans="1:4">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="6" customFormat="1" spans="1:4">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="6" customFormat="1" spans="1:4">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:4">
-      <c r="A11" s="7" t="s">
+    <row r="11" s="6" customFormat="1" spans="1:4">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" spans="1:4">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="6" customFormat="1" spans="1:4">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" spans="1:4">
-      <c r="A13" s="7" t="s">
+    <row r="13" s="6" customFormat="1" spans="1:4">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="1" spans="1:4">
-      <c r="A14" s="7" t="s">
+    <row r="14" s="6" customFormat="1" spans="1:4">
+      <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" spans="1:4">
-      <c r="A15" s="7" t="s">
+    <row r="15" s="6" customFormat="1" spans="1:4">
+      <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" spans="1:4">
-      <c r="A16" s="7" t="s">
+    <row r="16" s="6" customFormat="1" spans="1:4">
+      <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" spans="1:4">
-      <c r="A17" s="7" t="s">
+    <row r="17" s="6" customFormat="1" spans="1:4">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" spans="1:4">
-      <c r="A18" s="7" t="s">
+    <row r="18" s="6" customFormat="1" spans="1:4">
+      <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" spans="1:4">
-      <c r="A19" s="7" t="s">
+    <row r="19" s="6" customFormat="1" spans="1:4">
+      <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" spans="1:4">
-      <c r="A20" s="7" t="s">
+    <row r="20" s="6" customFormat="1" spans="1:4">
+      <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="1:4">
-      <c r="A21" s="7" t="s">
+    <row r="21" s="6" customFormat="1" spans="1:4">
+      <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:4">
-      <c r="A22" s="7" t="s">
+    <row r="22" s="6" customFormat="1" spans="1:4">
+      <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:4">
-      <c r="A23" s="7" t="s">
+    <row r="23" s="6" customFormat="1" spans="1:4">
+      <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:4">
-      <c r="A24" s="7" t="s">
+    <row r="24" s="6" customFormat="1" spans="1:4">
+      <c r="A24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:4">
-      <c r="A25" s="7" t="s">
+    <row r="25" s="6" customFormat="1" spans="1:4">
+      <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:4">
-      <c r="A26" s="7" t="s">
+    <row r="26" s="6" customFormat="1" spans="1:4">
+      <c r="A26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" spans="1:4">
-      <c r="A27" s="7" t="s">
+    <row r="27" s="6" customFormat="1" spans="1:4">
+      <c r="A27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="1:4">
-      <c r="A28" s="7" t="s">
+    <row r="28" s="6" customFormat="1" spans="1:4">
+      <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" spans="1:4">
-      <c r="A29" s="7" t="s">
+    <row r="29" s="6" customFormat="1" spans="1:4">
+      <c r="A29" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:4">
-      <c r="A30" s="7" t="s">
+    <row r="30" s="6" customFormat="1" spans="1:4">
+      <c r="A30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>29</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" spans="1:4">
-      <c r="A31" s="7" t="s">
+    <row r="31" s="6" customFormat="1" spans="1:4">
+      <c r="A31" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:4">
-      <c r="A32" s="7" t="s">
+    <row r="32" s="6" customFormat="1" spans="1:4">
+      <c r="A32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:4">
-      <c r="A33" s="7" t="s">
+    <row r="33" s="6" customFormat="1" spans="1:4">
+      <c r="A33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="34" s="7" customFormat="1" spans="1:4">
-      <c r="A34" s="7" t="s">
+    <row r="34" s="6" customFormat="1" spans="1:4">
+      <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:4">
-      <c r="A35" s="7" t="s">
+    <row r="35" s="6" customFormat="1" spans="1:4">
+      <c r="A35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="36" s="7" customFormat="1" spans="1:4">
-      <c r="A36" s="7" t="s">
+    <row r="36" s="6" customFormat="1" spans="1:4">
+      <c r="A36" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" spans="1:4">
-      <c r="A37" s="7" t="s">
+    <row r="37" s="6" customFormat="1" spans="1:4">
+      <c r="A37" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="38" s="7" customFormat="1" spans="1:4">
-      <c r="A38" s="7" t="s">
+    <row r="38" s="6" customFormat="1" spans="1:4">
+      <c r="A38" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="39" s="7" customFormat="1" spans="1:4">
-      <c r="A39" s="7" t="s">
+    <row r="39" s="6" customFormat="1" spans="1:4">
+      <c r="A39" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="40" s="7" customFormat="1" spans="1:4">
-      <c r="A40" s="7" t="s">
+    <row r="40" s="6" customFormat="1" spans="1:4">
+      <c r="A40" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="41" s="7" customFormat="1" spans="1:4">
-      <c r="A41" s="7" t="s">
+    <row r="41" s="6" customFormat="1" spans="1:4">
+      <c r="A41" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" spans="1:4">
-      <c r="A42" s="7" t="s">
+    <row r="42" s="6" customFormat="1" spans="1:4">
+      <c r="A42" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="43" s="7" customFormat="1" spans="1:4">
-      <c r="A43" s="7" t="s">
+    <row r="43" s="6" customFormat="1" spans="1:4">
+      <c r="A43" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="44" s="7" customFormat="1" spans="1:4">
-      <c r="A44" s="7" t="s">
+    <row r="44" s="6" customFormat="1" spans="1:4">
+      <c r="A44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="45" s="7" customFormat="1" spans="1:4">
-      <c r="A45" s="7" t="s">
+    <row r="45" s="6" customFormat="1" spans="1:4">
+      <c r="A45" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="46" s="7" customFormat="1" spans="1:4">
-      <c r="A46" s="7" t="s">
+    <row r="46" s="6" customFormat="1" spans="1:4">
+      <c r="A46" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="47" s="7" customFormat="1" spans="1:4">
-      <c r="A47" s="7" t="s">
+    <row r="47" s="6" customFormat="1" spans="1:4">
+      <c r="A47" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>46</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="1" spans="1:4">
-      <c r="A48" s="7" t="s">
+    <row r="48" s="6" customFormat="1" spans="1:4">
+      <c r="A48" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1" spans="1:4">
-      <c r="A49" s="7" t="s">
+    <row r="49" s="6" customFormat="1" spans="1:4">
+      <c r="A49" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="50" s="7" customFormat="1" spans="1:4">
-      <c r="A50" s="7" t="s">
+    <row r="50" s="6" customFormat="1" spans="1:4">
+      <c r="A50" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="51" s="7" customFormat="1" spans="1:4">
-      <c r="A51" s="7" t="s">
+    <row r="51" s="6" customFormat="1" spans="1:4">
+      <c r="A51" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="52" s="7" customFormat="1" spans="1:4">
-      <c r="A52" s="7" t="s">
+    <row r="52" s="6" customFormat="1" spans="1:4">
+      <c r="A52" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="53" s="7" customFormat="1" spans="1:4">
-      <c r="A53" s="7" t="s">
+    <row r="53" s="6" customFormat="1" spans="1:4">
+      <c r="A53" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>52</v>
       </c>
     </row>
-    <row r="54" s="7" customFormat="1" spans="1:4">
-      <c r="A54" s="7" t="s">
+    <row r="54" s="6" customFormat="1" spans="1:4">
+      <c r="A54" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="55" s="7" customFormat="1" spans="1:4">
-      <c r="A55" s="7" t="s">
+    <row r="55" s="6" customFormat="1" spans="1:4">
+      <c r="A55" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="56" s="7" customFormat="1" spans="1:4">
-      <c r="A56" s="7" t="s">
+    <row r="56" s="6" customFormat="1" spans="1:4">
+      <c r="A56" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="B56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="57" s="7" customFormat="1" spans="1:4">
-      <c r="A57" s="7" t="s">
+    <row r="57" s="6" customFormat="1" spans="1:4">
+      <c r="A57" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>56</v>
       </c>
     </row>
-    <row r="58" s="7" customFormat="1" spans="1:4">
-      <c r="A58" s="7" t="s">
+    <row r="58" s="6" customFormat="1" spans="1:4">
+      <c r="A58" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="59" s="7" customFormat="1" spans="1:4">
-      <c r="A59" s="7" t="s">
+    <row r="59" s="6" customFormat="1" spans="1:4">
+      <c r="A59" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="7" t="s">
+      <c r="B59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>58</v>
       </c>
     </row>
-    <row r="60" s="7" customFormat="1" spans="1:4">
-      <c r="A60" s="7" t="s">
+    <row r="60" s="6" customFormat="1" spans="1:4">
+      <c r="A60" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>59</v>
       </c>
     </row>
-    <row r="61" s="7" customFormat="1" spans="1:4">
-      <c r="A61" s="7" t="s">
+    <row r="61" s="6" customFormat="1" spans="1:4">
+      <c r="A61" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="62" s="7" customFormat="1" spans="1:4">
-      <c r="A62" s="7" t="s">
+    <row r="62" s="6" customFormat="1" spans="1:4">
+      <c r="A62" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="B62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>61</v>
       </c>
     </row>
-    <row r="63" s="7" customFormat="1" spans="1:4">
-      <c r="A63" s="7" t="s">
+    <row r="63" s="6" customFormat="1" spans="1:4">
+      <c r="A63" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>62</v>
       </c>
     </row>
-    <row r="64" s="7" customFormat="1" spans="1:4">
-      <c r="A64" s="7" t="s">
+    <row r="64" s="6" customFormat="1" spans="1:4">
+      <c r="A64" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="7" t="s">
+      <c r="B64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="65" s="7" customFormat="1" spans="1:4">
-      <c r="A65" s="7" t="s">
+    <row r="65" s="6" customFormat="1" spans="1:4">
+      <c r="A65" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="66" s="7" customFormat="1" spans="1:4">
-      <c r="A66" s="7" t="s">
+    <row r="66" s="6" customFormat="1" spans="1:4">
+      <c r="A66" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="7" t="s">
+      <c r="B66" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="67" s="7" customFormat="1" spans="1:4">
-      <c r="A67" s="7" t="s">
+    <row r="67" s="6" customFormat="1" spans="1:4">
+      <c r="A67" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>66</v>
       </c>
     </row>
-    <row r="68" s="7" customFormat="1" spans="1:4">
-      <c r="A68" s="7" t="s">
+    <row r="68" s="6" customFormat="1" spans="1:4">
+      <c r="A68" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="7" t="s">
+      <c r="B68" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="69" s="7" customFormat="1" spans="1:4">
-      <c r="A69" s="7" t="s">
+    <row r="69" s="6" customFormat="1" spans="1:4">
+      <c r="A69" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="70" s="7" customFormat="1" spans="1:4">
-      <c r="A70" s="7" t="s">
+    <row r="70" s="6" customFormat="1" spans="1:4">
+      <c r="A70" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>69</v>
       </c>
     </row>
-    <row r="71" s="7" customFormat="1" spans="1:4">
-      <c r="A71" s="7" t="s">
+    <row r="71" s="6" customFormat="1" spans="1:4">
+      <c r="A71" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="72" s="7" customFormat="1" spans="1:4">
-      <c r="A72" s="7" t="s">
+    <row r="72" s="6" customFormat="1" spans="1:4">
+      <c r="A72" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>71</v>
       </c>
     </row>
-    <row r="73" s="7" customFormat="1" spans="1:4">
-      <c r="A73" s="7" t="s">
+    <row r="73" s="6" customFormat="1" spans="1:4">
+      <c r="A73" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>72</v>
       </c>
     </row>
-    <row r="74" s="7" customFormat="1" spans="1:4">
-      <c r="A74" s="7" t="s">
+    <row r="74" s="6" customFormat="1" spans="1:4">
+      <c r="A74" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>73</v>
       </c>
     </row>
-    <row r="75" s="7" customFormat="1" spans="1:4">
-      <c r="A75" s="7" t="s">
+    <row r="75" s="6" customFormat="1" spans="1:4">
+      <c r="A75" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="76" s="7" customFormat="1" spans="1:4">
-      <c r="A76" s="7" t="s">
+    <row r="76" s="6" customFormat="1" spans="1:4">
+      <c r="A76" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>75</v>
       </c>
     </row>
@@ -2902,7 +2938,7 @@
       <c r="A2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2910,7 +2946,7 @@
       <c r="A3" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2918,7 +2954,7 @@
       <c r="A4" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2926,7 +2962,7 @@
       <c r="A5" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2934,7 +2970,7 @@
       <c r="A6" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2942,7 +2978,7 @@
       <c r="A7" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2950,7 +2986,7 @@
       <c r="A8" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2958,7 +2994,7 @@
       <c r="A9" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2966,7 +3002,7 @@
       <c r="A10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2974,7 +3010,7 @@
       <c r="A11" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2982,7 +3018,7 @@
       <c r="A12" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2990,7 +3026,7 @@
       <c r="A13" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2998,7 +3034,7 @@
       <c r="A14" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3006,7 +3042,7 @@
       <c r="A15" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3014,7 +3050,7 @@
       <c r="A16" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3022,7 +3058,7 @@
       <c r="A17" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3030,7 +3066,7 @@
       <c r="A18" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3038,7 +3074,7 @@
       <c r="A19" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3046,7 +3082,7 @@
       <c r="A20" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3054,7 +3090,7 @@
       <c r="A21" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3069,8 +3105,8 @@
   <sheetPr/>
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A2:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -3112,10 +3148,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3296,7 +3332,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3349,6 +3385,83 @@
       </c>
       <c r="B34" s="2" t="s">
         <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="21.9375" customWidth="1"/>
+    <col min="2" max="2" width="16.0625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/TestData/数据迁移.xlsx
+++ b/src/main/TestData/数据迁移.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17520" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="14100" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="百融" sheetId="1" r:id="rId1"/>
-    <sheet name="优分" sheetId="2" r:id="rId2"/>
-    <sheet name="同盾" sheetId="3" r:id="rId3"/>
-    <sheet name="本地字段" sheetId="4" r:id="rId4"/>
+    <sheet name="百融001" sheetId="1" r:id="rId1"/>
+    <sheet name="优分002" sheetId="2" r:id="rId2"/>
+    <sheet name="同盾003" sheetId="3" r:id="rId3"/>
+    <sheet name="本地字段004" sheetId="4" r:id="rId4"/>
+    <sheet name="迁移字段005" sheetId="5" r:id="rId5"/>
+    <sheet name="优分006" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349">
   <si>
     <t>var_name</t>
   </si>
@@ -857,27 +859,261 @@
   <si>
     <t>手机号码</t>
   </si>
+  <si>
+    <t>TD6MPHNORMALXJLOANTIMES</t>
+  </si>
+  <si>
+    <t>6个月内手机号一般消费分期平台申请次数</t>
+  </si>
+  <si>
+    <t>TD3MPHNORMALXJLOANTIMES</t>
+  </si>
+  <si>
+    <t>3个月内手机号一般消费分期平台申请次数</t>
+  </si>
+  <si>
+    <t>TD6MPHBANKLOANTIMES</t>
+  </si>
+  <si>
+    <t>6个月内手机号银行类申请次数</t>
+  </si>
+  <si>
+    <t>TD6MIDXEDKGSLOANCOUNT</t>
+  </si>
+  <si>
+    <t>同盾_6个月内身份证小额贷款公司借款平台数</t>
+  </si>
+  <si>
+    <t>TD6MPHBIGXJLOANTIMES</t>
+  </si>
+  <si>
+    <t>同盾_6个月内借款人手机号大型消费金融公司申请次数</t>
+  </si>
+  <si>
+    <t>TD3MPHONELOANCOUNT</t>
+  </si>
+  <si>
+    <t>同盾_3个月内手机号申请借款平台数</t>
+  </si>
+  <si>
+    <t>TDCREDITSCORE</t>
+  </si>
+  <si>
+    <t>同盾信用分</t>
+  </si>
+  <si>
+    <t>TD1MIDZHLDSLOANCOUNT</t>
+  </si>
+  <si>
+    <t>同盾_1个月内身份证综合类电商借款平台数</t>
+  </si>
+  <si>
+    <t>TD6MPHONBANKLOANCOUNT</t>
+  </si>
+  <si>
+    <t>6个月手机号网上银行借款跨平台数</t>
+  </si>
+  <si>
+    <t>TDICLOWRISK</t>
+  </si>
+  <si>
+    <t>同盾_身份证命中低风险关注名单</t>
+  </si>
+  <si>
+    <t>BR_ALS_M1_ID_COON_ORGNUM</t>
+  </si>
+  <si>
+    <t>百融近1个月申请线上消费分期的机构数</t>
+  </si>
+  <si>
+    <t>BR_ALS_M1_ID_PDL_ORGNUM</t>
+  </si>
+  <si>
+    <t>百融近1个月申请线上小额现金贷的机构数</t>
+  </si>
+  <si>
+    <t>BR_ALS_M6_ID_COON_ORGNUM</t>
+  </si>
+  <si>
+    <t>百融近6个月申请线上消费分期的机构数</t>
+  </si>
+  <si>
+    <t>BR_ALS_M3_ID_CAON_ORGNUM</t>
+  </si>
+  <si>
+    <t>百融近3个月申请线上现金分期的机构数</t>
+  </si>
+  <si>
+    <t>BR_ALS_M1_ID_CAON_ORGNUM</t>
+  </si>
+  <si>
+    <t>百融近1个月申请线上现金分期的机构数</t>
+  </si>
+  <si>
+    <t>BR_ALS_D7_ID_PDL_ORGNUM</t>
+  </si>
+  <si>
+    <t>百融近7天申请线上小额现金贷的机构数</t>
+  </si>
+  <si>
+    <t>BR_ALS_M6_ID_CAON_ORGNUM</t>
+  </si>
+  <si>
+    <t>百融近6个月申请线上现金分期的机构数</t>
+  </si>
+  <si>
+    <t>BR_ALS_M3_ID_COON_ORGNUM</t>
+  </si>
+  <si>
+    <t>百融近3个月申请线上消费分期的机构数</t>
+  </si>
+  <si>
+    <t>QCLOUD_RISKSCORE</t>
+  </si>
+  <si>
+    <t>腾讯云反欺诈分数据</t>
+  </si>
+  <si>
+    <t>TD6MIDBANKLOANTIMES</t>
+  </si>
+  <si>
+    <t>6个月内身份证银行类申请次数</t>
+  </si>
+  <si>
+    <t>YF24MLOANTIMES</t>
+  </si>
+  <si>
+    <t>优分近24个月贷款申请次数</t>
+  </si>
+  <si>
+    <t>IPADDRPROV</t>
+  </si>
+  <si>
+    <t>当前用户真实解析地(省)</t>
+  </si>
+  <si>
+    <t>XY_RADAR_APPLY_SCORE</t>
+  </si>
+  <si>
+    <t>新颜申请准入分</t>
+  </si>
+  <si>
+    <t>repaid_bill_cnt</t>
+  </si>
+  <si>
+    <t>正常还款账单数</t>
+  </si>
+  <si>
+    <t>rebalanced_bill_cnt</t>
+  </si>
+  <si>
+    <t>用户逾期还款账单数</t>
+  </si>
+  <si>
+    <t>REPAIDTERMS</t>
+  </si>
+  <si>
+    <t>已还款期数</t>
+  </si>
+  <si>
+    <t>ORDER_CREDIT_DIFF_DAYS</t>
+  </si>
+  <si>
+    <t>当前订单日期与授信成功日期相隔天数</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>YF_REC_30D_NONBANK_QUERY_CNT</t>
+  </si>
+  <si>
+    <t>优分_近30天_非银行_注册信息数量</t>
+  </si>
+  <si>
+    <t>YF_REC_90D_NONBANK_QUERY_CNT</t>
+  </si>
+  <si>
+    <t>优分_近90天_非银行_注册信息数量</t>
+  </si>
+  <si>
+    <t>YF_REC_180D_NONBANK_QUERY_CNT</t>
+  </si>
+  <si>
+    <t>优分_近180天_非银行_注册信息数量</t>
+  </si>
+  <si>
+    <t>YF_REC_30D_NONBANK_APPLY_CNT</t>
+  </si>
+  <si>
+    <t>优分_近30天_非银行_申请数量</t>
+  </si>
+  <si>
+    <t>YF_REC_90D_NONBANK_APPLY_CNT</t>
+  </si>
+  <si>
+    <t>优分_近90天_非银行_申请数量</t>
+  </si>
+  <si>
+    <t>YF_REC_180D_NONBANK_APPLY_CNT</t>
+  </si>
+  <si>
+    <t>优分_近180天_非银行_申请数量</t>
+  </si>
+  <si>
+    <t>YF_REC_30D_NONBANK_LOAN_CNT</t>
+  </si>
+  <si>
+    <t>优分_近30天_非银行_放款数量</t>
+  </si>
+  <si>
+    <t>YF_REC_90D_NONBANK_LOAN_CNT</t>
+  </si>
+  <si>
+    <t>优分_近90天_非银行_放款数量</t>
+  </si>
+  <si>
+    <t>YF_REC_180D_NONBANK_LOAN_CNT</t>
+  </si>
+  <si>
+    <t>优分_近180天_非银行_放款数量</t>
+  </si>
+  <si>
+    <t>YF_OVERDUE_CNT</t>
+  </si>
+  <si>
+    <t>优分数据贷款逾期次数</t>
+  </si>
+  <si>
+    <t>YF_OVERDUE_IS_AMT_2000</t>
+  </si>
+  <si>
+    <t>优分数据贷款逾期金额是否大于0.2w</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="华文宋体"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -885,6 +1121,18 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="华文宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -900,24 +1148,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -936,7 +1169,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -945,7 +1178,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,6 +1189,29 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -975,9 +1231,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,23 +1260,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,26 +1285,24 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1064,13 +1318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,19 +1342,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,7 +1384,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,25 +1450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,55 +1462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,29 +1480,68 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1265,22 +1558,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1315,17 +1593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1343,8 +1610,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1352,106 +1621,106 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1460,54 +1729,70 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1829,1079 +2114,1079 @@
   <sheetPr/>
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.9140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.265625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="65.234375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="25.9140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="65.234375" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="12" customFormat="1" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:4">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" spans="1:4">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:4">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:4">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:4">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:4">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="12">
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+    <row r="9" s="7" customFormat="1" spans="1:4">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:4">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:4">
+      <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="12">
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:4">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="7" customFormat="1" spans="1:4">
+      <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:4">
-      <c r="A12" s="6" t="s">
+    <row r="12" s="7" customFormat="1" spans="1:4">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:4">
-      <c r="A13" s="6" t="s">
+    <row r="13" s="7" customFormat="1" spans="1:4">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" spans="1:4">
-      <c r="A14" s="6" t="s">
+    <row r="14" s="7" customFormat="1" spans="1:4">
+      <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="12">
         <v>13</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" spans="1:4">
-      <c r="A15" s="6" t="s">
+    <row r="15" s="7" customFormat="1" spans="1:4">
+      <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="12">
         <v>14</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" spans="1:4">
-      <c r="A16" s="6" t="s">
+    <row r="16" s="7" customFormat="1" spans="1:4">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" spans="1:4">
-      <c r="A17" s="6" t="s">
+    <row r="17" s="7" customFormat="1" spans="1:4">
+      <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" spans="1:4">
-      <c r="A18" s="6" t="s">
+    <row r="18" s="7" customFormat="1" spans="1:4">
+      <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" spans="1:4">
-      <c r="A19" s="6" t="s">
+    <row r="19" s="7" customFormat="1" spans="1:4">
+      <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:4">
-      <c r="A20" s="6" t="s">
+    <row r="20" s="7" customFormat="1" spans="1:4">
+      <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="12">
         <v>19</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:4">
-      <c r="A21" s="6" t="s">
+    <row r="21" s="7" customFormat="1" spans="1:4">
+      <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:4">
-      <c r="A22" s="6" t="s">
+    <row r="22" s="7" customFormat="1" spans="1:4">
+      <c r="A22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:4">
-      <c r="A23" s="6" t="s">
+    <row r="23" s="7" customFormat="1" spans="1:4">
+      <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:4">
-      <c r="A24" s="6" t="s">
+    <row r="24" s="7" customFormat="1" spans="1:4">
+      <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" spans="1:4">
-      <c r="A25" s="6" t="s">
+    <row r="25" s="7" customFormat="1" spans="1:4">
+      <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" spans="1:4">
-      <c r="A26" s="6" t="s">
+    <row r="26" s="7" customFormat="1" spans="1:4">
+      <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:4">
-      <c r="A27" s="6" t="s">
+    <row r="27" s="7" customFormat="1" spans="1:4">
+      <c r="A27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" spans="1:4">
-      <c r="A28" s="6" t="s">
+    <row r="28" s="7" customFormat="1" spans="1:4">
+      <c r="A28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="12">
         <v>27</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" spans="1:4">
-      <c r="A29" s="6" t="s">
+    <row r="29" s="7" customFormat="1" spans="1:4">
+      <c r="A29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" spans="1:4">
-      <c r="A30" s="6" t="s">
+    <row r="30" s="7" customFormat="1" spans="1:4">
+      <c r="A30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" spans="1:4">
-      <c r="A31" s="6" t="s">
+    <row r="31" s="7" customFormat="1" spans="1:4">
+      <c r="A31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" spans="1:4">
-      <c r="A32" s="6" t="s">
+    <row r="32" s="7" customFormat="1" spans="1:4">
+      <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="1" spans="1:4">
-      <c r="A33" s="6" t="s">
+    <row r="33" s="7" customFormat="1" spans="1:4">
+      <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" spans="1:4">
-      <c r="A34" s="6" t="s">
+    <row r="34" s="7" customFormat="1" spans="1:4">
+      <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="35" s="6" customFormat="1" spans="1:4">
-      <c r="A35" s="6" t="s">
+    <row r="35" s="7" customFormat="1" spans="1:4">
+      <c r="A35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" spans="1:4">
-      <c r="A36" s="6" t="s">
+    <row r="36" s="7" customFormat="1" spans="1:4">
+      <c r="A36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="1" spans="1:4">
-      <c r="A37" s="6" t="s">
+    <row r="37" s="7" customFormat="1" spans="1:4">
+      <c r="A37" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="38" s="6" customFormat="1" spans="1:4">
-      <c r="A38" s="6" t="s">
+    <row r="38" s="7" customFormat="1" spans="1:4">
+      <c r="A38" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="12">
         <v>37</v>
       </c>
     </row>
-    <row r="39" s="6" customFormat="1" spans="1:4">
-      <c r="A39" s="6" t="s">
+    <row r="39" s="7" customFormat="1" spans="1:4">
+      <c r="A39" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="12">
         <v>38</v>
       </c>
     </row>
-    <row r="40" s="6" customFormat="1" spans="1:4">
-      <c r="A40" s="6" t="s">
+    <row r="40" s="7" customFormat="1" spans="1:4">
+      <c r="A40" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="41" s="6" customFormat="1" spans="1:4">
-      <c r="A41" s="6" t="s">
+    <row r="41" s="7" customFormat="1" spans="1:4">
+      <c r="A41" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="12">
         <v>40</v>
       </c>
     </row>
-    <row r="42" s="6" customFormat="1" spans="1:4">
-      <c r="A42" s="6" t="s">
+    <row r="42" s="7" customFormat="1" spans="1:4">
+      <c r="A42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="12">
         <v>41</v>
       </c>
     </row>
-    <row r="43" s="6" customFormat="1" spans="1:4">
-      <c r="A43" s="6" t="s">
+    <row r="43" s="7" customFormat="1" spans="1:4">
+      <c r="A43" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="12">
         <v>42</v>
       </c>
     </row>
-    <row r="44" s="6" customFormat="1" spans="1:4">
-      <c r="A44" s="6" t="s">
+    <row r="44" s="7" customFormat="1" spans="1:4">
+      <c r="A44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="45" s="6" customFormat="1" spans="1:4">
-      <c r="A45" s="6" t="s">
+    <row r="45" s="7" customFormat="1" spans="1:4">
+      <c r="A45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="12">
         <v>44</v>
       </c>
     </row>
-    <row r="46" s="6" customFormat="1" spans="1:4">
-      <c r="A46" s="6" t="s">
+    <row r="46" s="7" customFormat="1" spans="1:4">
+      <c r="A46" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="47" s="6" customFormat="1" spans="1:4">
-      <c r="A47" s="6" t="s">
+    <row r="47" s="7" customFormat="1" spans="1:4">
+      <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="12">
         <v>46</v>
       </c>
     </row>
-    <row r="48" s="6" customFormat="1" spans="1:4">
-      <c r="A48" s="6" t="s">
+    <row r="48" s="7" customFormat="1" spans="1:4">
+      <c r="A48" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="49" s="6" customFormat="1" spans="1:4">
-      <c r="A49" s="6" t="s">
+    <row r="49" s="7" customFormat="1" spans="1:4">
+      <c r="A49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="12">
         <v>48</v>
       </c>
     </row>
-    <row r="50" s="6" customFormat="1" spans="1:4">
-      <c r="A50" s="6" t="s">
+    <row r="50" s="7" customFormat="1" spans="1:4">
+      <c r="A50" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="12">
         <v>49</v>
       </c>
     </row>
-    <row r="51" s="6" customFormat="1" spans="1:4">
-      <c r="A51" s="6" t="s">
+    <row r="51" s="7" customFormat="1" spans="1:4">
+      <c r="A51" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="52" s="6" customFormat="1" spans="1:4">
-      <c r="A52" s="6" t="s">
+    <row r="52" s="7" customFormat="1" spans="1:4">
+      <c r="A52" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="12">
         <v>51</v>
       </c>
     </row>
-    <row r="53" s="6" customFormat="1" spans="1:4">
-      <c r="A53" s="6" t="s">
+    <row r="53" s="7" customFormat="1" spans="1:4">
+      <c r="A53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="B53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="12">
         <v>52</v>
       </c>
     </row>
-    <row r="54" s="6" customFormat="1" spans="1:4">
-      <c r="A54" s="6" t="s">
+    <row r="54" s="7" customFormat="1" spans="1:4">
+      <c r="A54" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="B54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="12">
         <v>53</v>
       </c>
     </row>
-    <row r="55" s="6" customFormat="1" spans="1:4">
-      <c r="A55" s="6" t="s">
+    <row r="55" s="7" customFormat="1" spans="1:4">
+      <c r="A55" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="6" t="s">
+      <c r="B55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="56" s="6" customFormat="1" spans="1:4">
-      <c r="A56" s="6" t="s">
+    <row r="56" s="7" customFormat="1" spans="1:4">
+      <c r="A56" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="6" t="s">
+      <c r="B56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="12">
         <v>55</v>
       </c>
     </row>
-    <row r="57" s="6" customFormat="1" spans="1:4">
-      <c r="A57" s="6" t="s">
+    <row r="57" s="7" customFormat="1" spans="1:4">
+      <c r="A57" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="B57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="12">
         <v>56</v>
       </c>
     </row>
-    <row r="58" s="6" customFormat="1" spans="1:4">
-      <c r="A58" s="6" t="s">
+    <row r="58" s="7" customFormat="1" spans="1:4">
+      <c r="A58" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="6" t="s">
+      <c r="B58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="59" s="6" customFormat="1" spans="1:4">
-      <c r="A59" s="6" t="s">
+    <row r="59" s="7" customFormat="1" spans="1:4">
+      <c r="A59" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="B59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="12">
         <v>58</v>
       </c>
     </row>
-    <row r="60" s="6" customFormat="1" spans="1:4">
-      <c r="A60" s="6" t="s">
+    <row r="60" s="7" customFormat="1" spans="1:4">
+      <c r="A60" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="6" t="s">
+      <c r="B60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="12">
         <v>59</v>
       </c>
     </row>
-    <row r="61" s="6" customFormat="1" spans="1:4">
-      <c r="A61" s="6" t="s">
+    <row r="61" s="7" customFormat="1" spans="1:4">
+      <c r="A61" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="6" t="s">
+      <c r="B61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="62" s="6" customFormat="1" spans="1:4">
-      <c r="A62" s="6" t="s">
+    <row r="62" s="7" customFormat="1" spans="1:4">
+      <c r="A62" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="6" t="s">
+      <c r="B62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="12">
         <v>61</v>
       </c>
     </row>
-    <row r="63" s="6" customFormat="1" spans="1:4">
-      <c r="A63" s="6" t="s">
+    <row r="63" s="7" customFormat="1" spans="1:4">
+      <c r="A63" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="6" t="s">
+      <c r="B63" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="12">
         <v>62</v>
       </c>
     </row>
-    <row r="64" s="6" customFormat="1" spans="1:4">
-      <c r="A64" s="6" t="s">
+    <row r="64" s="7" customFormat="1" spans="1:4">
+      <c r="A64" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="6" t="s">
+      <c r="B64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="65" s="6" customFormat="1" spans="1:4">
-      <c r="A65" s="6" t="s">
+    <row r="65" s="7" customFormat="1" spans="1:4">
+      <c r="A65" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="6" t="s">
+      <c r="B65" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="12">
         <v>64</v>
       </c>
     </row>
-    <row r="66" s="6" customFormat="1" spans="1:4">
-      <c r="A66" s="6" t="s">
+    <row r="66" s="7" customFormat="1" spans="1:4">
+      <c r="A66" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="6" t="s">
+      <c r="B66" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="12">
         <v>65</v>
       </c>
     </row>
-    <row r="67" s="6" customFormat="1" spans="1:4">
-      <c r="A67" s="6" t="s">
+    <row r="67" s="7" customFormat="1" spans="1:4">
+      <c r="A67" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="6" t="s">
+      <c r="B67" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="12">
         <v>66</v>
       </c>
     </row>
-    <row r="68" s="6" customFormat="1" spans="1:4">
-      <c r="A68" s="6" t="s">
+    <row r="68" s="7" customFormat="1" spans="1:4">
+      <c r="A68" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="B68" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="12">
         <v>67</v>
       </c>
     </row>
-    <row r="69" s="6" customFormat="1" spans="1:4">
-      <c r="A69" s="6" t="s">
+    <row r="69" s="7" customFormat="1" spans="1:4">
+      <c r="A69" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="6" t="s">
+      <c r="B69" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="12">
         <v>68</v>
       </c>
     </row>
-    <row r="70" s="6" customFormat="1" spans="1:4">
-      <c r="A70" s="6" t="s">
+    <row r="70" s="7" customFormat="1" spans="1:4">
+      <c r="A70" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="6" t="s">
+      <c r="B70" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="12">
         <v>69</v>
       </c>
     </row>
-    <row r="71" s="6" customFormat="1" spans="1:4">
-      <c r="A71" s="6" t="s">
+    <row r="71" s="7" customFormat="1" spans="1:4">
+      <c r="A71" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="B71" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="12">
         <v>70</v>
       </c>
     </row>
-    <row r="72" s="6" customFormat="1" spans="1:4">
-      <c r="A72" s="6" t="s">
+    <row r="72" s="7" customFormat="1" spans="1:4">
+      <c r="A72" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="B72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="12">
         <v>71</v>
       </c>
     </row>
-    <row r="73" s="6" customFormat="1" spans="1:4">
-      <c r="A73" s="6" t="s">
+    <row r="73" s="7" customFormat="1" spans="1:4">
+      <c r="A73" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="12">
         <v>72</v>
       </c>
     </row>
-    <row r="74" s="6" customFormat="1" spans="1:4">
-      <c r="A74" s="6" t="s">
+    <row r="74" s="7" customFormat="1" spans="1:4">
+      <c r="A74" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="B74" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="12">
         <v>73</v>
       </c>
     </row>
-    <row r="75" s="6" customFormat="1" spans="1:4">
-      <c r="A75" s="6" t="s">
+    <row r="75" s="7" customFormat="1" spans="1:4">
+      <c r="A75" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="6" t="s">
+      <c r="B75" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="12">
         <v>74</v>
       </c>
     </row>
-    <row r="76" s="6" customFormat="1" spans="1:4">
-      <c r="A76" s="6" t="s">
+    <row r="76" s="7" customFormat="1" spans="1:4">
+      <c r="A76" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="6" t="s">
+      <c r="B76" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="12">
         <v>75</v>
       </c>
     </row>
@@ -2917,7 +3202,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -2938,7 +3223,7 @@
       <c r="A2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2946,7 +3231,7 @@
       <c r="A3" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2954,7 +3239,7 @@
       <c r="A4" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2962,7 +3247,7 @@
       <c r="A5" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2970,7 +3255,7 @@
       <c r="A6" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2978,7 +3263,7 @@
       <c r="A7" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2986,7 +3271,7 @@
       <c r="A8" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2994,7 +3279,7 @@
       <c r="A9" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3002,7 +3287,7 @@
       <c r="A10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3010,7 +3295,7 @@
       <c r="A11" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3018,7 +3303,7 @@
       <c r="A12" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3026,7 +3311,7 @@
       <c r="A13" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3034,7 +3319,7 @@
       <c r="A14" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="11" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3042,7 +3327,7 @@
       <c r="A15" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="11" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3050,7 +3335,7 @@
       <c r="A16" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3058,7 +3343,7 @@
       <c r="A17" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="11" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3066,7 +3351,7 @@
       <c r="A18" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="11" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3074,7 +3359,7 @@
       <c r="A19" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="11" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3082,7 +3367,7 @@
       <c r="A20" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="11" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3090,7 +3375,7 @@
       <c r="A21" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="11" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3106,7 +3391,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A2:B34"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -3124,266 +3409,266 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="9" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="9" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="9" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="9" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="9" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3398,8 +3683,8 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -3468,4 +3753,486 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.5625" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="42.96875" customWidth="1"/>
+    <col min="2" max="2" width="35.9375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" ht="18" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" ht="36" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" ht="36" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" ht="36" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" ht="36" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" ht="36" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" ht="36" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" ht="36" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" ht="36" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" ht="36" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" ht="36" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" ht="18" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" ht="18" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/TestData/数据迁移.xlsx
+++ b/src/main/TestData/数据迁移.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14100" activeTab="5"/>
+    <workbookView windowHeight="17700" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="百融001" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="本地字段004" sheetId="4" r:id="rId4"/>
     <sheet name="迁移字段005" sheetId="5" r:id="rId5"/>
     <sheet name="优分006" sheetId="6" r:id="rId6"/>
+    <sheet name="sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399">
   <si>
     <t>var_name</t>
   </si>
@@ -1090,6 +1091,156 @@
   <si>
     <t>优分数据贷款逾期金额是否大于0.2w</t>
   </si>
+  <si>
+    <t>br_m3_cell_caon_orgnum</t>
+  </si>
+  <si>
+    <t>百融_按手机号_近3个月申请线上现金分期的机构数</t>
+  </si>
+  <si>
+    <t>br_m12_id_caoff_allnum</t>
+  </si>
+  <si>
+    <t>百融_按身份证号_近12个月申请线下现金分期的次数</t>
+  </si>
+  <si>
+    <t>br_m3_id_nbank_cf_orgnum</t>
+  </si>
+  <si>
+    <t>百融_按身份证号_近3个月在非银机构-消费类分期申请机构数</t>
+  </si>
+  <si>
+    <t>br_m12_id_avg_monnum</t>
+  </si>
+  <si>
+    <t>百融_按身份证号_近12个月平均每月申请次数</t>
+  </si>
+  <si>
+    <t>br_m3_id_nbank_week_orgnum</t>
+  </si>
+  <si>
+    <t>百融_按身份证号_近3个月在非银机构周末申请机构数</t>
+  </si>
+  <si>
+    <t>br_m6_id_nbank_ca_orgnum</t>
+  </si>
+  <si>
+    <t>百融_按身份证号_近6个月在非银机构-现金类分期申请机构数</t>
+  </si>
+  <si>
+    <t>br_m3_cell_nbank_cons_allnum</t>
+  </si>
+  <si>
+    <t>百融_按手机号_近3个月在非银机构-持牌消费金融机构申请次数</t>
+  </si>
+  <si>
+    <t>br_m6_id_nbank_sloan_allnum</t>
+  </si>
+  <si>
+    <t>百融_按身份证号_近6个月在非银机构-持牌小贷机构申请次数</t>
+  </si>
+  <si>
+    <t>br_m1_id_caoff_allnum</t>
+  </si>
+  <si>
+    <t>百融_按身份证号_近1个月申请线下现金分期的次数</t>
+  </si>
+  <si>
+    <t>br_m1_cell_rel_allnum</t>
+  </si>
+  <si>
+    <t>百融_按手机号_近1个月申请信用卡（类信用卡）的次数</t>
+  </si>
+  <si>
+    <t>xy_apply_latest_six_month</t>
+  </si>
+  <si>
+    <t>新颜雷达_近6个月总查询笔数</t>
+  </si>
+  <si>
+    <t>xy_behavior_loans_overdue_count</t>
+  </si>
+  <si>
+    <t>新颜雷达_贷款逾期订单数</t>
+  </si>
+  <si>
+    <t>xy_behavior_loans_history_fail_fee</t>
+  </si>
+  <si>
+    <t>新颜雷达_历史贷款机构失败扣款笔数</t>
+  </si>
+  <si>
+    <t>xy_behavior_loans_score</t>
+  </si>
+  <si>
+    <t>新颜雷达_贷款行为分</t>
+  </si>
+  <si>
+    <t>xy_behavior_latest_one_month_fail</t>
+  </si>
+  <si>
+    <t>新颜雷达_近1个月贷款机构失败扣款笔数</t>
+  </si>
+  <si>
+    <t>xy_behavior_latest_three_month</t>
+  </si>
+  <si>
+    <t>新颜雷达_近3个月总查询笔数</t>
+  </si>
+  <si>
+    <t>xy_current_loans_org_count</t>
+  </si>
+  <si>
+    <t>新颜雷达_贷款机构数</t>
+  </si>
+  <si>
+    <t>bh_rev_overdue_account_count_d90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百行_循环授信_近90天内发生逾期账户数 </t>
+  </si>
+  <si>
+    <t>bh_rev_overdue_account_count_d360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百行_循环授信_近360天内发生逾期账户数 </t>
+  </si>
+  <si>
+    <t>bh_rev_account_count_d360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百行_循环授信_近360天累计循环授信账户数 </t>
+  </si>
+  <si>
+    <t>bh_rev_overdue_account_count_d30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百行_循环授信_近30天内发生逾期账户数 </t>
+  </si>
+  <si>
+    <t>bh_rev_summary_remaining_overdue_accountCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百行_循环授信_当前逾期账户数 </t>
+  </si>
+  <si>
+    <t>bh_nonrev_overdue_loan_count_d30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百行_非循环授信_近30天发生逾期贷款笔数 </t>
+  </si>
+  <si>
+    <t>bh_rev_account_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">百行_循环授信_近3年累计循环授信账户数 </t>
+  </si>
+  <si>
+    <t>bh_nonrev_remaining_overdue_amount</t>
+  </si>
+  <si>
+    <t>百行_非循环授信_当前逾期金额</t>
+  </si>
 </sst>
 </file>
 
@@ -1097,11 +1248,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1114,6 +1265,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1148,6 +1305,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1161,8 +1325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,6 +1349,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1193,7 +1374,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,16 +1404,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1231,61 +1433,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1318,7 +1475,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,7 +1571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,37 +1583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,49 +1601,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,61 +1637,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,30 +1678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1556,9 +1689,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1578,17 +1722,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1608,161 +1746,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1771,28 +1928,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4005,8 +4162,8 @@
   <sheetPr/>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -4024,78 +4181,78 @@
       </c>
     </row>
     <row r="2" ht="18" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" ht="18" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" ht="36" spans="1:2">
+    <row r="11" ht="18" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>158</v>
       </c>
@@ -4104,131 +4261,360 @@
       </c>
     </row>
     <row r="12" ht="18" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" ht="18" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" ht="18" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" ht="18" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" ht="18" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" ht="18" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" ht="18" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="51.8125" customWidth="1"/>
+    <col min="2" max="2" width="49.4765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" ht="34" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" ht="34" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" ht="34" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" ht="34" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" ht="17" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" ht="18" spans="1:2">
+        <v>369</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" ht="17" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" ht="18" spans="1:2">
+        <v>371</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" ht="17" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" ht="18" spans="1:2">
+        <v>373</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" ht="17" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" ht="18" spans="1:2">
+        <v>375</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" ht="17" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" ht="36" spans="1:2">
+        <v>377</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" ht="36" spans="1:2">
+        <v>379</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" ht="17" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" ht="36" spans="1:2">
+        <v>381</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" ht="36" spans="1:2">
+        <v>383</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" ht="36" spans="1:2">
+        <v>385</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" ht="17" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" ht="36" spans="1:2">
+        <v>387</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" ht="17" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" ht="36" spans="1:2">
+        <v>389</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" ht="17" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" ht="36" spans="1:2">
+        <v>391</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" ht="17" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" ht="36" spans="1:2">
+        <v>393</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" ht="17" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="1:2">
+        <v>395</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="27" ht="18" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>348</v>
+        <v>397</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/TestData/数据迁移.xlsx
+++ b/src/main/TestData/数据迁移.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="百融001" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="迁移字段005" sheetId="5" r:id="rId5"/>
     <sheet name="优分006" sheetId="6" r:id="rId6"/>
     <sheet name="sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="颜值贷0304" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
   <si>
     <t>var_name</t>
   </si>
@@ -1241,18 +1242,119 @@
   <si>
     <t>百行_非循环授信_当前逾期金额</t>
   </si>
+  <si>
+    <t>yzd_ovd_repay_amt_rf_repay_rto_p271d</t>
+  </si>
+  <si>
+    <t>还款时间在过去270个自然日内，用户逾期还款金额在总还款金额中的占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yzd_ovd_repay_amt_rf_repay_rto_p181d </t>
+  </si>
+  <si>
+    <t>还款时间在过去180个自然日内，用户逾期还款金额在总还款金额中的占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yzd_first_normal_repay_time_diff_p361d </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF172B4D"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应还款日在过去360个自然日内，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前时间距用户第一次正常还款时间天数</t>
+    </r>
+  </si>
+  <si>
+    <t>yzd_ovd_repay_rto_p3repayment</t>
+  </si>
+  <si>
+    <t>过去3笔还款记录中，逾期还款占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yzd_ely_repay_rto_rf_repay_p181d </t>
+  </si>
+  <si>
+    <t>还款时间在过去180个自然日内，提前还款次数在总还款次数中的占比</t>
+  </si>
+  <si>
+    <t>yzd_ovd_days_rf_repay_max_p91d</t>
+  </si>
+  <si>
+    <t>还款时间在过去90个自然日内，最大逾期还款天数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yzd_ovd_days_rf_repay_min_p91d </t>
+  </si>
+  <si>
+    <t>还款时间在过去90个自然日内，最小逾期还款天数</t>
+  </si>
+  <si>
+    <t>yzd_ovd_days_rf_due_min_p181d</t>
+  </si>
+  <si>
+    <t>应还款日在过去180个自然日内，最小逾期还款天数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yzd_ovd_days_rf_due_max_p181d </t>
+  </si>
+  <si>
+    <t>应还款日在过去180个自然日内，最大逾期还款天数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yzd_normal_repay_cnt_rf_due_p181d </t>
+  </si>
+  <si>
+    <t>应还款日在过去180个自然日内，正常还款次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yzd_ovd_days_last_p2pay_off_ord </t>
+  </si>
+  <si>
+    <t>最近两笔应结清订单中,距当前时间最近的一笔逾期还款的逾期天数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yzd_appl_ord_cnt_p91d </t>
+  </si>
+  <si>
+    <t>提现申请时间在过去90个自然日内，提现申请次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yzd_ord_succ_amt_rto_p181d </t>
+  </si>
+  <si>
+    <t>提现申请时间在过去180个自然日内，提现成功金额在总申请提现金额中的占比</t>
+  </si>
+  <si>
+    <t>yzd_idnum_prov</t>
+  </si>
+  <si>
+    <t>用户身份证所在省份</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1265,6 +1367,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF172B4D"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1327,14 +1435,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1350,7 +1458,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1365,6 +1473,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1374,14 +1505,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1395,39 +1519,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1447,8 +1540,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1457,7 +1571,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,19 +1613,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,31 +1649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,7 +1667,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,7 +1709,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,13 +1739,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,79 +1799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1689,11 +1839,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1702,7 +1850,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1722,11 +1870,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1761,195 +1915,212 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2277,1073 +2448,1073 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.9140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.265625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="65.234375" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="25.9140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="65.234375" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" spans="1:4">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="19" customFormat="1" spans="1:4">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="14" customFormat="1" spans="1:4">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="14" customFormat="1" spans="1:4">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="14" customFormat="1" spans="1:4">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:4">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="14" customFormat="1" spans="1:4">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" s="7" customFormat="1" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="D6" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="14" customFormat="1" spans="1:4">
+      <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:4">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="14" customFormat="1" spans="1:4">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:4">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="14" customFormat="1" spans="1:4">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:4">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="14" customFormat="1" spans="1:4">
+      <c r="A10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:4">
-      <c r="A11" s="7" t="s">
+    <row r="11" s="14" customFormat="1" spans="1:4">
+      <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" spans="1:4">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="14" customFormat="1" spans="1:4">
+      <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="19">
         <v>11</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" spans="1:4">
-      <c r="A13" s="7" t="s">
+    <row r="13" s="14" customFormat="1" spans="1:4">
+      <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="1" spans="1:4">
-      <c r="A14" s="7" t="s">
+    <row r="14" s="14" customFormat="1" spans="1:4">
+      <c r="A14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="19">
         <v>13</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" spans="1:4">
-      <c r="A15" s="7" t="s">
+    <row r="15" s="14" customFormat="1" spans="1:4">
+      <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="19">
         <v>14</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" spans="1:4">
-      <c r="A16" s="7" t="s">
+    <row r="16" s="14" customFormat="1" spans="1:4">
+      <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="19">
         <v>15</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" spans="1:4">
-      <c r="A17" s="7" t="s">
+    <row r="17" s="14" customFormat="1" spans="1:4">
+      <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="19">
         <v>16</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" spans="1:4">
-      <c r="A18" s="7" t="s">
+    <row r="18" s="14" customFormat="1" spans="1:4">
+      <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="19">
         <v>17</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" spans="1:4">
-      <c r="A19" s="7" t="s">
+    <row r="19" s="14" customFormat="1" spans="1:4">
+      <c r="A19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" spans="1:4">
-      <c r="A20" s="7" t="s">
+    <row r="20" s="14" customFormat="1" spans="1:4">
+      <c r="A20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="19">
         <v>19</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="1:4">
-      <c r="A21" s="7" t="s">
+    <row r="21" s="14" customFormat="1" spans="1:4">
+      <c r="A21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="1:4">
-      <c r="A22" s="7" t="s">
+    <row r="22" s="14" customFormat="1" spans="1:4">
+      <c r="A22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="19">
         <v>21</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:4">
-      <c r="A23" s="7" t="s">
+    <row r="23" s="14" customFormat="1" spans="1:4">
+      <c r="A23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="19">
         <v>22</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="1:4">
-      <c r="A24" s="7" t="s">
+    <row r="24" s="14" customFormat="1" spans="1:4">
+      <c r="A24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="19">
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:4">
-      <c r="A25" s="7" t="s">
+    <row r="25" s="14" customFormat="1" spans="1:4">
+      <c r="A25" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="19">
         <v>24</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:4">
-      <c r="A26" s="7" t="s">
+    <row r="26" s="14" customFormat="1" spans="1:4">
+      <c r="A26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" spans="1:4">
-      <c r="A27" s="7" t="s">
+    <row r="27" s="14" customFormat="1" spans="1:4">
+      <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="19">
         <v>26</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="1:4">
-      <c r="A28" s="7" t="s">
+    <row r="28" s="14" customFormat="1" spans="1:4">
+      <c r="A28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="19">
         <v>27</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" spans="1:4">
-      <c r="A29" s="7" t="s">
+    <row r="29" s="14" customFormat="1" spans="1:4">
+      <c r="A29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="19">
         <v>28</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:4">
-      <c r="A30" s="7" t="s">
+    <row r="30" s="14" customFormat="1" spans="1:4">
+      <c r="A30" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="19">
         <v>29</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" spans="1:4">
-      <c r="A31" s="7" t="s">
+    <row r="31" s="14" customFormat="1" spans="1:4">
+      <c r="A31" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="19">
         <v>30</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:4">
-      <c r="A32" s="7" t="s">
+    <row r="32" s="14" customFormat="1" spans="1:4">
+      <c r="A32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="19">
         <v>31</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:4">
-      <c r="A33" s="7" t="s">
+    <row r="33" s="14" customFormat="1" spans="1:4">
+      <c r="A33" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="19">
         <v>32</v>
       </c>
     </row>
-    <row r="34" s="7" customFormat="1" spans="1:4">
-      <c r="A34" s="7" t="s">
+    <row r="34" s="14" customFormat="1" spans="1:4">
+      <c r="A34" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="19">
         <v>33</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:4">
-      <c r="A35" s="7" t="s">
+    <row r="35" s="14" customFormat="1" spans="1:4">
+      <c r="A35" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="19">
         <v>34</v>
       </c>
     </row>
-    <row r="36" s="7" customFormat="1" spans="1:4">
-      <c r="A36" s="7" t="s">
+    <row r="36" s="14" customFormat="1" spans="1:4">
+      <c r="A36" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="19">
         <v>35</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" spans="1:4">
-      <c r="A37" s="7" t="s">
+    <row r="37" s="14" customFormat="1" spans="1:4">
+      <c r="A37" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="19">
         <v>36</v>
       </c>
     </row>
-    <row r="38" s="7" customFormat="1" spans="1:4">
-      <c r="A38" s="7" t="s">
+    <row r="38" s="14" customFormat="1" spans="1:4">
+      <c r="A38" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="19">
         <v>37</v>
       </c>
     </row>
-    <row r="39" s="7" customFormat="1" spans="1:4">
-      <c r="A39" s="7" t="s">
+    <row r="39" s="14" customFormat="1" spans="1:4">
+      <c r="A39" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="19">
         <v>38</v>
       </c>
     </row>
-    <row r="40" s="7" customFormat="1" spans="1:4">
-      <c r="A40" s="7" t="s">
+    <row r="40" s="14" customFormat="1" spans="1:4">
+      <c r="A40" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="19">
         <v>39</v>
       </c>
     </row>
-    <row r="41" s="7" customFormat="1" spans="1:4">
-      <c r="A41" s="7" t="s">
+    <row r="41" s="14" customFormat="1" spans="1:4">
+      <c r="A41" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="19">
         <v>40</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" spans="1:4">
-      <c r="A42" s="7" t="s">
+    <row r="42" s="14" customFormat="1" spans="1:4">
+      <c r="A42" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="19">
         <v>41</v>
       </c>
     </row>
-    <row r="43" s="7" customFormat="1" spans="1:4">
-      <c r="A43" s="7" t="s">
+    <row r="43" s="14" customFormat="1" spans="1:4">
+      <c r="A43" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="19">
         <v>42</v>
       </c>
     </row>
-    <row r="44" s="7" customFormat="1" spans="1:4">
-      <c r="A44" s="7" t="s">
+    <row r="44" s="14" customFormat="1" spans="1:4">
+      <c r="A44" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="19">
         <v>43</v>
       </c>
     </row>
-    <row r="45" s="7" customFormat="1" spans="1:4">
-      <c r="A45" s="7" t="s">
+    <row r="45" s="14" customFormat="1" spans="1:4">
+      <c r="A45" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="19">
         <v>44</v>
       </c>
     </row>
-    <row r="46" s="7" customFormat="1" spans="1:4">
-      <c r="A46" s="7" t="s">
+    <row r="46" s="14" customFormat="1" spans="1:4">
+      <c r="A46" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="19">
         <v>45</v>
       </c>
     </row>
-    <row r="47" s="7" customFormat="1" spans="1:4">
-      <c r="A47" s="7" t="s">
+    <row r="47" s="14" customFormat="1" spans="1:4">
+      <c r="A47" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="19">
         <v>46</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="1" spans="1:4">
-      <c r="A48" s="7" t="s">
+    <row r="48" s="14" customFormat="1" spans="1:4">
+      <c r="A48" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="19">
         <v>47</v>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1" spans="1:4">
-      <c r="A49" s="7" t="s">
+    <row r="49" s="14" customFormat="1" spans="1:4">
+      <c r="A49" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="19">
         <v>48</v>
       </c>
     </row>
-    <row r="50" s="7" customFormat="1" spans="1:4">
-      <c r="A50" s="7" t="s">
+    <row r="50" s="14" customFormat="1" spans="1:4">
+      <c r="A50" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="19">
         <v>49</v>
       </c>
     </row>
-    <row r="51" s="7" customFormat="1" spans="1:4">
-      <c r="A51" s="7" t="s">
+    <row r="51" s="14" customFormat="1" spans="1:4">
+      <c r="A51" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="19">
         <v>50</v>
       </c>
     </row>
-    <row r="52" s="7" customFormat="1" spans="1:4">
-      <c r="A52" s="7" t="s">
+    <row r="52" s="14" customFormat="1" spans="1:4">
+      <c r="A52" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="19">
         <v>51</v>
       </c>
     </row>
-    <row r="53" s="7" customFormat="1" spans="1:4">
-      <c r="A53" s="7" t="s">
+    <row r="53" s="14" customFormat="1" spans="1:4">
+      <c r="A53" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="19">
         <v>52</v>
       </c>
     </row>
-    <row r="54" s="7" customFormat="1" spans="1:4">
-      <c r="A54" s="7" t="s">
+    <row r="54" s="14" customFormat="1" spans="1:4">
+      <c r="A54" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="19">
         <v>53</v>
       </c>
     </row>
-    <row r="55" s="7" customFormat="1" spans="1:4">
-      <c r="A55" s="7" t="s">
+    <row r="55" s="14" customFormat="1" spans="1:4">
+      <c r="A55" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="19">
         <v>54</v>
       </c>
     </row>
-    <row r="56" s="7" customFormat="1" spans="1:4">
-      <c r="A56" s="7" t="s">
+    <row r="56" s="14" customFormat="1" spans="1:4">
+      <c r="A56" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="B56" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="19">
         <v>55</v>
       </c>
     </row>
-    <row r="57" s="7" customFormat="1" spans="1:4">
-      <c r="A57" s="7" t="s">
+    <row r="57" s="14" customFormat="1" spans="1:4">
+      <c r="A57" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="19">
         <v>56</v>
       </c>
     </row>
-    <row r="58" s="7" customFormat="1" spans="1:4">
-      <c r="A58" s="7" t="s">
+    <row r="58" s="14" customFormat="1" spans="1:4">
+      <c r="A58" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="19">
         <v>57</v>
       </c>
     </row>
-    <row r="59" s="7" customFormat="1" spans="1:4">
-      <c r="A59" s="7" t="s">
+    <row r="59" s="14" customFormat="1" spans="1:4">
+      <c r="A59" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="7" t="s">
+      <c r="B59" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="19">
         <v>58</v>
       </c>
     </row>
-    <row r="60" s="7" customFormat="1" spans="1:4">
-      <c r="A60" s="7" t="s">
+    <row r="60" s="14" customFormat="1" spans="1:4">
+      <c r="A60" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="19">
         <v>59</v>
       </c>
     </row>
-    <row r="61" s="7" customFormat="1" spans="1:4">
-      <c r="A61" s="7" t="s">
+    <row r="61" s="14" customFormat="1" spans="1:4">
+      <c r="A61" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="19">
         <v>60</v>
       </c>
     </row>
-    <row r="62" s="7" customFormat="1" spans="1:4">
-      <c r="A62" s="7" t="s">
+    <row r="62" s="14" customFormat="1" spans="1:4">
+      <c r="A62" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="B62" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="19">
         <v>61</v>
       </c>
     </row>
-    <row r="63" s="7" customFormat="1" spans="1:4">
-      <c r="A63" s="7" t="s">
+    <row r="63" s="14" customFormat="1" spans="1:4">
+      <c r="A63" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="19">
         <v>62</v>
       </c>
     </row>
-    <row r="64" s="7" customFormat="1" spans="1:4">
-      <c r="A64" s="7" t="s">
+    <row r="64" s="14" customFormat="1" spans="1:4">
+      <c r="A64" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="7" t="s">
+      <c r="B64" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="19">
         <v>63</v>
       </c>
     </row>
-    <row r="65" s="7" customFormat="1" spans="1:4">
-      <c r="A65" s="7" t="s">
+    <row r="65" s="14" customFormat="1" spans="1:4">
+      <c r="A65" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="19">
         <v>64</v>
       </c>
     </row>
-    <row r="66" s="7" customFormat="1" spans="1:4">
-      <c r="A66" s="7" t="s">
+    <row r="66" s="14" customFormat="1" spans="1:4">
+      <c r="A66" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="7" t="s">
+      <c r="B66" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="19">
         <v>65</v>
       </c>
     </row>
-    <row r="67" s="7" customFormat="1" spans="1:4">
-      <c r="A67" s="7" t="s">
+    <row r="67" s="14" customFormat="1" spans="1:4">
+      <c r="A67" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="19">
         <v>66</v>
       </c>
     </row>
-    <row r="68" s="7" customFormat="1" spans="1:4">
-      <c r="A68" s="7" t="s">
+    <row r="68" s="14" customFormat="1" spans="1:4">
+      <c r="A68" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="7" t="s">
+      <c r="B68" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="19">
         <v>67</v>
       </c>
     </row>
-    <row r="69" s="7" customFormat="1" spans="1:4">
-      <c r="A69" s="7" t="s">
+    <row r="69" s="14" customFormat="1" spans="1:4">
+      <c r="A69" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="19">
         <v>68</v>
       </c>
     </row>
-    <row r="70" s="7" customFormat="1" spans="1:4">
-      <c r="A70" s="7" t="s">
+    <row r="70" s="14" customFormat="1" spans="1:4">
+      <c r="A70" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="19">
         <v>69</v>
       </c>
     </row>
-    <row r="71" s="7" customFormat="1" spans="1:4">
-      <c r="A71" s="7" t="s">
+    <row r="71" s="14" customFormat="1" spans="1:4">
+      <c r="A71" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="19">
         <v>70</v>
       </c>
     </row>
-    <row r="72" s="7" customFormat="1" spans="1:4">
-      <c r="A72" s="7" t="s">
+    <row r="72" s="14" customFormat="1" spans="1:4">
+      <c r="A72" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="19">
         <v>71</v>
       </c>
     </row>
-    <row r="73" s="7" customFormat="1" spans="1:4">
-      <c r="A73" s="7" t="s">
+    <row r="73" s="14" customFormat="1" spans="1:4">
+      <c r="A73" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="19">
         <v>72</v>
       </c>
     </row>
-    <row r="74" s="7" customFormat="1" spans="1:4">
-      <c r="A74" s="7" t="s">
+    <row r="74" s="14" customFormat="1" spans="1:4">
+      <c r="A74" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="19">
         <v>73</v>
       </c>
     </row>
-    <row r="75" s="7" customFormat="1" spans="1:4">
-      <c r="A75" s="7" t="s">
+    <row r="75" s="14" customFormat="1" spans="1:4">
+      <c r="A75" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="19">
         <v>74</v>
       </c>
     </row>
-    <row r="76" s="7" customFormat="1" spans="1:4">
-      <c r="A76" s="7" t="s">
+    <row r="76" s="14" customFormat="1" spans="1:4">
+      <c r="A76" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="19">
         <v>75</v>
       </c>
     </row>
@@ -3380,7 +3551,7 @@
       <c r="A2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3388,7 +3559,7 @@
       <c r="A3" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="18" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3396,7 +3567,7 @@
       <c r="A4" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="18" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3404,7 +3575,7 @@
       <c r="A5" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="18" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3412,7 +3583,7 @@
       <c r="A6" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="18" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3420,7 +3591,7 @@
       <c r="A7" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="18" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3428,7 +3599,7 @@
       <c r="A8" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3436,7 +3607,7 @@
       <c r="A9" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="18" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3444,7 +3615,7 @@
       <c r="A10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="18" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3452,7 +3623,7 @@
       <c r="A11" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="18" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3460,7 +3631,7 @@
       <c r="A12" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="18" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3468,7 +3639,7 @@
       <c r="A13" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3476,7 +3647,7 @@
       <c r="A14" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="18" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3484,7 +3655,7 @@
       <c r="A15" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3492,7 +3663,7 @@
       <c r="A16" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="18" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3500,7 +3671,7 @@
       <c r="A17" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="18" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3508,7 +3679,7 @@
       <c r="A18" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="18" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3516,7 +3687,7 @@
       <c r="A19" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="18" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3524,7 +3695,7 @@
       <c r="A20" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="18" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3532,7 +3703,7 @@
       <c r="A21" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="18" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3566,266 +3737,266 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="16" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="17" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="16" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="16" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="16" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="16" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="16" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="16" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="16" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="16" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="16" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="16" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="16" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="16" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="16" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="16" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="16" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="16" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="16" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="16" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="16" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="16" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="16" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="16" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="16" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="16" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="16" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3936,7 +4107,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>272</v>
       </c>
       <c r="B2" t="s">
@@ -3944,7 +4115,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>274</v>
       </c>
       <c r="B3" t="s">
@@ -3952,7 +4123,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="13" t="s">
         <v>276</v>
       </c>
       <c r="B4" t="s">
@@ -3960,7 +4131,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>278</v>
       </c>
       <c r="B5" t="s">
@@ -3968,7 +4139,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B6" t="s">
@@ -3976,7 +4147,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="13" t="s">
         <v>282</v>
       </c>
       <c r="B7" t="s">
@@ -3984,7 +4155,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="13" t="s">
         <v>284</v>
       </c>
       <c r="B8" t="s">
@@ -3992,7 +4163,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13" t="s">
         <v>286</v>
       </c>
       <c r="B9" t="s">
@@ -4000,7 +4171,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B10" t="s">
@@ -4008,7 +4179,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="13" t="s">
         <v>290</v>
       </c>
       <c r="B11" t="s">
@@ -4016,7 +4187,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="14" t="s">
         <v>292</v>
       </c>
       <c r="B12" t="s">
@@ -4024,7 +4195,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="14" t="s">
         <v>294</v>
       </c>
       <c r="B13" t="s">
@@ -4032,7 +4203,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="14" t="s">
         <v>296</v>
       </c>
       <c r="B14" t="s">
@@ -4040,7 +4211,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="14" t="s">
         <v>298</v>
       </c>
       <c r="B15" t="s">
@@ -4048,7 +4219,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="14" t="s">
         <v>300</v>
       </c>
       <c r="B16" t="s">
@@ -4056,7 +4227,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="14" t="s">
         <v>302</v>
       </c>
       <c r="B17" t="s">
@@ -4064,7 +4235,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="14" t="s">
         <v>304</v>
       </c>
       <c r="B18" t="s">
@@ -4072,7 +4243,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="14" t="s">
         <v>306</v>
       </c>
       <c r="B19" t="s">
@@ -4080,7 +4251,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="13" t="s">
         <v>308</v>
       </c>
       <c r="B20" t="s">
@@ -4088,7 +4259,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="13" t="s">
         <v>310</v>
       </c>
       <c r="B21" t="s">
@@ -4096,7 +4267,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="13" t="s">
         <v>312</v>
       </c>
       <c r="B22" t="s">
@@ -4104,7 +4275,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="13" t="s">
         <v>314</v>
       </c>
       <c r="B23" t="s">
@@ -4112,7 +4283,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="13" t="s">
         <v>316</v>
       </c>
       <c r="B24" t="s">
@@ -4120,7 +4291,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="13" t="s">
         <v>318</v>
       </c>
       <c r="B25" t="s">
@@ -4128,7 +4299,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="13" t="s">
         <v>320</v>
       </c>
       <c r="B26" t="s">
@@ -4136,7 +4307,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="14" t="s">
         <v>322</v>
       </c>
       <c r="B27" t="s">
@@ -4144,7 +4315,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="13" t="s">
         <v>324</v>
       </c>
       <c r="B28" t="s">
@@ -4181,210 +4352,210 @@
       </c>
     </row>
     <row r="2" ht="18" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" ht="18" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" ht="18" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="12" ht="18" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" ht="18" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" ht="18" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" ht="18" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="18" ht="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="11" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="19" ht="18" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="11" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="20" ht="18" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="11" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="21" ht="18" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="11" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="11" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="23" ht="18" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="11" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="11" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="25" ht="18" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="11" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="26" ht="18" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="11" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="27" ht="18" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="11" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4399,8 +4570,8 @@
   <sheetPr/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -4418,203 +4589,344 @@
       </c>
     </row>
     <row r="2" ht="17" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" ht="34" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" ht="34" spans="1:2">
+      <c r="A7" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" ht="34" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" ht="34" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" ht="17" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" ht="17" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" ht="17" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" ht="17" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" ht="17" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" ht="17" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" ht="17" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="1:2">
+      <c r="A20" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" ht="17" spans="1:2">
+      <c r="A21" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" ht="17" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" ht="17" spans="1:2">
+      <c r="A23" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" ht="17" spans="1:2">
+      <c r="A24" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" ht="17" spans="1:2">
+      <c r="A25" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="41.40625" customWidth="1"/>
+    <col min="2" max="2" width="76.828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" ht="17" spans="1:2">
+        <v>399</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" ht="34" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" ht="17" spans="1:2">
+        <v>401</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" ht="17" spans="1:2">
+        <v>405</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="7" ht="34" spans="1:2">
+        <v>407</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" ht="34" spans="1:2">
+        <v>409</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" ht="34" spans="1:2">
+        <v>411</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" ht="17" spans="1:2">
+        <v>413</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" ht="17" spans="1:2">
+        <v>415</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="12" ht="17" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" ht="17" spans="1:2">
+        <v>417</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" ht="17" spans="1:2">
+        <v>421</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" ht="17" spans="1:2">
+        <v>423</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" ht="17" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" ht="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" ht="17" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="19" ht="17" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" ht="17" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" ht="17" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="22" ht="17" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" ht="17" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="24" ht="17" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="25" ht="17" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="26" ht="17" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>398</v>
+        <v>425</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/TestData/数据迁移.xlsx
+++ b/src/main/TestData/数据迁移.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="28000" windowHeight="12200" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="百融001" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="优分006" sheetId="6" r:id="rId6"/>
     <sheet name="sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="颜值贷0304" sheetId="8" r:id="rId8"/>
+    <sheet name="好多数等三方数据字段" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517">
   <si>
     <t>var_name</t>
   </si>
@@ -1343,18 +1344,288 @@
   <si>
     <t>用户身份证所在省份</t>
   </si>
+  <si>
+    <t>hds_s1_cust_aging_rank</t>
+  </si>
+  <si>
+    <t>好多数_客户手机号时效等级</t>
+  </si>
+  <si>
+    <t>hds_s1_cust_rich_rank</t>
+  </si>
+  <si>
+    <t>好多数_记录丰富度</t>
+  </si>
+  <si>
+    <t>hds_s1_addr_rich_rank</t>
+  </si>
+  <si>
+    <t>好多数_地址丰富度</t>
+  </si>
+  <si>
+    <t>hds_s1_total_tmallid_cnt</t>
+  </si>
+  <si>
+    <t>好多数_该手机号对应自然人在天猫上注册的ID个数</t>
+  </si>
+  <si>
+    <t>hds_s1_36m_total_purchase_cnt</t>
+  </si>
+  <si>
+    <t>好多数_最近3年总订单笔数</t>
+  </si>
+  <si>
+    <t>hds_s1_6m_total_purchase_cnt</t>
+  </si>
+  <si>
+    <t>好多数_最近6个月总订单笔数</t>
+  </si>
+  <si>
+    <t>hds_s1_36m_doub11_12_purchase_cnt</t>
+  </si>
+  <si>
+    <t>好多数_最近3年双11和双12总成交笔数</t>
+  </si>
+  <si>
+    <t>hds_s1_36m_month_max_purchase_cnt_excp_doub11_12</t>
+  </si>
+  <si>
+    <t>好多数_最近3年单月订单最大支付笔数（剔除双11&amp;12）</t>
+  </si>
+  <si>
+    <t>hds_s1_36m_total_purchse_money</t>
+  </si>
+  <si>
+    <t>好多数_最近3年总支付金额</t>
+  </si>
+  <si>
+    <t>hds_s1_total_otherplatform_cnt</t>
+  </si>
+  <si>
+    <t>好多数_该手机号对应自然人在其他平台上注册的ID个数</t>
+  </si>
+  <si>
+    <t>hds_s1_36m_day_max_purchase_cnt_excp_doub11_12</t>
+  </si>
+  <si>
+    <t>好多数_最近3年单日订单最大支付笔数（剔除双11&amp;12）</t>
+  </si>
+  <si>
+    <t>hds_s1_36m_doub11_12_total_purchase_money</t>
+  </si>
+  <si>
+    <t>好多数_最近3年双11和双12总成交金额</t>
+  </si>
+  <si>
+    <t>hds_s1_36m_day_max_purchase_money_excp_doub11_12</t>
+  </si>
+  <si>
+    <t>好多数_最近3年单日最大支付金额（剔除双11&amp;12）</t>
+  </si>
+  <si>
+    <t>hds_s1_36m_month_max_purchase_money_excp_doub11_12</t>
+  </si>
+  <si>
+    <t>好多数_最近3年单月最大支付金额（剔除双11&amp;12）</t>
+  </si>
+  <si>
+    <t>hds_s1_month_cnt_from_most_early_purchase_time</t>
+  </si>
+  <si>
+    <t>好多数_最近3年最早付款时间距今月份数</t>
+  </si>
+  <si>
+    <t>hds_s1_month_cnt_from_recent_purchase_time</t>
+  </si>
+  <si>
+    <t>好多数_最近付款时间距今的月份数</t>
+  </si>
+  <si>
+    <t>hds_s1_pay_record_month_cnt</t>
+  </si>
+  <si>
+    <t>好多数_最近3年有付款记录的月份数</t>
+  </si>
+  <si>
+    <t>hds_s1_36m_purchase_steady</t>
+  </si>
+  <si>
+    <t>好多数_最近3年支付稳定性</t>
+  </si>
+  <si>
+    <t>ym_xwf_finplus_code</t>
+  </si>
+  <si>
+    <t>友盟_finplus小微分响应状态码</t>
+  </si>
+  <si>
+    <t>ym_def_finplus_code</t>
+  </si>
+  <si>
+    <t>友盟_finplus新版大额分响应状态码</t>
+  </si>
+  <si>
+    <t>ym_xef_finplus_code</t>
+  </si>
+  <si>
+    <t>友盟_finplus新版小额分响应状态码</t>
+  </si>
+  <si>
+    <t>ym_xwf_finplus_score</t>
+  </si>
+  <si>
+    <t>友盟_finplus小微分</t>
+  </si>
+  <si>
+    <t>ym_def_finplus_score</t>
+  </si>
+  <si>
+    <t>友盟_finplus新版大额分</t>
+  </si>
+  <si>
+    <t>ym_xef_finplus_score</t>
+  </si>
+  <si>
+    <t>友盟_finplus新版小额分</t>
+  </si>
+  <si>
+    <t>br_frg_list_level</t>
+  </si>
+  <si>
+    <t>百融_查询人欺诈团伙等级</t>
+  </si>
+  <si>
+    <t>br_frg_group_num</t>
+  </si>
+  <si>
+    <t>百融_查询人欺诈团伙群组规模</t>
+  </si>
+  <si>
+    <t>br_frg_rule_final_weight</t>
+  </si>
+  <si>
+    <t>百融_最终欺诈规则评分</t>
+  </si>
+  <si>
+    <t>br_alu_rule_final_weight</t>
+  </si>
+  <si>
+    <t>百融_最终高风险规则评分</t>
+  </si>
+  <si>
+    <t>br_alu_d7_id_allnum</t>
+  </si>
+  <si>
+    <t>百融_近7天_身份证号查询的申请次数</t>
+  </si>
+  <si>
+    <t>br_alu_d15_id_allnum</t>
+  </si>
+  <si>
+    <t>百融_近15天_身份证号查询的申请次数</t>
+  </si>
+  <si>
+    <t>br_alu_m1_id_allnum</t>
+  </si>
+  <si>
+    <t>百融_近1个月_身份证号查询的申请次数</t>
+  </si>
+  <si>
+    <t>br_alu_m3_id_allnum</t>
+  </si>
+  <si>
+    <t>百融_近3个月_身份证号查询的申请次数</t>
+  </si>
+  <si>
+    <t>br_alu_m6_id_allnum</t>
+  </si>
+  <si>
+    <t>百融_近6个月_身份证号查询的申请次数</t>
+  </si>
+  <si>
+    <t>br_alu_m12_id_allnum</t>
+  </si>
+  <si>
+    <t>百融_近12个月_身份证号查询的申请次数</t>
+  </si>
+  <si>
+    <t>rh_hr_isfakephone</t>
+  </si>
+  <si>
+    <t>融慧_是否山寨机</t>
+  </si>
+  <si>
+    <t>rh_hr_ishr</t>
+  </si>
+  <si>
+    <t>融慧_风险等级</t>
+  </si>
+  <si>
+    <t>rh_hr_hr1rc001</t>
+  </si>
+  <si>
+    <t>融慧_高危信贷风险分_A</t>
+  </si>
+  <si>
+    <t>rh_hr_hr1rc002</t>
+  </si>
+  <si>
+    <t>融慧_高危信贷风险分_B</t>
+  </si>
+  <si>
+    <t>rh_hr_hr1rc003</t>
+  </si>
+  <si>
+    <t>融慧_短期高危信贷风险分_A</t>
+  </si>
+  <si>
+    <t>rh_hr_hr1rc004</t>
+  </si>
+  <si>
+    <t>融慧_短期高危信贷风险分_B</t>
+  </si>
+  <si>
+    <t>rh_hr_hr1rc005</t>
+  </si>
+  <si>
+    <t>融慧_近期高危信贷风险分_A</t>
+  </si>
+  <si>
+    <t>rh_hr_hr1rc006</t>
+  </si>
+  <si>
+    <t>融慧_近期高危信贷风险分_B</t>
+  </si>
+  <si>
+    <t>rh_hr_hr1rc007</t>
+  </si>
+  <si>
+    <t>融慧_中期高危信贷风险分_A</t>
+  </si>
+  <si>
+    <t>rh_hr_hr1rc008</t>
+  </si>
+  <si>
+    <t>融慧_中期高危信贷风险分_B</t>
+  </si>
+  <si>
+    <t>rh_hr_hrscore</t>
+  </si>
+  <si>
+    <t>融慧_高危信贷风险分</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1367,6 +1638,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1413,13 +1690,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1433,6 +1703,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1441,17 +1718,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,54 +1773,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1535,14 +1790,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,18 +1804,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB8D00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1619,13 +1908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,7 +1920,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,7 +1956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,37 +1980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,7 +1998,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,7 +2034,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,55 +2076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,7 +2088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1846,6 +2135,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1885,36 +2204,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1928,199 +2217,208 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2448,1073 +2746,1073 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.9140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16.265625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="65.234375" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="25.9140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="65.234375" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" spans="1:4">
-      <c r="A2" s="19" t="s">
+    <row r="2" s="22" customFormat="1" spans="1:4">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="1" spans="1:4">
-      <c r="A3" s="14" t="s">
+    <row r="3" s="17" customFormat="1" spans="1:4">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="1" spans="1:4">
-      <c r="A4" s="14" t="s">
+    <row r="4" s="17" customFormat="1" spans="1:4">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="14" customFormat="1" spans="1:4">
-      <c r="A5" s="14" t="s">
+    <row r="5" s="17" customFormat="1" spans="1:4">
+      <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" spans="1:4">
-      <c r="A6" s="14" t="s">
+    <row r="6" s="17" customFormat="1" spans="1:4">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" s="14" customFormat="1" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="D6" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="17" customFormat="1" spans="1:4">
+      <c r="A7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="8" s="14" customFormat="1" spans="1:4">
-      <c r="A8" s="14" t="s">
+    <row r="8" s="17" customFormat="1" spans="1:4">
+      <c r="A8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="9" s="14" customFormat="1" spans="1:4">
-      <c r="A9" s="14" t="s">
+    <row r="9" s="17" customFormat="1" spans="1:4">
+      <c r="A9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" spans="1:4">
-      <c r="A10" s="14" t="s">
+    <row r="10" s="17" customFormat="1" spans="1:4">
+      <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="11" s="14" customFormat="1" spans="1:4">
-      <c r="A11" s="14" t="s">
+    <row r="11" s="17" customFormat="1" spans="1:4">
+      <c r="A11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="14" customFormat="1" spans="1:4">
-      <c r="A12" s="14" t="s">
+    <row r="12" s="17" customFormat="1" spans="1:4">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="22">
         <v>11</v>
       </c>
     </row>
-    <row r="13" s="14" customFormat="1" spans="1:4">
-      <c r="A13" s="14" t="s">
+    <row r="13" s="17" customFormat="1" spans="1:4">
+      <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="22">
         <v>12</v>
       </c>
     </row>
-    <row r="14" s="14" customFormat="1" spans="1:4">
-      <c r="A14" s="14" t="s">
+    <row r="14" s="17" customFormat="1" spans="1:4">
+      <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="15" s="14" customFormat="1" spans="1:4">
-      <c r="A15" s="14" t="s">
+    <row r="15" s="17" customFormat="1" spans="1:4">
+      <c r="A15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="22">
         <v>14</v>
       </c>
     </row>
-    <row r="16" s="14" customFormat="1" spans="1:4">
-      <c r="A16" s="14" t="s">
+    <row r="16" s="17" customFormat="1" spans="1:4">
+      <c r="A16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="22">
         <v>15</v>
       </c>
     </row>
-    <row r="17" s="14" customFormat="1" spans="1:4">
-      <c r="A17" s="14" t="s">
+    <row r="17" s="17" customFormat="1" spans="1:4">
+      <c r="A17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="22">
         <v>16</v>
       </c>
     </row>
-    <row r="18" s="14" customFormat="1" spans="1:4">
-      <c r="A18" s="14" t="s">
+    <row r="18" s="17" customFormat="1" spans="1:4">
+      <c r="A18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="22">
         <v>17</v>
       </c>
     </row>
-    <row r="19" s="14" customFormat="1" spans="1:4">
-      <c r="A19" s="14" t="s">
+    <row r="19" s="17" customFormat="1" spans="1:4">
+      <c r="A19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="22">
         <v>18</v>
       </c>
     </row>
-    <row r="20" s="14" customFormat="1" spans="1:4">
-      <c r="A20" s="14" t="s">
+    <row r="20" s="17" customFormat="1" spans="1:4">
+      <c r="A20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="21" s="14" customFormat="1" spans="1:4">
-      <c r="A21" s="14" t="s">
+    <row r="21" s="17" customFormat="1" spans="1:4">
+      <c r="A21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="22" s="14" customFormat="1" spans="1:4">
-      <c r="A22" s="14" t="s">
+    <row r="22" s="17" customFormat="1" spans="1:4">
+      <c r="A22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" s="14" customFormat="1" spans="1:4">
-      <c r="A23" s="14" t="s">
+    <row r="23" s="17" customFormat="1" spans="1:4">
+      <c r="A23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="24" s="14" customFormat="1" spans="1:4">
-      <c r="A24" s="14" t="s">
+    <row r="24" s="17" customFormat="1" spans="1:4">
+      <c r="A24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="14" customFormat="1" spans="1:4">
-      <c r="A25" s="14" t="s">
+    <row r="25" s="17" customFormat="1" spans="1:4">
+      <c r="A25" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="26" s="14" customFormat="1" spans="1:4">
-      <c r="A26" s="14" t="s">
+    <row r="26" s="17" customFormat="1" spans="1:4">
+      <c r="A26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="27" s="14" customFormat="1" spans="1:4">
-      <c r="A27" s="14" t="s">
+    <row r="27" s="17" customFormat="1" spans="1:4">
+      <c r="A27" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="22">
         <v>26</v>
       </c>
     </row>
-    <row r="28" s="14" customFormat="1" spans="1:4">
-      <c r="A28" s="14" t="s">
+    <row r="28" s="17" customFormat="1" spans="1:4">
+      <c r="A28" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="22">
         <v>27</v>
       </c>
     </row>
-    <row r="29" s="14" customFormat="1" spans="1:4">
-      <c r="A29" s="14" t="s">
+    <row r="29" s="17" customFormat="1" spans="1:4">
+      <c r="A29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="22">
         <v>28</v>
       </c>
     </row>
-    <row r="30" s="14" customFormat="1" spans="1:4">
-      <c r="A30" s="14" t="s">
+    <row r="30" s="17" customFormat="1" spans="1:4">
+      <c r="A30" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="31" s="14" customFormat="1" spans="1:4">
-      <c r="A31" s="14" t="s">
+    <row r="31" s="17" customFormat="1" spans="1:4">
+      <c r="A31" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="32" s="14" customFormat="1" spans="1:4">
-      <c r="A32" s="14" t="s">
+    <row r="32" s="17" customFormat="1" spans="1:4">
+      <c r="A32" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="22">
         <v>31</v>
       </c>
     </row>
-    <row r="33" s="14" customFormat="1" spans="1:4">
-      <c r="A33" s="14" t="s">
+    <row r="33" s="17" customFormat="1" spans="1:4">
+      <c r="A33" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="22">
         <v>32</v>
       </c>
     </row>
-    <row r="34" s="14" customFormat="1" spans="1:4">
-      <c r="A34" s="14" t="s">
+    <row r="34" s="17" customFormat="1" spans="1:4">
+      <c r="A34" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="14" t="s">
+      <c r="B34" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="22">
         <v>33</v>
       </c>
     </row>
-    <row r="35" s="14" customFormat="1" spans="1:4">
-      <c r="A35" s="14" t="s">
+    <row r="35" s="17" customFormat="1" spans="1:4">
+      <c r="A35" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="14" t="s">
+      <c r="B35" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="22">
         <v>34</v>
       </c>
     </row>
-    <row r="36" s="14" customFormat="1" spans="1:4">
-      <c r="A36" s="14" t="s">
+    <row r="36" s="17" customFormat="1" spans="1:4">
+      <c r="A36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="14" t="s">
+      <c r="B36" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="22">
         <v>35</v>
       </c>
     </row>
-    <row r="37" s="14" customFormat="1" spans="1:4">
-      <c r="A37" s="14" t="s">
+    <row r="37" s="17" customFormat="1" spans="1:4">
+      <c r="A37" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="14" t="s">
+      <c r="B37" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="22">
         <v>36</v>
       </c>
     </row>
-    <row r="38" s="14" customFormat="1" spans="1:4">
-      <c r="A38" s="14" t="s">
+    <row r="38" s="17" customFormat="1" spans="1:4">
+      <c r="A38" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="14" t="s">
+      <c r="B38" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="22">
         <v>37</v>
       </c>
     </row>
-    <row r="39" s="14" customFormat="1" spans="1:4">
-      <c r="A39" s="14" t="s">
+    <row r="39" s="17" customFormat="1" spans="1:4">
+      <c r="A39" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="22">
         <v>38</v>
       </c>
     </row>
-    <row r="40" s="14" customFormat="1" spans="1:4">
-      <c r="A40" s="14" t="s">
+    <row r="40" s="17" customFormat="1" spans="1:4">
+      <c r="A40" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="14" t="s">
+      <c r="B40" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="22">
         <v>39</v>
       </c>
     </row>
-    <row r="41" s="14" customFormat="1" spans="1:4">
-      <c r="A41" s="14" t="s">
+    <row r="41" s="17" customFormat="1" spans="1:4">
+      <c r="A41" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="22">
         <v>40</v>
       </c>
     </row>
-    <row r="42" s="14" customFormat="1" spans="1:4">
-      <c r="A42" s="14" t="s">
+    <row r="42" s="17" customFormat="1" spans="1:4">
+      <c r="A42" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="14" t="s">
+      <c r="B42" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="22">
         <v>41</v>
       </c>
     </row>
-    <row r="43" s="14" customFormat="1" spans="1:4">
-      <c r="A43" s="14" t="s">
+    <row r="43" s="17" customFormat="1" spans="1:4">
+      <c r="A43" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="22">
         <v>42</v>
       </c>
     </row>
-    <row r="44" s="14" customFormat="1" spans="1:4">
-      <c r="A44" s="14" t="s">
+    <row r="44" s="17" customFormat="1" spans="1:4">
+      <c r="A44" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="14" t="s">
+      <c r="B44" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="22">
         <v>43</v>
       </c>
     </row>
-    <row r="45" s="14" customFormat="1" spans="1:4">
-      <c r="A45" s="14" t="s">
+    <row r="45" s="17" customFormat="1" spans="1:4">
+      <c r="A45" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="14" t="s">
+      <c r="B45" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="22">
         <v>44</v>
       </c>
     </row>
-    <row r="46" s="14" customFormat="1" spans="1:4">
-      <c r="A46" s="14" t="s">
+    <row r="46" s="17" customFormat="1" spans="1:4">
+      <c r="A46" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="14" t="s">
+      <c r="B46" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="22">
         <v>45</v>
       </c>
     </row>
-    <row r="47" s="14" customFormat="1" spans="1:4">
-      <c r="A47" s="14" t="s">
+    <row r="47" s="17" customFormat="1" spans="1:4">
+      <c r="A47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="14" t="s">
+      <c r="B47" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="22">
         <v>46</v>
       </c>
     </row>
-    <row r="48" s="14" customFormat="1" spans="1:4">
-      <c r="A48" s="14" t="s">
+    <row r="48" s="17" customFormat="1" spans="1:4">
+      <c r="A48" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="14" t="s">
+      <c r="B48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="22">
         <v>47</v>
       </c>
     </row>
-    <row r="49" s="14" customFormat="1" spans="1:4">
-      <c r="A49" s="14" t="s">
+    <row r="49" s="17" customFormat="1" spans="1:4">
+      <c r="A49" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="14" t="s">
+      <c r="B49" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="22">
         <v>48</v>
       </c>
     </row>
-    <row r="50" s="14" customFormat="1" spans="1:4">
-      <c r="A50" s="14" t="s">
+    <row r="50" s="17" customFormat="1" spans="1:4">
+      <c r="A50" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="14" t="s">
+      <c r="B50" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="22">
         <v>49</v>
       </c>
     </row>
-    <row r="51" s="14" customFormat="1" spans="1:4">
-      <c r="A51" s="14" t="s">
+    <row r="51" s="17" customFormat="1" spans="1:4">
+      <c r="A51" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="14" t="s">
+      <c r="B51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="22">
         <v>50</v>
       </c>
     </row>
-    <row r="52" s="14" customFormat="1" spans="1:4">
-      <c r="A52" s="14" t="s">
+    <row r="52" s="17" customFormat="1" spans="1:4">
+      <c r="A52" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="14" t="s">
+      <c r="B52" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="22">
         <v>51</v>
       </c>
     </row>
-    <row r="53" s="14" customFormat="1" spans="1:4">
-      <c r="A53" s="14" t="s">
+    <row r="53" s="17" customFormat="1" spans="1:4">
+      <c r="A53" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="14" t="s">
+      <c r="B53" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="22">
         <v>52</v>
       </c>
     </row>
-    <row r="54" s="14" customFormat="1" spans="1:4">
-      <c r="A54" s="14" t="s">
+    <row r="54" s="17" customFormat="1" spans="1:4">
+      <c r="A54" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="14" t="s">
+      <c r="B54" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="22">
         <v>53</v>
       </c>
     </row>
-    <row r="55" s="14" customFormat="1" spans="1:4">
-      <c r="A55" s="14" t="s">
+    <row r="55" s="17" customFormat="1" spans="1:4">
+      <c r="A55" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="14" t="s">
+      <c r="B55" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="22">
         <v>54</v>
       </c>
     </row>
-    <row r="56" s="14" customFormat="1" spans="1:4">
-      <c r="A56" s="14" t="s">
+    <row r="56" s="17" customFormat="1" spans="1:4">
+      <c r="A56" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="14" t="s">
+      <c r="B56" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="22">
         <v>55</v>
       </c>
     </row>
-    <row r="57" s="14" customFormat="1" spans="1:4">
-      <c r="A57" s="14" t="s">
+    <row r="57" s="17" customFormat="1" spans="1:4">
+      <c r="A57" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="14" t="s">
+      <c r="B57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="22">
         <v>56</v>
       </c>
     </row>
-    <row r="58" s="14" customFormat="1" spans="1:4">
-      <c r="A58" s="14" t="s">
+    <row r="58" s="17" customFormat="1" spans="1:4">
+      <c r="A58" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="14" t="s">
+      <c r="B58" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="22">
         <v>57</v>
       </c>
     </row>
-    <row r="59" s="14" customFormat="1" spans="1:4">
-      <c r="A59" s="14" t="s">
+    <row r="59" s="17" customFormat="1" spans="1:4">
+      <c r="A59" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="14" t="s">
+      <c r="B59" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="22">
         <v>58</v>
       </c>
     </row>
-    <row r="60" s="14" customFormat="1" spans="1:4">
-      <c r="A60" s="14" t="s">
+    <row r="60" s="17" customFormat="1" spans="1:4">
+      <c r="A60" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="14" t="s">
+      <c r="B60" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D60" s="22">
         <v>59</v>
       </c>
     </row>
-    <row r="61" s="14" customFormat="1" spans="1:4">
-      <c r="A61" s="14" t="s">
+    <row r="61" s="17" customFormat="1" spans="1:4">
+      <c r="A61" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="14" t="s">
+      <c r="B61" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="22">
         <v>60</v>
       </c>
     </row>
-    <row r="62" s="14" customFormat="1" spans="1:4">
-      <c r="A62" s="14" t="s">
+    <row r="62" s="17" customFormat="1" spans="1:4">
+      <c r="A62" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="14" t="s">
+      <c r="B62" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="22">
         <v>61</v>
       </c>
     </row>
-    <row r="63" s="14" customFormat="1" spans="1:4">
-      <c r="A63" s="14" t="s">
+    <row r="63" s="17" customFormat="1" spans="1:4">
+      <c r="A63" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="14" t="s">
+      <c r="B63" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="22">
         <v>62</v>
       </c>
     </row>
-    <row r="64" s="14" customFormat="1" spans="1:4">
-      <c r="A64" s="14" t="s">
+    <row r="64" s="17" customFormat="1" spans="1:4">
+      <c r="A64" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="14" t="s">
+      <c r="B64" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="22">
         <v>63</v>
       </c>
     </row>
-    <row r="65" s="14" customFormat="1" spans="1:4">
-      <c r="A65" s="14" t="s">
+    <row r="65" s="17" customFormat="1" spans="1:4">
+      <c r="A65" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="14" t="s">
+      <c r="B65" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="22">
         <v>64</v>
       </c>
     </row>
-    <row r="66" s="14" customFormat="1" spans="1:4">
-      <c r="A66" s="14" t="s">
+    <row r="66" s="17" customFormat="1" spans="1:4">
+      <c r="A66" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="14" t="s">
+      <c r="B66" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="22">
         <v>65</v>
       </c>
     </row>
-    <row r="67" s="14" customFormat="1" spans="1:4">
-      <c r="A67" s="14" t="s">
+    <row r="67" s="17" customFormat="1" spans="1:4">
+      <c r="A67" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="14" t="s">
+      <c r="B67" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="22">
         <v>66</v>
       </c>
     </row>
-    <row r="68" s="14" customFormat="1" spans="1:4">
-      <c r="A68" s="14" t="s">
+    <row r="68" s="17" customFormat="1" spans="1:4">
+      <c r="A68" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="14" t="s">
+      <c r="B68" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="22">
         <v>67</v>
       </c>
     </row>
-    <row r="69" s="14" customFormat="1" spans="1:4">
-      <c r="A69" s="14" t="s">
+    <row r="69" s="17" customFormat="1" spans="1:4">
+      <c r="A69" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="14" t="s">
+      <c r="B69" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="22">
         <v>68</v>
       </c>
     </row>
-    <row r="70" s="14" customFormat="1" spans="1:4">
-      <c r="A70" s="14" t="s">
+    <row r="70" s="17" customFormat="1" spans="1:4">
+      <c r="A70" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="14" t="s">
+      <c r="B70" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="22">
         <v>69</v>
       </c>
     </row>
-    <row r="71" s="14" customFormat="1" spans="1:4">
-      <c r="A71" s="14" t="s">
+    <row r="71" s="17" customFormat="1" spans="1:4">
+      <c r="A71" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="14" t="s">
+      <c r="B71" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="22">
         <v>70</v>
       </c>
     </row>
-    <row r="72" s="14" customFormat="1" spans="1:4">
-      <c r="A72" s="14" t="s">
+    <row r="72" s="17" customFormat="1" spans="1:4">
+      <c r="A72" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="14" t="s">
+      <c r="B72" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="22">
         <v>71</v>
       </c>
     </row>
-    <row r="73" s="14" customFormat="1" spans="1:4">
-      <c r="A73" s="14" t="s">
+    <row r="73" s="17" customFormat="1" spans="1:4">
+      <c r="A73" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="14" t="s">
+      <c r="B73" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="22">
         <v>72</v>
       </c>
     </row>
-    <row r="74" s="14" customFormat="1" spans="1:4">
-      <c r="A74" s="14" t="s">
+    <row r="74" s="17" customFormat="1" spans="1:4">
+      <c r="A74" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="14" t="s">
+      <c r="B74" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="22">
         <v>73</v>
       </c>
     </row>
-    <row r="75" s="14" customFormat="1" spans="1:4">
-      <c r="A75" s="14" t="s">
+    <row r="75" s="17" customFormat="1" spans="1:4">
+      <c r="A75" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="14" t="s">
+      <c r="B75" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="22">
         <v>74</v>
       </c>
     </row>
-    <row r="76" s="14" customFormat="1" spans="1:4">
-      <c r="A76" s="14" t="s">
+    <row r="76" s="17" customFormat="1" spans="1:4">
+      <c r="A76" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="14" t="s">
+      <c r="B76" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="22">
         <v>75</v>
       </c>
     </row>
@@ -3551,7 +3849,7 @@
       <c r="A2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3559,7 +3857,7 @@
       <c r="A3" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3567,7 +3865,7 @@
       <c r="A4" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3575,7 +3873,7 @@
       <c r="A5" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="21" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3583,7 +3881,7 @@
       <c r="A6" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="21" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3591,7 +3889,7 @@
       <c r="A7" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3599,7 +3897,7 @@
       <c r="A8" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3607,7 +3905,7 @@
       <c r="A9" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3615,7 +3913,7 @@
       <c r="A10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3623,7 +3921,7 @@
       <c r="A11" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="21" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3631,7 +3929,7 @@
       <c r="A12" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="21" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3639,7 +3937,7 @@
       <c r="A13" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="21" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3647,7 +3945,7 @@
       <c r="A14" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="21" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3655,7 +3953,7 @@
       <c r="A15" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="21" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3663,7 +3961,7 @@
       <c r="A16" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="21" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3671,7 +3969,7 @@
       <c r="A17" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3679,7 +3977,7 @@
       <c r="A18" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="21" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3687,7 +3985,7 @@
       <c r="A19" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3695,7 +3993,7 @@
       <c r="A20" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="21" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3703,7 +4001,7 @@
       <c r="A21" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="21" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3737,266 +4035,266 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="19" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="19" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="19" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="19" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="19" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="19" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="19" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="19" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="19" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="19" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="19" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="19" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="19" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="19" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="19" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="19" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="19" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="19" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="19" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="19" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="19" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4107,7 +4405,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>272</v>
       </c>
       <c r="B2" t="s">
@@ -4115,7 +4413,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>274</v>
       </c>
       <c r="B3" t="s">
@@ -4123,7 +4421,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>276</v>
       </c>
       <c r="B4" t="s">
@@ -4131,7 +4429,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>278</v>
       </c>
       <c r="B5" t="s">
@@ -4139,7 +4437,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>280</v>
       </c>
       <c r="B6" t="s">
@@ -4147,7 +4445,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>282</v>
       </c>
       <c r="B7" t="s">
@@ -4155,7 +4453,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="16" t="s">
         <v>284</v>
       </c>
       <c r="B8" t="s">
@@ -4163,7 +4461,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>286</v>
       </c>
       <c r="B9" t="s">
@@ -4171,7 +4469,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>288</v>
       </c>
       <c r="B10" t="s">
@@ -4179,7 +4477,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>290</v>
       </c>
       <c r="B11" t="s">
@@ -4187,7 +4485,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="17" t="s">
         <v>292</v>
       </c>
       <c r="B12" t="s">
@@ -4195,7 +4493,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="17" t="s">
         <v>294</v>
       </c>
       <c r="B13" t="s">
@@ -4203,7 +4501,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="17" t="s">
         <v>296</v>
       </c>
       <c r="B14" t="s">
@@ -4211,7 +4509,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="17" t="s">
         <v>298</v>
       </c>
       <c r="B15" t="s">
@@ -4219,7 +4517,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="17" t="s">
         <v>300</v>
       </c>
       <c r="B16" t="s">
@@ -4227,7 +4525,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B17" t="s">
@@ -4235,7 +4533,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="17" t="s">
         <v>304</v>
       </c>
       <c r="B18" t="s">
@@ -4243,7 +4541,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="17" t="s">
         <v>306</v>
       </c>
       <c r="B19" t="s">
@@ -4251,7 +4549,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="16" t="s">
         <v>308</v>
       </c>
       <c r="B20" t="s">
@@ -4259,7 +4557,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="16" t="s">
         <v>310</v>
       </c>
       <c r="B21" t="s">
@@ -4267,7 +4565,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="16" t="s">
         <v>312</v>
       </c>
       <c r="B22" t="s">
@@ -4275,7 +4573,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="16" t="s">
         <v>314</v>
       </c>
       <c r="B23" t="s">
@@ -4283,7 +4581,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="16" t="s">
         <v>316</v>
       </c>
       <c r="B24" t="s">
@@ -4291,7 +4589,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B25" t="s">
@@ -4299,7 +4597,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="16" t="s">
         <v>320</v>
       </c>
       <c r="B26" t="s">
@@ -4307,7 +4605,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="17" t="s">
         <v>322</v>
       </c>
       <c r="B27" t="s">
@@ -4315,7 +4613,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="16" t="s">
         <v>324</v>
       </c>
       <c r="B28" t="s">
@@ -4352,210 +4650,210 @@
       </c>
     </row>
     <row r="2" ht="18" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" ht="18" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" ht="18" spans="1:2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="12" ht="18" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="14" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" ht="18" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" ht="18" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" ht="18" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="14" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="14" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="18" ht="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="14" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="19" ht="18" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="14" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="20" ht="18" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="14" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="21" ht="18" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="14" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="14" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="23" ht="18" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="14" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="25" ht="18" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="14" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="26" ht="18" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="14" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="27" ht="18" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="14" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4589,202 +4887,202 @@
       </c>
     </row>
     <row r="2" ht="17" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="7" ht="34" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="8" ht="34" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="9" ht="34" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="12" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="17" ht="17" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="19" ht="17" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="21" ht="17" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="12" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="12" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="12" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="12" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="12" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="12" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4799,8 +5097,8 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -4818,115 +5116,504 @@
       </c>
     </row>
     <row r="2" ht="15" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="35.546875" customWidth="1"/>
+    <col min="2" max="2" width="42.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:2">
+        <v>435</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:2">
+        <v>437</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:2">
+        <v>439</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:2">
+        <v>441</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:2">
+        <v>443</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:2">
+        <v>449</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:2">
+        <v>451</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>426</v>
+        <v>453</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" ht="28" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" ht="28" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/TestData/数据迁移.xlsx
+++ b/src/main/TestData/数据迁移.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12200" firstSheet="4" activeTab="8"/>
+    <workbookView windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="百融001" sheetId="1" r:id="rId1"/>
@@ -22,468 +22,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409">
   <si>
     <t>var_name</t>
   </si>
   <si>
-    <t>service_code</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>br_alu_d7_cell_allnum</t>
+  </si>
+  <si>
+    <t>百融_近7天_手机号查询的申请次数</t>
+  </si>
+  <si>
+    <t>br_alu_d15_cell_allnum</t>
+  </si>
+  <si>
+    <t>百融_近15天_手机号查询的申请次数</t>
+  </si>
+  <si>
+    <t>br_alu_m1_cell_allnum</t>
+  </si>
+  <si>
+    <t>百融_近1个月_手机号查询的申请次数</t>
+  </si>
+  <si>
+    <t>br_alu_m3_cell_allnum</t>
+  </si>
+  <si>
+    <t>百融_近3个月_手机号查询的申请次数</t>
+  </si>
+  <si>
+    <t>br_alu_m6_cell_allnum</t>
+  </si>
+  <si>
+    <t>百融_近6个月_手机号查询的申请次数</t>
+  </si>
+  <si>
+    <t>br_alu_m12_cell_allnum</t>
+  </si>
+  <si>
+    <t>百融_近12个月_手机号查询的申请次数</t>
+  </si>
+  <si>
+    <t>br_alu_d7_id_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近7天_身份证号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_alu_d15_id_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近15天_身份证号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_alu_m1_id_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近1个月_身份证号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_alu_m3_id_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近3个月_身份证号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_alu_m6_id_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近6个月_身份证号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_alu_m12_id_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近12个月_身份证号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_alu_d7_cell_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近7天_手机号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_alu_d15_cell_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近15天_手机号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_alu_m1_cell_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近1个月_手机号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_alu_m3_cell_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近3个月_手机号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_alu_m6_cell_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近6个月_手机号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_alu_m12_cell_orgnum</t>
+  </si>
+  <si>
+    <t>百融_近12个月_手机号查询的申请机构数</t>
+  </si>
+  <si>
+    <t>br_frg_rule_final_decision</t>
+  </si>
+  <si>
+    <t>百融_最终欺诈规则决策结果</t>
+  </si>
+  <si>
+    <t>br_alu_rule_final_decision</t>
+  </si>
+  <si>
+    <t>百融_最终高风险规则决策结果</t>
+  </si>
+  <si>
+    <t>br_alu_flag_applyloanusury</t>
+  </si>
+  <si>
+    <t>百融_高风险借贷意向验证输出标识</t>
+  </si>
+  <si>
+    <t>yzd_user_current_overdue_days_rt</t>
+  </si>
+  <si>
+    <t>颜值贷当前逾期天数</t>
   </si>
   <si>
     <t>desc</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>SLIDABNORMAL</t>
-  </si>
-  <si>
-    <t>BRC_S033</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询高危行为</t>
-  </si>
-  <si>
-    <t>SLIDPHOVRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询电信欠费</t>
-  </si>
-  <si>
-    <t>SLIDCRTBAD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询法院失信人</t>
-  </si>
-  <si>
-    <t>SLIDCRTEXECU</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询法院被执行人</t>
-  </si>
-  <si>
-    <t>SLIDBANKBAD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询银行(含信用卡)不良</t>
-  </si>
-  <si>
-    <t>SLIDBANKOVRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询银行(含信用卡)短时逾期</t>
-  </si>
-  <si>
-    <t>SLIDBANKFRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询银行(含信用卡)资信不佳</t>
-  </si>
-  <si>
-    <t>SLIDBANKLST</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 百融通过身份证号查询银行(含信用卡)失联</t>
-  </si>
-  <si>
-    <t>SLIDBANKRFU</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询银行(含信用卡)拒绝</t>
-  </si>
-  <si>
-    <t>SLIDNBANKP2PBAD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-P2P不良</t>
-  </si>
-  <si>
-    <t>SLIDNBANKP2POVRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-P2P短时逾期</t>
-  </si>
-  <si>
-    <t>SLIDNBANKP2PFRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-P2P资信不佳</t>
-  </si>
-  <si>
-    <t>SLIDNBANKP2PLST</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-P2P失联</t>
-  </si>
-  <si>
-    <t>SLIDNBANKP2PRFU</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-P2P拒绝</t>
-  </si>
-  <si>
-    <t>SLPHNBANKOTHRFU</t>
-  </si>
-  <si>
-    <t>百融通过手机号查询非银-其他拒绝</t>
-  </si>
-  <si>
-    <t>SLPHNBANKOTHLST</t>
-  </si>
-  <si>
-    <t>百融通过手机号查询非银-其他失联</t>
-  </si>
-  <si>
-    <t>SLPHNBANKOTHFRD</t>
-  </si>
-  <si>
-    <t>百融通过手机号查询非银-其他资信不佳</t>
-  </si>
-  <si>
-    <t>SLPHNBANKOTHOVRD</t>
-  </si>
-  <si>
-    <t>百融通过手机号查询非银-其他短时逾期</t>
-  </si>
-  <si>
-    <t>SLPHNBANKOTHBAD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-其他不良</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCFRFU</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-消费类分期拒绝</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCFLST</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-消费类分期失联</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCFFRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-消费类分期资信不佳</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCFOVRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-消费类分期短时逾期</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCFBAD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-消费类分期不良</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCOMRFU</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-代偿类分期拒绝</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCOMLST</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-代偿类分期失联</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCOMFRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-代偿类分期资信不佳</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCOMBAD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-代偿类分期不良</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCOMOVRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-代偿类分期短时逾期</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCARFU</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-现金类分期拒绝</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCALST</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-现金类分期失联</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCAFRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-现金类分期资信不佳</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCAOVRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-现金类分期短时逾期</t>
-  </si>
-  <si>
-    <t>SLPHNBANKCABAD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-现金类分期不良</t>
-  </si>
-  <si>
-    <t>SLPHNBANKMCRFU</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-小贷拒绝</t>
-  </si>
-  <si>
-    <t>SLPHNBANKMCLST</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-小贷失联</t>
-  </si>
-  <si>
-    <t>SLPHNBANKMCFRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-小贷资信不佳</t>
-  </si>
-  <si>
-    <t>SLPHNBANKMCOVRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-小贷短时逾期</t>
-  </si>
-  <si>
-    <t>SLPHNBANKMCBAD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-小贷不良</t>
-  </si>
-  <si>
-    <t>SLPHNBANKP2PRFUS</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-P2P拒绝</t>
-  </si>
-  <si>
-    <t>SLPHNBANKP2PFRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-P2P资信不佳</t>
-  </si>
-  <si>
-    <t>SLPHNBANKP2PBAD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-P2P不良</t>
-  </si>
-  <si>
-    <t>SLPHNBANKP2POVRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询非银-P2P短时逾期</t>
-  </si>
-  <si>
-    <t>SLPHBANKRFU</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询银行(含信用卡)拒绝</t>
-  </si>
-  <si>
-    <t>SLPHBANKLST</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询银行(含信用卡)失联</t>
-  </si>
-  <si>
-    <t>SLPHBANKFRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询银行(含信用卡)资信不佳</t>
-  </si>
-  <si>
-    <t>SLPHBANKOVRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询银行(含信用卡)短时逾期</t>
-  </si>
-  <si>
-    <t>SLPHBANKBAD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询银行(含信用卡)不良</t>
-  </si>
-  <si>
-    <t>SLPHOVRD</t>
-  </si>
-  <si>
-    <t>百融_通过手机号查询电信欠费</t>
-  </si>
-  <si>
-    <t>SLPHABNORMAL</t>
-  </si>
-  <si>
-    <t>百融通过手机号查询高危行为</t>
-  </si>
-  <si>
-    <t>SLIDNBANKOTHERRFU</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-其他拒绝</t>
-  </si>
-  <si>
-    <t>SLIDNBANKOTHERLST</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-其他失联</t>
-  </si>
-  <si>
-    <t>SLIDNBANKOTHERFRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-其他资信不佳</t>
-  </si>
-  <si>
-    <t>SLIDNBANKOTHEROVRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-其他短时逾期</t>
-  </si>
-  <si>
-    <t>SLIDNBANKOTHERBAD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-其他不良</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCFRFU</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-消费类分期拒绝</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCFLST</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-消费类分期失联</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCFFRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-消费类分期资信不佳</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCFOVRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-消费类分期短时逾期</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCFBAD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-消费类分期不良</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCOMRFU</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-代偿类分期拒绝</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCOMLST</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-代偿类分期失联</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCOMFRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-代偿类分期资信不佳</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCOMOVRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-代偿类分期短时逾期</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCOMBAD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-代偿类分期不良</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCARFU</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCALST</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-现金类分期失联</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCAFRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-现金类分期资信不佳</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCAOVRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-现金类分期短时逾期</t>
-  </si>
-  <si>
-    <t>SLIDNBANKCABAD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-现金类分期不良</t>
-  </si>
-  <si>
-    <t>SLIDNBANKMCRFU</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-小贷拒绝</t>
-  </si>
-  <si>
-    <t>SLIDNBANKMCLST</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-小贷失联</t>
-  </si>
-  <si>
-    <t>SLIDNBANKMCFRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-小贷资信不佳</t>
-  </si>
-  <si>
-    <t>SLIDNBANKMCOVRD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-小贷短时逾期</t>
-  </si>
-  <si>
-    <t>SLIDNBANKMCBAD</t>
-  </si>
-  <si>
-    <t>百融通过身份证号查询非银-小贷不良</t>
   </si>
   <si>
     <t>YFINNETMAX</t>
@@ -1025,9 +704,6 @@
     <t>当前订单日期与授信成功日期相隔天数</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>YF_REC_30D_NONBANK_QUERY_CNT</t>
   </si>
   <si>
@@ -1621,11 +1297,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1677,16 +1353,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="华文宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1696,13 +1373,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1711,7 +1382,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1727,7 +1398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,7 +1406,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1749,19 +1427,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1781,24 +1458,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1812,10 +1473,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1827,7 +1497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1908,31 +1578,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1950,13 +1614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1968,7 +1626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1980,19 +1644,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,7 +1686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,7 +1698,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2034,25 +1734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,31 +1752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2126,30 +1796,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2170,6 +1816,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2217,148 +1887,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2417,8 +2087,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2738,1082 +2412,201 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="25.9140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.265625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="65.234375" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="30.8125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="32.5625" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="22" customFormat="1" spans="1:4">
-      <c r="A2" s="22" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="17" customFormat="1" spans="1:4">
-      <c r="A3" s="17" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" s="17" customFormat="1" spans="1:4">
-      <c r="A4" s="17" t="s">
+      <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="17" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" s="17" customFormat="1" spans="1:4">
-      <c r="A5" s="17" t="s">
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="17" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" s="17" customFormat="1" spans="1:4">
-      <c r="A6" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="17" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" s="17" customFormat="1" spans="1:4">
-      <c r="A7" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="17" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" s="17" customFormat="1" spans="1:4">
-      <c r="A8" s="17" t="s">
+      <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" s="17" customFormat="1" spans="1:4">
-      <c r="A9" s="17" t="s">
+      <c r="B10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="17" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" s="17" customFormat="1" spans="1:4">
-      <c r="A10" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="17" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" s="17" customFormat="1" spans="1:4">
-      <c r="A11" s="17" t="s">
+      <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="17" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" s="17" customFormat="1" spans="1:4">
-      <c r="A12" s="17" t="s">
+      <c r="B13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="17" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" s="17" customFormat="1" spans="1:4">
-      <c r="A13" s="17" t="s">
+      <c r="B14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="17" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" s="17" customFormat="1" spans="1:4">
-      <c r="A14" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="17" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" s="17" customFormat="1" spans="1:4">
-      <c r="A15" s="17" t="s">
+      <c r="B16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="17" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" s="17" customFormat="1" spans="1:4">
-      <c r="A16" s="17" t="s">
+      <c r="B17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="17" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" s="17" customFormat="1" spans="1:4">
-      <c r="A17" s="17" t="s">
+      <c r="B18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="17" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="22">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" s="17" customFormat="1" spans="1:4">
-      <c r="A18" s="17" t="s">
+      <c r="B19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="17" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" s="17" customFormat="1" spans="1:4">
-      <c r="A19" s="17" t="s">
+      <c r="B20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="17" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" s="17" customFormat="1" spans="1:4">
-      <c r="A20" s="17" t="s">
+      <c r="B21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="17" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" s="17" customFormat="1" spans="1:4">
-      <c r="A21" s="17" t="s">
+      <c r="B22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="17" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" s="17" customFormat="1" spans="1:4">
-      <c r="A22" s="17" t="s">
+      <c r="B23" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" s="17" customFormat="1" spans="1:4">
-      <c r="A23" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" s="17" customFormat="1" spans="1:4">
-      <c r="A24" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" s="17" customFormat="1" spans="1:4">
-      <c r="A25" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="22">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" s="17" customFormat="1" spans="1:4">
-      <c r="A26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" s="17" customFormat="1" spans="1:4">
-      <c r="A27" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" s="17" customFormat="1" spans="1:4">
-      <c r="A28" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="22">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" s="17" customFormat="1" spans="1:4">
-      <c r="A29" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="22">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" s="17" customFormat="1" spans="1:4">
-      <c r="A30" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="22">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" s="17" customFormat="1" spans="1:4">
-      <c r="A31" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" s="17" customFormat="1" spans="1:4">
-      <c r="A32" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="22">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" s="17" customFormat="1" spans="1:4">
-      <c r="A33" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" s="17" customFormat="1" spans="1:4">
-      <c r="A34" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="22">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" s="17" customFormat="1" spans="1:4">
-      <c r="A35" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" s="17" customFormat="1" spans="1:4">
-      <c r="A36" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="22">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" s="17" customFormat="1" spans="1:4">
-      <c r="A37" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="22">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" s="17" customFormat="1" spans="1:4">
-      <c r="A38" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="22">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" s="17" customFormat="1" spans="1:4">
-      <c r="A39" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="22">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" s="17" customFormat="1" spans="1:4">
-      <c r="A40" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="22">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" s="17" customFormat="1" spans="1:4">
-      <c r="A41" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" s="17" customFormat="1" spans="1:4">
-      <c r="A42" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="22">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" s="17" customFormat="1" spans="1:4">
-      <c r="A43" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="22">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" s="17" customFormat="1" spans="1:4">
-      <c r="A44" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="22">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" s="17" customFormat="1" spans="1:4">
-      <c r="A45" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="22">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" s="17" customFormat="1" spans="1:4">
-      <c r="A46" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="22">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" s="17" customFormat="1" spans="1:4">
-      <c r="A47" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="22">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" s="17" customFormat="1" spans="1:4">
-      <c r="A48" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="22">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" s="17" customFormat="1" spans="1:4">
-      <c r="A49" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="22">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" s="17" customFormat="1" spans="1:4">
-      <c r="A50" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="22">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" s="17" customFormat="1" spans="1:4">
-      <c r="A51" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" s="17" customFormat="1" spans="1:4">
-      <c r="A52" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="22">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" s="17" customFormat="1" spans="1:4">
-      <c r="A53" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="22">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" s="17" customFormat="1" spans="1:4">
-      <c r="A54" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="22">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" s="17" customFormat="1" spans="1:4">
-      <c r="A55" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="22">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" s="17" customFormat="1" spans="1:4">
-      <c r="A56" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="22">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" s="17" customFormat="1" spans="1:4">
-      <c r="A57" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="22">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" s="17" customFormat="1" spans="1:4">
-      <c r="A58" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="22">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" s="17" customFormat="1" spans="1:4">
-      <c r="A59" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="22">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" s="17" customFormat="1" spans="1:4">
-      <c r="A60" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="22">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" s="17" customFormat="1" spans="1:4">
-      <c r="A61" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" s="22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" s="17" customFormat="1" spans="1:4">
-      <c r="A62" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="22">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" s="17" customFormat="1" spans="1:4">
-      <c r="A63" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="22">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" s="17" customFormat="1" spans="1:4">
-      <c r="A64" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="22">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" s="17" customFormat="1" spans="1:4">
-      <c r="A65" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="22">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" s="17" customFormat="1" spans="1:4">
-      <c r="A66" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="22">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" s="17" customFormat="1" spans="1:4">
-      <c r="A67" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="22">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" s="17" customFormat="1" spans="1:4">
-      <c r="A68" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" s="22">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" s="17" customFormat="1" spans="1:4">
-      <c r="A69" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="22">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" s="17" customFormat="1" spans="1:4">
-      <c r="A70" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" s="22">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" s="17" customFormat="1" spans="1:4">
-      <c r="A71" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="22">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" s="17" customFormat="1" spans="1:4">
-      <c r="A72" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="22">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" s="17" customFormat="1" spans="1:4">
-      <c r="A73" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="22">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" s="17" customFormat="1" spans="1:4">
-      <c r="A74" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" s="22">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" s="17" customFormat="1" spans="1:4">
-      <c r="A75" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" s="22">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" s="17" customFormat="1" spans="1:4">
-      <c r="A76" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" s="22">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +2620,7 @@
   <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -3842,167 +2635,167 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="17.6" spans="1:2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" ht="17.6" spans="1:2">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" ht="17.6" spans="1:2">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" ht="17.6" spans="1:2">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" ht="17.6" spans="1:2">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" ht="17.6" spans="1:2">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" ht="17.6" spans="1:2">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="17.6" spans="1:2">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="17.6" spans="1:2">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" ht="17.6" spans="1:2">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" ht="17.6" spans="1:2">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>187</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" ht="17.6" spans="1:2">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="17.6" spans="1:2">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" ht="17.6" spans="1:2">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>193</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4031,271 +2824,271 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>195</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>207</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="18" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="18" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="18" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>219</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="18" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="18" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="18" t="s">
-        <v>224</v>
+        <v>117</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>225</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="18" t="s">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="18" t="s">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="18" t="s">
-        <v>232</v>
+        <v>125</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>233</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="18" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="18" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="18" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="18" t="s">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>241</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="18" t="s">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="18" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="18" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>247</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="18" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>249</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="18" t="s">
-        <v>250</v>
+        <v>143</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>251</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="18" t="s">
-        <v>252</v>
+        <v>145</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>253</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="18" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>255</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="18" t="s">
-        <v>256</v>
+        <v>149</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>257</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="18" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>259</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4324,55 +3117,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4401,223 +3194,223 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="16" t="s">
-        <v>276</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="16" t="s">
-        <v>278</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="16" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="16" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="16" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="16" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="16" t="s">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="16" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="17" t="s">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="17" t="s">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="17" t="s">
-        <v>296</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="17" t="s">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="17" t="s">
-        <v>300</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="17" t="s">
-        <v>302</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="17" t="s">
-        <v>304</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s">
-        <v>305</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="17" t="s">
-        <v>306</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="16" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>309</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="16" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="16" t="s">
-        <v>314</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="16" t="s">
-        <v>316</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="16" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="16" t="s">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="17" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="16" t="s">
-        <v>324</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4646,215 +3439,215 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:2">
       <c r="A4" s="13" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:2">
       <c r="A5" s="13" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:2">
       <c r="A6" s="13" t="s">
-        <v>312</v>
+        <v>205</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>313</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:2">
       <c r="A7" s="13" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:2">
       <c r="A8" s="13" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" ht="18" spans="1:2">
       <c r="A10" s="13" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" ht="18" spans="1:2">
       <c r="A11" s="15" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" ht="18" spans="1:2">
       <c r="A12" s="13" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" ht="18" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" ht="18" spans="1:2">
       <c r="A14" s="13" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" ht="18" spans="1:2">
       <c r="A15" s="13" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:2">
       <c r="A16" s="13" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:2">
       <c r="A17" s="13" t="s">
-        <v>327</v>
+        <v>219</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>328</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" ht="18" spans="1:2">
       <c r="A18" s="13" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>330</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" ht="18" spans="1:2">
       <c r="A19" s="13" t="s">
-        <v>331</v>
+        <v>223</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>332</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" ht="18" spans="1:2">
       <c r="A20" s="13" t="s">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>334</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" ht="18" spans="1:2">
       <c r="A21" s="13" t="s">
-        <v>335</v>
+        <v>227</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>336</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:2">
       <c r="A22" s="13" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>338</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" ht="18" spans="1:2">
       <c r="A23" s="13" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>340</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:2">
       <c r="A24" s="13" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>342</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" ht="18" spans="1:2">
       <c r="A25" s="13" t="s">
-        <v>343</v>
+        <v>235</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>344</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" ht="18" spans="1:2">
       <c r="A26" s="13" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" ht="18" spans="1:2">
       <c r="A27" s="13" t="s">
-        <v>347</v>
+        <v>239</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>348</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4883,207 +3676,207 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:2">
       <c r="A2" s="12" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>350</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>351</v>
+        <v>243</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>352</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:2">
       <c r="A4" s="12" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>356</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" ht="34" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>359</v>
+        <v>251</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>360</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" ht="34" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>361</v>
+        <v>253</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" ht="34" spans="1:2">
       <c r="A9" s="12" t="s">
-        <v>363</v>
+        <v>255</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>364</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:2">
       <c r="A10" s="12" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>366</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:2">
       <c r="A11" s="12" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>368</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:2">
       <c r="A12" s="12" t="s">
-        <v>369</v>
+        <v>261</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>370</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:2">
       <c r="A13" s="12" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>372</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>373</v>
+        <v>265</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>374</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:2">
       <c r="A15" s="12" t="s">
-        <v>375</v>
+        <v>267</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>376</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>377</v>
+        <v>269</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>378</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" ht="17" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>380</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>381</v>
+        <v>273</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>382</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" ht="17" spans="1:2">
       <c r="A19" s="12" t="s">
-        <v>383</v>
+        <v>275</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>384</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:2">
       <c r="A20" s="12" t="s">
-        <v>385</v>
+        <v>277</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>386</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" ht="17" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>387</v>
+        <v>279</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>388</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:2">
       <c r="A22" s="12" t="s">
-        <v>389</v>
+        <v>281</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>390</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:2">
       <c r="A23" s="12" t="s">
-        <v>391</v>
+        <v>283</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>392</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:2">
       <c r="A24" s="12" t="s">
-        <v>393</v>
+        <v>285</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>394</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:2">
       <c r="A25" s="12" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:2">
       <c r="A26" s="12" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5112,119 +3905,119 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>399</v>
+        <v>291</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>403</v>
+        <v>295</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>404</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>405</v>
+        <v>297</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>406</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>407</v>
+        <v>299</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>408</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>409</v>
+        <v>301</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>410</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>411</v>
+        <v>303</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>412</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>413</v>
+        <v>305</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>414</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>415</v>
+        <v>307</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>416</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>417</v>
+        <v>309</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>418</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>419</v>
+        <v>311</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>420</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>421</v>
+        <v>313</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>422</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>423</v>
+        <v>315</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>424</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>426</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5238,8 +4031,8 @@
   <sheetPr/>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -5253,367 +4046,367 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>427</v>
+        <v>319</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>428</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>430</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>432</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>433</v>
+        <v>325</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>434</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>435</v>
+        <v>327</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>436</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>437</v>
+        <v>329</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>438</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>439</v>
+        <v>331</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>440</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>442</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>443</v>
+        <v>335</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>444</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>445</v>
+        <v>337</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>446</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>447</v>
+        <v>339</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>448</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>450</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>451</v>
+        <v>343</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>452</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>453</v>
+        <v>345</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>454</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" ht="28" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>455</v>
+        <v>347</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>456</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>457</v>
+        <v>349</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>458</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>459</v>
+        <v>351</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>460</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>461</v>
+        <v>353</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>462</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>463</v>
+        <v>355</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>464</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>465</v>
+        <v>357</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>466</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>467</v>
+        <v>359</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>468</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>469</v>
+        <v>361</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>470</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>471</v>
+        <v>363</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>472</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>474</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>475</v>
+        <v>367</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>476</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>478</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>479</v>
+        <v>371</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>480</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>481</v>
+        <v>373</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>482</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>483</v>
+        <v>375</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>484</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>485</v>
+        <v>377</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>486</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>487</v>
+        <v>379</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>488</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>489</v>
+        <v>381</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>490</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>491</v>
+        <v>383</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>492</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>494</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>495</v>
+        <v>387</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>496</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>497</v>
+        <v>389</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>498</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>499</v>
+        <v>391</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>500</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>501</v>
+        <v>393</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>502</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>503</v>
+        <v>395</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>504</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>505</v>
+        <v>397</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>506</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>507</v>
+        <v>399</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>508</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>509</v>
+        <v>401</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>510</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>511</v>
+        <v>403</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>512</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>513</v>
+        <v>405</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>514</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>515</v>
+        <v>407</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>516</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/TestData/数据迁移.xlsx
+++ b/src/main/TestData/数据迁移.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700"/>
+    <workbookView windowHeight="17700" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="百融001" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="颜值贷0304" sheetId="8" r:id="rId8"/>
     <sheet name="好多数等三方数据字段" sheetId="9" r:id="rId9"/>
+    <sheet name="chaneldata" sheetId="10" r:id="rId10"/>
+    <sheet name="chanel" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868">
   <si>
     <t>var_name</t>
   </si>
@@ -1290,6 +1292,1383 @@
   <si>
     <t>融慧_高危信贷风险分</t>
   </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>id_card_no</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>mobile_no</t>
+  </si>
+  <si>
+    <t>75fa5f1df0fc4f3097c837df26feba79</t>
+  </si>
+  <si>
+    <t>350102199003070979</t>
+  </si>
+  <si>
+    <t>佐助</t>
+  </si>
+  <si>
+    <t>3c82ab6f630e4cf0bb44d23d796afbbc</t>
+  </si>
+  <si>
+    <t>320102199003078158</t>
+  </si>
+  <si>
+    <t>鸣人</t>
+  </si>
+  <si>
+    <t>1c8f06e52ad14060b7277d2c4a805bda</t>
+  </si>
+  <si>
+    <t>aea4a0cfb09f4c2f9a9051bd3e18d9f0</t>
+  </si>
+  <si>
+    <t>350823199008193434</t>
+  </si>
+  <si>
+    <t>来测试</t>
+  </si>
+  <si>
+    <t>2dcbe331f9eb4c9292a54fd6a9ef13b3</t>
+  </si>
+  <si>
+    <t>330102199003070596</t>
+  </si>
+  <si>
+    <t>萧峰</t>
+  </si>
+  <si>
+    <t>92be4ee772b64ae7a75b7f7c91e6674f</t>
+  </si>
+  <si>
+    <t>330102199002070596</t>
+  </si>
+  <si>
+    <t>段誉</t>
+  </si>
+  <si>
+    <t>7063d29dfb2849dd9799563134d67fd9</t>
+  </si>
+  <si>
+    <t>330102199003070473</t>
+  </si>
+  <si>
+    <t>533e904bb9d2493c84b3f973b30665c7</t>
+  </si>
+  <si>
+    <t>350102199003074072</t>
+  </si>
+  <si>
+    <t>自来也</t>
+  </si>
+  <si>
+    <t>42be8889b1dd4a0dad514cc98529f3f9</t>
+  </si>
+  <si>
+    <t>350322197202121510</t>
+  </si>
+  <si>
+    <t>朱自华</t>
+  </si>
+  <si>
+    <t>6bb29660bf21451e9abd99eb210cce1d</t>
+  </si>
+  <si>
+    <t>500101199003075237</t>
+  </si>
+  <si>
+    <t>大蛇丸</t>
+  </si>
+  <si>
+    <t>42be8889b1dd4a0dad514cc98529qwert</t>
+  </si>
+  <si>
+    <t>320322199502144232</t>
+  </si>
+  <si>
+    <t>13539dd593074fc8ae214deeb178ab13</t>
+  </si>
+  <si>
+    <t>220102199003071112</t>
+  </si>
+  <si>
+    <t>99db37d4d4d943a3a489dbce0bfbcb3e</t>
+  </si>
+  <si>
+    <t>110101199003078451</t>
+  </si>
+  <si>
+    <t>49ae64fc24f141859a1e4a2936dc6cd0</t>
+  </si>
+  <si>
+    <t>110101199003074354</t>
+  </si>
+  <si>
+    <t>在测试</t>
+  </si>
+  <si>
+    <t>2d0de14be2404447b64c247738d75f3b</t>
+  </si>
+  <si>
+    <t>110101199003077096</t>
+  </si>
+  <si>
+    <t>测试一</t>
+  </si>
+  <si>
+    <t>15774b223ed34de98fd668ae0249ab56</t>
+  </si>
+  <si>
+    <t>310106195607232633</t>
+  </si>
+  <si>
+    <t>葛磊鸣</t>
+  </si>
+  <si>
+    <t>6c17acfc65f1476e998cdd470ad6e966</t>
+  </si>
+  <si>
+    <t>653001200111017662</t>
+  </si>
+  <si>
+    <t>元中</t>
+  </si>
+  <si>
+    <t>6a9406fb351c459cbe274815318791dc</t>
+  </si>
+  <si>
+    <t>622923195203247884</t>
+  </si>
+  <si>
+    <t>花瑶亚</t>
+  </si>
+  <si>
+    <t>1fbc598f99fe4751b58b0b963f3f0f26</t>
+  </si>
+  <si>
+    <t>513300199607232773</t>
+  </si>
+  <si>
+    <t>濮莎</t>
+  </si>
+  <si>
+    <t>9e222ebc72884130aa29f80b04277826</t>
+  </si>
+  <si>
+    <t>610524197209051145</t>
+  </si>
+  <si>
+    <t>缑健家</t>
+  </si>
+  <si>
+    <t>089b2d3a2bf04f8d8f9fbc1b5e491f08</t>
+  </si>
+  <si>
+    <t>431227199403196187</t>
+  </si>
+  <si>
+    <t>利惠叶</t>
+  </si>
+  <si>
+    <t>7905eff0af9d46ee9be6c541745169ab</t>
+  </si>
+  <si>
+    <t>120000200308132012</t>
+  </si>
+  <si>
+    <t>逯发</t>
+  </si>
+  <si>
+    <t>e93c3c10c67349d49b2d6c6e5a29ac1b</t>
+  </si>
+  <si>
+    <t>32090319700721877X</t>
+  </si>
+  <si>
+    <t>马婕爽</t>
+  </si>
+  <si>
+    <t>137bdd0940a74933958915116b890e54</t>
+  </si>
+  <si>
+    <t>542133197701018484</t>
+  </si>
+  <si>
+    <t>席霞</t>
+  </si>
+  <si>
+    <t>9e70cf8772074276bca503fe1e1ddd50</t>
+  </si>
+  <si>
+    <t>623024198803311845</t>
+  </si>
+  <si>
+    <t>屈彬</t>
+  </si>
+  <si>
+    <t>c5ea816e42824e648c441f658417ad22</t>
+  </si>
+  <si>
+    <t>350600198512085511</t>
+  </si>
+  <si>
+    <t>楚良涛</t>
+  </si>
+  <si>
+    <t>21ab2128ccf64a3d88ef1b4e2795bc55</t>
+  </si>
+  <si>
+    <t>320305196607163333</t>
+  </si>
+  <si>
+    <t>阎影</t>
+  </si>
+  <si>
+    <t>3c152fbc9a2d47498c213095a6b97929</t>
+  </si>
+  <si>
+    <t>622926196004192220</t>
+  </si>
+  <si>
+    <t>钱露</t>
+  </si>
+  <si>
+    <t>fa87fb9e9a6a4cccbaafd25ab44b1ac3</t>
+  </si>
+  <si>
+    <t>51068119771219322X</t>
+  </si>
+  <si>
+    <t>干枫佳</t>
+  </si>
+  <si>
+    <t>f59b5c04803b44029e795f0078eb0166</t>
+  </si>
+  <si>
+    <t>370306196510129791</t>
+  </si>
+  <si>
+    <t>江良</t>
+  </si>
+  <si>
+    <t>34fb434733d1469682f2e481b2a18821</t>
+  </si>
+  <si>
+    <t>520322198301154242</t>
+  </si>
+  <si>
+    <t>范中良</t>
+  </si>
+  <si>
+    <t>e79b57319f7d4a728a7fb4e280602527</t>
+  </si>
+  <si>
+    <t>14088119950320267X</t>
+  </si>
+  <si>
+    <t>安策诚</t>
+  </si>
+  <si>
+    <t>8b19cc321eff45848ddf4ca51ddf43c2</t>
+  </si>
+  <si>
+    <t>450703199006111820</t>
+  </si>
+  <si>
+    <t>房贞</t>
+  </si>
+  <si>
+    <t>7f500ee5bb164d2086be4327f9a2abe7</t>
+  </si>
+  <si>
+    <t>210404199405204704</t>
+  </si>
+  <si>
+    <t>班晨博</t>
+  </si>
+  <si>
+    <t>38657af6f46d425b9824de00631c1379</t>
+  </si>
+  <si>
+    <t>500108199003076904</t>
+  </si>
+  <si>
+    <t>白白</t>
+  </si>
+  <si>
+    <t>b26b455566d64d7a91a58d2ed71bf575</t>
+  </si>
+  <si>
+    <t>50010819900807350X</t>
+  </si>
+  <si>
+    <t>白白娃</t>
+  </si>
+  <si>
+    <t>459a978807914a1da3ce9aa5d4e751ef</t>
+  </si>
+  <si>
+    <t>500108199008075767</t>
+  </si>
+  <si>
+    <t>白白妹</t>
+  </si>
+  <si>
+    <t>6686284e5e2e41a3a0eb5af1856b861c</t>
+  </si>
+  <si>
+    <t>420102198711221428</t>
+  </si>
+  <si>
+    <t>禄杰</t>
+  </si>
+  <si>
+    <t>3c5d6a2993684acd95cf4f222b89f2df</t>
+  </si>
+  <si>
+    <t>500108199008077228</t>
+  </si>
+  <si>
+    <t>黑妹</t>
+  </si>
+  <si>
+    <t>000cceb134564f3b8d75e7235f7cec8a</t>
+  </si>
+  <si>
+    <t>150928195909096974</t>
+  </si>
+  <si>
+    <t>龚轮</t>
+  </si>
+  <si>
+    <t>95c75b59a49b44428a68919995eec1ad</t>
+  </si>
+  <si>
+    <t>320116195603316463</t>
+  </si>
+  <si>
+    <t>鄢燕</t>
+  </si>
+  <si>
+    <t>71d9c1060242402b9dc0076cba98bfbd</t>
+  </si>
+  <si>
+    <t>532627195010127146</t>
+  </si>
+  <si>
+    <t>从桂薇</t>
+  </si>
+  <si>
+    <t>bfd318b528ef44588c9bd3b388d6a4fb</t>
+  </si>
+  <si>
+    <t>530700200606153385</t>
+  </si>
+  <si>
+    <t>陈雅聪</t>
+  </si>
+  <si>
+    <t>6f3353107ec649d48df47dd12b533055</t>
+  </si>
+  <si>
+    <t>610623195710049698</t>
+  </si>
+  <si>
+    <t>阳澜</t>
+  </si>
+  <si>
+    <t>7ea9921b74434937bbc6d33dfead7202</t>
+  </si>
+  <si>
+    <t>420322195308281888</t>
+  </si>
+  <si>
+    <t>蔺丽伊</t>
+  </si>
+  <si>
+    <t>f2e4cdb91d9241f0b3aefbbe6a7de42e</t>
+  </si>
+  <si>
+    <t>110101199003073175</t>
+  </si>
+  <si>
+    <t>黑娃</t>
+  </si>
+  <si>
+    <t>c9f805092a3c4d5d8b34e218d5a2ef57</t>
+  </si>
+  <si>
+    <t>340400197002075033</t>
+  </si>
+  <si>
+    <t>俟杰风</t>
+  </si>
+  <si>
+    <t>0747e5075025408a873aca966d2337a6</t>
+  </si>
+  <si>
+    <t>130204200005165851</t>
+  </si>
+  <si>
+    <t>彭彬辉</t>
+  </si>
+  <si>
+    <t>cc05c7c247d446839bc271b2fb64a64f</t>
+  </si>
+  <si>
+    <t>371722197502242521</t>
+  </si>
+  <si>
+    <t>蔡军策</t>
+  </si>
+  <si>
+    <t>fc9b41efcca944db8449229091350a66</t>
+  </si>
+  <si>
+    <t>331125199712029815</t>
+  </si>
+  <si>
+    <t>濮娣</t>
+  </si>
+  <si>
+    <t>da6dfa6b91ce473dbeb1c90a908726b9</t>
+  </si>
+  <si>
+    <t>610429199809097441</t>
+  </si>
+  <si>
+    <t>良炎</t>
+  </si>
+  <si>
+    <t>3d4bf60150c84170a508a93eec9c55c3</t>
+  </si>
+  <si>
+    <t>37070019970720916X</t>
+  </si>
+  <si>
+    <t>人风</t>
+  </si>
+  <si>
+    <t>56eb089a9f9b485192c24e10a54e0774</t>
+  </si>
+  <si>
+    <t>230406195208244393</t>
+  </si>
+  <si>
+    <t>臧友</t>
+  </si>
+  <si>
+    <t>95456a89d7c9410db846c6001459ac15</t>
+  </si>
+  <si>
+    <t>511124195005076312</t>
+  </si>
+  <si>
+    <t>桓茜</t>
+  </si>
+  <si>
+    <t>66fa1d2230f54b5e847820333fba77f9</t>
+  </si>
+  <si>
+    <t>152522195204189507</t>
+  </si>
+  <si>
+    <t>爱友</t>
+  </si>
+  <si>
+    <t>84fb48a12813461e928af45133bd9a3f</t>
+  </si>
+  <si>
+    <t>520103196810064860</t>
+  </si>
+  <si>
+    <t>羊琴卿</t>
+  </si>
+  <si>
+    <t>a463ec76f1fc420cbf91870a0cc06257</t>
+  </si>
+  <si>
+    <t>110106197706060795</t>
+  </si>
+  <si>
+    <t>司素</t>
+  </si>
+  <si>
+    <t>140bdc7520e649eeb2482307148e91bf</t>
+  </si>
+  <si>
+    <t>360426198810262699</t>
+  </si>
+  <si>
+    <t>孙思</t>
+  </si>
+  <si>
+    <t>41817b8e85794a12b09744c88efe328d</t>
+  </si>
+  <si>
+    <t>620403195902280953</t>
+  </si>
+  <si>
+    <t>经可露</t>
+  </si>
+  <si>
+    <t>5ec0d6a9c44240a5968e3bdd670f6ed7</t>
+  </si>
+  <si>
+    <t>511402195701237309</t>
+  </si>
+  <si>
+    <t>龙星</t>
+  </si>
+  <si>
+    <t>95dd97e8e054438d982d8b48baf80331</t>
+  </si>
+  <si>
+    <t>360881200507178132</t>
+  </si>
+  <si>
+    <t>海钧河</t>
+  </si>
+  <si>
+    <t>3cfe28d3affb4d9a8c4523ff7bfc7426</t>
+  </si>
+  <si>
+    <t>513330197401072494</t>
+  </si>
+  <si>
+    <t>第翰梁</t>
+  </si>
+  <si>
+    <t>459ab8b8d082496bbe7716c7222aa07a</t>
+  </si>
+  <si>
+    <t>350602196908291235</t>
+  </si>
+  <si>
+    <t>伊悦可</t>
+  </si>
+  <si>
+    <t>a977a505094c4d3dbf22114d61eeb722</t>
+  </si>
+  <si>
+    <t>130822197103076175</t>
+  </si>
+  <si>
+    <t>却珍</t>
+  </si>
+  <si>
+    <t>867a2a322d8049548b219684babba77f</t>
+  </si>
+  <si>
+    <t>360111198108243833</t>
+  </si>
+  <si>
+    <t>秦兰</t>
+  </si>
+  <si>
+    <t>0db0098613f24101a3491f88cd792a10</t>
+  </si>
+  <si>
+    <t>510411197208095495</t>
+  </si>
+  <si>
+    <t>秦纨霭</t>
+  </si>
+  <si>
+    <t>04967f51789e49e98980140dd3727ff7</t>
+  </si>
+  <si>
+    <t>220382195010101652</t>
+  </si>
+  <si>
+    <t>沈眉</t>
+  </si>
+  <si>
+    <t>e3f65be40bf646f18309f3bbe0faf8a9</t>
+  </si>
+  <si>
+    <t>350100197507304204</t>
+  </si>
+  <si>
+    <t>江绍康</t>
+  </si>
+  <si>
+    <t>48fb6633a6b04177b3aeeaebcd3415a0</t>
+  </si>
+  <si>
+    <t>430603198301189563</t>
+  </si>
+  <si>
+    <t>郝乐</t>
+  </si>
+  <si>
+    <t>a407f647a6a442f4a9d593aaaf067425</t>
+  </si>
+  <si>
+    <t>652927199709019415</t>
+  </si>
+  <si>
+    <t>敖婕</t>
+  </si>
+  <si>
+    <t>958a0cd5cd2d49caa39db7ec9f8fa947</t>
+  </si>
+  <si>
+    <t>421083196810125209</t>
+  </si>
+  <si>
+    <t>於聪婷</t>
+  </si>
+  <si>
+    <t>21e615da6d0c4663aaf7ae2f65db3bda</t>
+  </si>
+  <si>
+    <t>350800200603167919</t>
+  </si>
+  <si>
+    <t>管艳芸</t>
+  </si>
+  <si>
+    <t>ab7e3b9d0ffa49da9c792297ecba4f96</t>
+  </si>
+  <si>
+    <t>370303196805287958</t>
+  </si>
+  <si>
+    <t>柳亮</t>
+  </si>
+  <si>
+    <t>b4107797afc64bc496cdced5b44e02b6</t>
+  </si>
+  <si>
+    <t>420822196007203423</t>
+  </si>
+  <si>
+    <t>公祥</t>
+  </si>
+  <si>
+    <t>e0b9f7b12ef1432eaff079bd377972a4</t>
+  </si>
+  <si>
+    <t>44520220030912405X</t>
+  </si>
+  <si>
+    <t>柴庆中</t>
+  </si>
+  <si>
+    <t>95e3748c2f6f43349263e3b83664212c</t>
+  </si>
+  <si>
+    <t>542324199001290069</t>
+  </si>
+  <si>
+    <t>钭涛翔</t>
+  </si>
+  <si>
+    <t>94057a65d1d14564b0e49d92f73be4a2</t>
+  </si>
+  <si>
+    <t>513230196004099853</t>
+  </si>
+  <si>
+    <t>殴琬韵</t>
+  </si>
+  <si>
+    <t>071693ac7fa74dc3be617263d2613d7c</t>
+  </si>
+  <si>
+    <t>620421195501226705</t>
+  </si>
+  <si>
+    <t>阮彪轮</t>
+  </si>
+  <si>
+    <t>c624271ca57f4e8387b99c16cc8c3cda</t>
+  </si>
+  <si>
+    <t>522630196708171342</t>
+  </si>
+  <si>
+    <t>龙有</t>
+  </si>
+  <si>
+    <t>23711017a6ce41eeaad645296d5fd129</t>
+  </si>
+  <si>
+    <t>210811200009213167</t>
+  </si>
+  <si>
+    <t>岳山琛</t>
+  </si>
+  <si>
+    <t>91f9db5cb3bf49dfa9b418eba2c34475</t>
+  </si>
+  <si>
+    <t>520222198401200546</t>
+  </si>
+  <si>
+    <t>从学朋</t>
+  </si>
+  <si>
+    <t>906b8506beb440b7ab45b101f4876b75</t>
+  </si>
+  <si>
+    <t>340104200511195168</t>
+  </si>
+  <si>
+    <t>任策子</t>
+  </si>
+  <si>
+    <t>54088bbac13f4c84b9ff57fce1c50daf</t>
+  </si>
+  <si>
+    <t>320922200701083530</t>
+  </si>
+  <si>
+    <t>马富胜</t>
+  </si>
+  <si>
+    <t>9f3578069fd04ffcbd354b8aa05f47d3</t>
+  </si>
+  <si>
+    <t>510922197308309709</t>
+  </si>
+  <si>
+    <t>狄艳月</t>
+  </si>
+  <si>
+    <t>d7242c4157744ab4a1fec2ab8815a286</t>
+  </si>
+  <si>
+    <t>230102199603072233</t>
+  </si>
+  <si>
+    <t>王陆</t>
+  </si>
+  <si>
+    <t>56d80e39e5024fcdb47dca9b8336f5cc</t>
+  </si>
+  <si>
+    <t>653226199708303234</t>
+  </si>
+  <si>
+    <t>鱼舒兰</t>
+  </si>
+  <si>
+    <t>8c19a33e34534b0b99197216c49c454d</t>
+  </si>
+  <si>
+    <t>211003196311230257</t>
+  </si>
+  <si>
+    <t>漆纯</t>
+  </si>
+  <si>
+    <t>ea67c448acb74b5bb97f74507bef0088</t>
+  </si>
+  <si>
+    <t>130131196804044073</t>
+  </si>
+  <si>
+    <t>鲁筠</t>
+  </si>
+  <si>
+    <t>24c986054d4b45ecbb8dccaaea06f03e</t>
+  </si>
+  <si>
+    <t>500000195309228291</t>
+  </si>
+  <si>
+    <t>管星盛</t>
+  </si>
+  <si>
+    <t>9a18eff297b44084a0d0de84121a55ab</t>
+  </si>
+  <si>
+    <t>141123196412059754</t>
+  </si>
+  <si>
+    <t>方倩</t>
+  </si>
+  <si>
+    <t>32975485f2354862a6f95f372ddcfab7</t>
+  </si>
+  <si>
+    <t>35042820091205711X</t>
+  </si>
+  <si>
+    <t>詹姣</t>
+  </si>
+  <si>
+    <t>dc318d09f49041528ce24fab77f85472</t>
+  </si>
+  <si>
+    <t>450203196311018760</t>
+  </si>
+  <si>
+    <t>羊福</t>
+  </si>
+  <si>
+    <t>40ed710f951843b48d6c505c6611e853</t>
+  </si>
+  <si>
+    <t>350124199912187240</t>
+  </si>
+  <si>
+    <t>危婕</t>
+  </si>
+  <si>
+    <t>3ff161f47d1249e19c14c76cefca73c2</t>
+  </si>
+  <si>
+    <t>130723197911134151</t>
+  </si>
+  <si>
+    <t>方晨</t>
+  </si>
+  <si>
+    <t>afb8668bba404889b75bcd2bd9810e95</t>
+  </si>
+  <si>
+    <t>220622199508089775</t>
+  </si>
+  <si>
+    <t>隗瑾</t>
+  </si>
+  <si>
+    <t>3043383d993c4bc5b3b2b3f377efff18</t>
+  </si>
+  <si>
+    <t>110101198703075011</t>
+  </si>
+  <si>
+    <t>黑黑娃</t>
+  </si>
+  <si>
+    <t>0516065d7b2f4567a8bbdba2d5985e77</t>
+  </si>
+  <si>
+    <t>50015319780307431X</t>
+  </si>
+  <si>
+    <t>39786428e6cf47879fdfac012ee417f1</t>
+  </si>
+  <si>
+    <t>500153197803070159</t>
+  </si>
+  <si>
+    <t>小黑</t>
+  </si>
+  <si>
+    <t>0a3e8fae6cbf4567af1ce92927413c9b</t>
+  </si>
+  <si>
+    <t>500153197803071610</t>
+  </si>
+  <si>
+    <t>小哇</t>
+  </si>
+  <si>
+    <t>eab86c7d6bba4f82b0570864f90bbd5b</t>
+  </si>
+  <si>
+    <t>411103198303079034</t>
+  </si>
+  <si>
+    <t>徐海峰</t>
+  </si>
+  <si>
+    <t>844334f02b6149ef9024ccbeb589e10e</t>
+  </si>
+  <si>
+    <t>110101199003072332</t>
+  </si>
+  <si>
+    <t>小哈</t>
+  </si>
+  <si>
+    <t>e8a8db5c7a754fcba44ffd385d920861</t>
+  </si>
+  <si>
+    <t>110101199003073116</t>
+  </si>
+  <si>
+    <t>小二</t>
+  </si>
+  <si>
+    <t>e0fb4683bc144f76ba63b3d83fc7b34e</t>
+  </si>
+  <si>
+    <t>321311197003141849</t>
+  </si>
+  <si>
+    <t>呼眉韵</t>
+  </si>
+  <si>
+    <t>a636b863186f4acbbbd38cfbba7ed2c2</t>
+  </si>
+  <si>
+    <t>370923199705286562</t>
+  </si>
+  <si>
+    <t>茹士友</t>
+  </si>
+  <si>
+    <t>d8c4d857bdfb44dc89f74bcf7e85e311</t>
+  </si>
+  <si>
+    <t>130682200911028673</t>
+  </si>
+  <si>
+    <t>胡以</t>
+  </si>
+  <si>
+    <t>b3409069c95146598e005026eb52e0cd</t>
+  </si>
+  <si>
+    <t>331123200710175088</t>
+  </si>
+  <si>
+    <t>公良</t>
+  </si>
+  <si>
+    <t>7ba9acdf7e344ecb85c79a81d9e74125</t>
+  </si>
+  <si>
+    <t>542228199803129963</t>
+  </si>
+  <si>
+    <t>许娅舒</t>
+  </si>
+  <si>
+    <t>7d98f8681f8649399eb70d31be20b80c</t>
+  </si>
+  <si>
+    <t>623027196801135833</t>
+  </si>
+  <si>
+    <t>狐才</t>
+  </si>
+  <si>
+    <t>1e21f8c1c29f4f6581e08785e0edbea3</t>
+  </si>
+  <si>
+    <t>370126196606120067</t>
+  </si>
+  <si>
+    <t>东贵时</t>
+  </si>
+  <si>
+    <t>7a437ea675424d0bbedda86eecaa805b</t>
+  </si>
+  <si>
+    <t>330324196912256545</t>
+  </si>
+  <si>
+    <t>谷梦</t>
+  </si>
+  <si>
+    <t>600401e7d9754aeaaac9e79bbd59152c</t>
+  </si>
+  <si>
+    <t>150122196702164880</t>
+  </si>
+  <si>
+    <t>文辉</t>
+  </si>
+  <si>
+    <t>a027e382e7084860af726b62db5ab051</t>
+  </si>
+  <si>
+    <t>140211199109171009</t>
+  </si>
+  <si>
+    <t>应婉</t>
+  </si>
+  <si>
+    <t>bf22b94836ff46eea058c162e9984b25</t>
+  </si>
+  <si>
+    <t>341322197409054043</t>
+  </si>
+  <si>
+    <t>乐璐宁</t>
+  </si>
+  <si>
+    <t>a818a04282ad4a5d9bafd40a34ecced1</t>
+  </si>
+  <si>
+    <t>230621200808112368</t>
+  </si>
+  <si>
+    <t>阚丽勤</t>
+  </si>
+  <si>
+    <t>ee12b02b3f7e44dcb48c2fd8a36c7470</t>
+  </si>
+  <si>
+    <t>152501198612174189</t>
+  </si>
+  <si>
+    <t>霍新固</t>
+  </si>
+  <si>
+    <t>aab465abdac54e3e9fea591ab7ee37a1</t>
+  </si>
+  <si>
+    <t>511523199609130838</t>
+  </si>
+  <si>
+    <t>楚健</t>
+  </si>
+  <si>
+    <t>338628f625a543f6b15f70108e4c4672</t>
+  </si>
+  <si>
+    <t>140226196507150888</t>
+  </si>
+  <si>
+    <t>容岚莎</t>
+  </si>
+  <si>
+    <t>2887394617e14fb7b636678bfce0515a</t>
+  </si>
+  <si>
+    <t>431125198911290329</t>
+  </si>
+  <si>
+    <t>包彩</t>
+  </si>
+  <si>
+    <t>904911aa5969442490519ac1892265c8</t>
+  </si>
+  <si>
+    <t>150104195408051183</t>
+  </si>
+  <si>
+    <t>良伟</t>
+  </si>
+  <si>
+    <t>2dacdd97d833455ebf7e879aa0838b88</t>
+  </si>
+  <si>
+    <t>320107196612285513</t>
+  </si>
+  <si>
+    <t>充娟</t>
+  </si>
+  <si>
+    <t>82cccee21c5e4d50b290f28151cfe71b</t>
+  </si>
+  <si>
+    <t>230109196012275224</t>
+  </si>
+  <si>
+    <t>轩冠朗</t>
+  </si>
+  <si>
+    <t>cd505d5ca7df48c3b679edbfb766dfbf</t>
+  </si>
+  <si>
+    <t>450105195707133522</t>
+  </si>
+  <si>
+    <t>翟乐</t>
+  </si>
+  <si>
+    <t>4ca3959aa9d844f6a2f448efd7b32682</t>
+  </si>
+  <si>
+    <t>140223200201226181</t>
+  </si>
+  <si>
+    <t>慕腾</t>
+  </si>
+  <si>
+    <t>ff688468fd1f4df4ac1cad8fd97caa28</t>
+  </si>
+  <si>
+    <t>510603200609152599</t>
+  </si>
+  <si>
+    <t>阳航维</t>
+  </si>
+  <si>
+    <t>bf3473f11761458b9e33fba421d5dc04</t>
+  </si>
+  <si>
+    <t>330822198508130952</t>
+  </si>
+  <si>
+    <t>宗宁</t>
+  </si>
+  <si>
+    <t>0987a8ee710549bc8d774762ea179811</t>
+  </si>
+  <si>
+    <t>360500196610062994</t>
+  </si>
+  <si>
+    <t>欧斌</t>
+  </si>
+  <si>
+    <t>1a17a33f4f614e00b4aa192f63918452</t>
+  </si>
+  <si>
+    <t>632724198001079713</t>
+  </si>
+  <si>
+    <t>羿璧燕</t>
+  </si>
+  <si>
+    <t>13c033ef117f42c4a4ecfb7bb3bc3a9c</t>
+  </si>
+  <si>
+    <t>350121198704143848</t>
+  </si>
+  <si>
+    <t>湛婷</t>
+  </si>
+  <si>
+    <t>e3d675c7ceb34bd7a087fee8c7b3c098</t>
+  </si>
+  <si>
+    <t>320205200012052021</t>
+  </si>
+  <si>
+    <t>郝枝毓</t>
+  </si>
+  <si>
+    <t>003dca9a76d143d6910337e3da137d9d</t>
+  </si>
+  <si>
+    <t>370126199210194960</t>
+  </si>
+  <si>
+    <t>庚刚</t>
+  </si>
+  <si>
+    <t>1cdc41279106450a944428850f782f64</t>
+  </si>
+  <si>
+    <t>620721195310163015</t>
+  </si>
+  <si>
+    <t>刘钧</t>
+  </si>
+  <si>
+    <t>afe5451afe844e95859edfb92f649f04</t>
+  </si>
+  <si>
+    <t>540121199012242159</t>
+  </si>
+  <si>
+    <t>李宏山</t>
+  </si>
+  <si>
+    <t>c0e3e696aeef4278a4ca8d411a31d007</t>
+  </si>
+  <si>
+    <t>321283195208311511</t>
+  </si>
+  <si>
+    <t>皮士士</t>
+  </si>
+  <si>
+    <t>1b9b9065c2ab48fe9e4d34334613979c</t>
+  </si>
+  <si>
+    <t>350581200710038137</t>
+  </si>
+  <si>
+    <t>卢韵妹</t>
+  </si>
+  <si>
+    <t>15a9b2ebacdf4f24b0bbc3bc3a8c6416</t>
+  </si>
+  <si>
+    <t>330784200209216864</t>
+  </si>
+  <si>
+    <t>符雅倩</t>
+  </si>
+  <si>
+    <t>6cd9ea87bae642209a027aed0e488116</t>
+  </si>
+  <si>
+    <t>654326200809021297</t>
+  </si>
+  <si>
+    <t>宰辰</t>
+  </si>
+  <si>
+    <t>0d08da2fece14b47a64a5308b1b4dd63</t>
+  </si>
+  <si>
+    <t>110101199003074434</t>
+  </si>
+  <si>
+    <t>小五</t>
+  </si>
+  <si>
+    <t>a2e558e260f34f2f9a3a715dd6a7b3a6</t>
+  </si>
+  <si>
+    <t>110101199003079710</t>
+  </si>
+  <si>
+    <t>小六</t>
+  </si>
+  <si>
+    <t>eb51f74108a3471cab5709b4173b59a9</t>
+  </si>
+  <si>
+    <t>110101199003077133</t>
+  </si>
+  <si>
+    <t>小七</t>
+  </si>
+  <si>
+    <t>bb9746419a23443fb8972fb1914cffb4</t>
+  </si>
+  <si>
+    <t>110101199003077854</t>
+  </si>
+  <si>
+    <t>小八</t>
+  </si>
+  <si>
+    <t>0b4ddf6c69ce455ebd2117e9c4198ecd</t>
+  </si>
+  <si>
+    <t>141034197303243446</t>
+  </si>
+  <si>
+    <t>乐先</t>
+  </si>
+  <si>
+    <t>4c843a73eacc45699d50a62d46897b08</t>
+  </si>
+  <si>
+    <t>110107198102026458</t>
+  </si>
+  <si>
+    <t>雕梅</t>
+  </si>
+  <si>
+    <t>4267de913e8e44eeaedff314d5b6c91a</t>
+  </si>
+  <si>
+    <t>110101199003071559</t>
+  </si>
+  <si>
+    <t>小九</t>
+  </si>
+  <si>
+    <t>e332b2525d7449c7b1bec1c7ac75f30f</t>
+  </si>
+  <si>
+    <t>429555f5f6344520919885e5106024f2</t>
+  </si>
+  <si>
+    <t>430105199003071516</t>
+  </si>
+  <si>
+    <t>d6b2ad68c3674c6982f85b46a72bc5cc</t>
+  </si>
+  <si>
+    <t>f8360ae029394ffd84aede49c56bbb0f</t>
+  </si>
+  <si>
+    <t>430105199003071517</t>
+  </si>
+  <si>
+    <t>陈风</t>
+  </si>
+  <si>
+    <t>c0dedb454aca496c8a6d7de7bd6ed570</t>
+  </si>
+  <si>
+    <t>542223195910201123</t>
+  </si>
+  <si>
+    <t>富彪克</t>
+  </si>
+  <si>
+    <t>d2db305858814cb196272b459bb584be</t>
+  </si>
+  <si>
+    <t>230104200505211883</t>
+  </si>
+  <si>
+    <t>韦友楠</t>
+  </si>
+  <si>
+    <t>937d85e7ac754af3ab36ea17fe39ae71</t>
+  </si>
+  <si>
+    <t>542624195506221374</t>
+  </si>
+  <si>
+    <t>湛馨</t>
+  </si>
+  <si>
+    <t>c7d2cb2fc1294177b60ab53e6cf97dd1</t>
+  </si>
+  <si>
+    <t>542126198110024947</t>
+  </si>
+  <si>
+    <t>裴子强</t>
+  </si>
+  <si>
+    <t>a432e7a6717e496b90f331fa6a86aece</t>
+  </si>
+  <si>
+    <t>360800200406257001</t>
+  </si>
+  <si>
+    <t>单飘娜</t>
+  </si>
+  <si>
+    <t>39f4c4a1c9bc4af5a1eb1361b1623c83</t>
+  </si>
+  <si>
+    <t>532800198212176354</t>
+  </si>
+  <si>
+    <t>蔚朋</t>
+  </si>
+  <si>
+    <t>1698580e6ba5416fa83af75dbbf7c657</t>
+  </si>
+  <si>
+    <t>110101199003073212</t>
+  </si>
+  <si>
+    <t>0a98f52b0532061413f0d7e92c34d399</t>
+  </si>
+  <si>
+    <t>440881198506152395</t>
+  </si>
+  <si>
+    <t>王超</t>
+  </si>
+  <si>
+    <t>e9570b9a3d033c50a8efceecd5e0826a</t>
+  </si>
+  <si>
+    <t>440306199006050357</t>
+  </si>
+  <si>
+    <t>王文</t>
+  </si>
 </sst>
 </file>
 
@@ -1298,8 +2677,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1367,7 +2746,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1375,30 +2754,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,53 +2791,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,9 +2805,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1486,6 +2818,53 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1578,7 +2957,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,43 +3041,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,19 +3065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,13 +3083,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,79 +3137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,30 +3176,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1831,30 +3186,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1876,6 +3207,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1887,85 +3266,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1974,66 +3353,67 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2414,199 +3794,3244 @@
   <sheetPr/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.8125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.5625" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="30.8125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="32.5625" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D158"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="12.6875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13354882205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13354882201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D4" s="1">
+        <v>13354882201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="1">
+        <v>17759218006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13354882211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13354882311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13354882311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13354882314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13221397387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15221397386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13221397389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="1">
+        <v>13221397321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13211397321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13211397321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16" t="s">
+        <v>448</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15823160024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D17" s="1">
+        <v>17782032134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>452</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" t="s">
+        <v>454</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15506711704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" t="s">
+        <v>457</v>
+      </c>
+      <c r="D19" s="1">
+        <v>15707028732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>458</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C20" t="s">
+        <v>460</v>
+      </c>
+      <c r="D20" s="1">
+        <v>13800506210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>461</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C21" t="s">
+        <v>463</v>
+      </c>
+      <c r="D21" s="1">
+        <v>15507995091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C22" t="s">
+        <v>466</v>
+      </c>
+      <c r="D22" s="1">
+        <v>13600040945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>467</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C23" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" s="1">
+        <v>15602198205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>470</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C24" t="s">
+        <v>472</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15104101297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>473</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C25" t="s">
+        <v>475</v>
+      </c>
+      <c r="D25" s="1">
+        <v>13200748991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>476</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C26" t="s">
+        <v>478</v>
+      </c>
+      <c r="D26" s="1">
+        <v>13100103762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>479</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C27" t="s">
+        <v>481</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15204111720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>482</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C28" t="s">
+        <v>484</v>
+      </c>
+      <c r="D28" s="1">
+        <v>15805214306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>485</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C29" t="s">
+        <v>487</v>
+      </c>
+      <c r="D29" s="1">
+        <v>15904714725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>488</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C30" t="s">
+        <v>490</v>
+      </c>
+      <c r="D30" s="1">
+        <v>13702193073</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>491</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C31" t="s">
+        <v>493</v>
+      </c>
+      <c r="D31" s="1">
+        <v>13401406367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>494</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C32" t="s">
+        <v>496</v>
+      </c>
+      <c r="D32" s="1">
+        <v>15101889089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>497</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" s="1">
+        <v>15502872138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>500</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C34" t="s">
+        <v>502</v>
+      </c>
+      <c r="D34" s="1">
+        <v>13705724350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>503</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C35" t="s">
+        <v>505</v>
+      </c>
+      <c r="D35" s="1">
+        <v>15102141524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>506</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C36" t="s">
+        <v>508</v>
+      </c>
+      <c r="D36" s="1">
+        <v>13703394870</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>509</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C37" t="s">
+        <v>511</v>
+      </c>
+      <c r="D37" s="1">
+        <v>15112341235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>512</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C38" t="s">
+        <v>514</v>
+      </c>
+      <c r="D38" s="1">
+        <v>15112341236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>515</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C39" t="s">
+        <v>517</v>
+      </c>
+      <c r="D39" s="1">
+        <v>15112341237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>518</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C40" t="s">
+        <v>520</v>
+      </c>
+      <c r="D40" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>521</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C41" t="s">
+        <v>523</v>
+      </c>
+      <c r="D41" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>524</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C42" t="s">
+        <v>526</v>
+      </c>
+      <c r="D42" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>527</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C43" t="s">
+        <v>529</v>
+      </c>
+      <c r="D43" s="1">
+        <v>15903620690</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>530</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C44" t="s">
+        <v>532</v>
+      </c>
+      <c r="D44" s="1">
+        <v>15905907727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>533</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C45" t="s">
+        <v>535</v>
+      </c>
+      <c r="D45" s="1">
+        <v>13307094103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>536</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C46" t="s">
+        <v>538</v>
+      </c>
+      <c r="D46" s="1">
+        <v>15004666735</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>539</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C47" t="s">
+        <v>541</v>
+      </c>
+      <c r="D47" s="1">
+        <v>15808715063</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>542</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C48" t="s">
+        <v>544</v>
+      </c>
+      <c r="D48" s="1">
+        <v>13412345678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>545</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C49" t="s">
+        <v>547</v>
+      </c>
+      <c r="D49" s="1">
+        <v>13605677104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>548</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C50" t="s">
+        <v>550</v>
+      </c>
+      <c r="D50" s="1">
+        <v>13503968499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>551</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C51" t="s">
+        <v>553</v>
+      </c>
+      <c r="D51" s="1">
+        <v>13001874370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>554</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C52" t="s">
+        <v>556</v>
+      </c>
+      <c r="D52" s="1">
+        <v>15507375265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>557</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C53" t="s">
+        <v>559</v>
+      </c>
+      <c r="D53" s="1">
+        <v>15508122382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>560</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C54" t="s">
+        <v>562</v>
+      </c>
+      <c r="D54" s="1">
+        <v>15905840325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>563</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C55" t="s">
+        <v>565</v>
+      </c>
+      <c r="D55" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>566</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C56" t="s">
+        <v>568</v>
+      </c>
+      <c r="D56" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>569</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C57" t="s">
+        <v>571</v>
+      </c>
+      <c r="D57" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>572</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C58" t="s">
+        <v>574</v>
+      </c>
+      <c r="D58" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>575</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C59" t="s">
+        <v>577</v>
+      </c>
+      <c r="D59" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>578</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C60" t="s">
+        <v>580</v>
+      </c>
+      <c r="D60" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>581</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C61" t="s">
+        <v>583</v>
+      </c>
+      <c r="D61" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>584</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C62" t="s">
+        <v>586</v>
+      </c>
+      <c r="D62" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>587</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C63" t="s">
+        <v>589</v>
+      </c>
+      <c r="D63" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>590</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C64" t="s">
+        <v>592</v>
+      </c>
+      <c r="D64" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>593</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C65" t="s">
+        <v>595</v>
+      </c>
+      <c r="D65" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>596</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C66" t="s">
+        <v>598</v>
+      </c>
+      <c r="D66" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>599</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C67" t="s">
+        <v>601</v>
+      </c>
+      <c r="D67" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>602</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C68" t="s">
+        <v>604</v>
+      </c>
+      <c r="D68" s="1">
+        <v>15208418800</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>605</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C69" t="s">
+        <v>607</v>
+      </c>
+      <c r="D69" s="1">
+        <v>15101796616</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>608</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C70" t="s">
+        <v>610</v>
+      </c>
+      <c r="D70" s="1">
+        <v>13704165202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>611</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C71" t="s">
+        <v>613</v>
+      </c>
+      <c r="D71" s="1">
+        <v>13808393694</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>614</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C72" t="s">
+        <v>616</v>
+      </c>
+      <c r="D72" s="1">
+        <v>15106690895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>617</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C73" t="s">
+        <v>619</v>
+      </c>
+      <c r="D73" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>620</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C74" t="s">
+        <v>622</v>
+      </c>
+      <c r="D74" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>623</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C75" t="s">
+        <v>625</v>
+      </c>
+      <c r="D75" s="1">
+        <v>13402160975</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>626</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C76" t="s">
+        <v>628</v>
+      </c>
+      <c r="D76" s="1">
+        <v>15904918614</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>629</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C77" t="s">
+        <v>631</v>
+      </c>
+      <c r="D77" s="1">
+        <v>15203628409</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>632</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C78" t="s">
+        <v>634</v>
+      </c>
+      <c r="D78" s="1">
+        <v>13403383393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>635</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C79" t="s">
+        <v>637</v>
+      </c>
+      <c r="D79" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>638</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C80" t="s">
+        <v>640</v>
+      </c>
+      <c r="D80" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>641</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C81" t="s">
+        <v>643</v>
+      </c>
+      <c r="D81" s="1">
+        <v>15900335093</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>644</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C82" t="s">
+        <v>646</v>
+      </c>
+      <c r="D82" s="1">
+        <v>13302897169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>647</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C83" t="s">
+        <v>649</v>
+      </c>
+      <c r="D83" s="1">
+        <v>13900783844</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>650</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C84" t="s">
+        <v>652</v>
+      </c>
+      <c r="D84" s="1">
+        <v>13507440212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>653</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C85" t="s">
+        <v>655</v>
+      </c>
+      <c r="D85" s="1">
+        <v>13000247340</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>656</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C86" t="s">
+        <v>658</v>
+      </c>
+      <c r="D86" s="1">
+        <v>13905594991</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>659</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C87" t="s">
+        <v>661</v>
+      </c>
+      <c r="D87" s="1">
+        <v>15816397386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>662</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C88" t="s">
+        <v>664</v>
+      </c>
+      <c r="D88" s="1">
+        <v>15107742646</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>665</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C89" t="s">
+        <v>667</v>
+      </c>
+      <c r="D89" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>668</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C90" t="s">
+        <v>670</v>
+      </c>
+      <c r="D90" s="1">
+        <v>15501975011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>671</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C91" t="s">
+        <v>673</v>
+      </c>
+      <c r="D91" s="1">
+        <v>13802242845</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>674</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C92" t="s">
+        <v>676</v>
+      </c>
+      <c r="D92" s="1">
+        <v>15208018001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>677</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C93" t="s">
+        <v>679</v>
+      </c>
+      <c r="D93" s="1">
+        <v>13300034880</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>680</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C94" t="s">
+        <v>682</v>
+      </c>
+      <c r="D94" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>683</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95" t="s">
+        <v>685</v>
+      </c>
+      <c r="D95" s="1">
+        <v>13503703167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>686</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C96" t="s">
+        <v>688</v>
+      </c>
+      <c r="D96" s="1">
+        <v>13600791914</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>689</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C97" t="s">
+        <v>691</v>
+      </c>
+      <c r="D97" s="1">
+        <v>13603434179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>692</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C98" t="s">
+        <v>694</v>
+      </c>
+      <c r="D98" s="1">
+        <v>13412345679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>695</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C99" t="s">
+        <v>694</v>
+      </c>
+      <c r="D99" s="1">
+        <v>13412345680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>697</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C100" t="s">
+        <v>699</v>
+      </c>
+      <c r="D100" s="1">
+        <v>13412345681</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>700</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C101" t="s">
+        <v>702</v>
+      </c>
+      <c r="D101" s="1">
+        <v>17783470510</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>703</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C102" t="s">
+        <v>705</v>
+      </c>
+      <c r="D102" s="1">
+        <v>18978654645</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>706</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C103" t="s">
+        <v>708</v>
+      </c>
+      <c r="D103" s="1">
+        <v>13211112222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>709</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C104" t="s">
+        <v>711</v>
+      </c>
+      <c r="D104" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>712</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C105" t="s">
+        <v>714</v>
+      </c>
+      <c r="D105" s="1">
+        <v>15601590396</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>715</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C106" t="s">
+        <v>717</v>
+      </c>
+      <c r="D106" s="1">
+        <v>13805663444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>718</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C107" t="s">
+        <v>720</v>
+      </c>
+      <c r="D107" s="1">
+        <v>13603605108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>721</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C108" t="s">
+        <v>723</v>
+      </c>
+      <c r="D108" s="1">
+        <v>15607157585</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>724</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C109" t="s">
+        <v>726</v>
+      </c>
+      <c r="D109" s="1">
+        <v>15205006891</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>727</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C110" t="s">
+        <v>729</v>
+      </c>
+      <c r="D110" s="1">
+        <v>15302973973</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>730</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C111" t="s">
+        <v>732</v>
+      </c>
+      <c r="D111" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>733</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C112" t="s">
+        <v>735</v>
+      </c>
+      <c r="D112" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>736</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C113" t="s">
+        <v>738</v>
+      </c>
+      <c r="D113" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>739</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C114" t="s">
+        <v>741</v>
+      </c>
+      <c r="D114" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>742</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C115" t="s">
+        <v>744</v>
+      </c>
+      <c r="D115" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>745</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C116" t="s">
+        <v>747</v>
+      </c>
+      <c r="D116" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>748</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C117" t="s">
+        <v>750</v>
+      </c>
+      <c r="D117" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>751</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C118" t="s">
+        <v>753</v>
+      </c>
+      <c r="D118" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>754</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C119" t="s">
+        <v>756</v>
+      </c>
+      <c r="D119" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>757</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C120" t="s">
+        <v>759</v>
+      </c>
+      <c r="D120" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>760</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C121" t="s">
+        <v>762</v>
+      </c>
+      <c r="D121" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>763</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C122" t="s">
+        <v>765</v>
+      </c>
+      <c r="D122" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>766</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C123" t="s">
+        <v>768</v>
+      </c>
+      <c r="D123" s="1">
+        <v>15200315886</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>769</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C124" t="s">
+        <v>771</v>
+      </c>
+      <c r="D124" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>772</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C125" t="s">
+        <v>774</v>
+      </c>
+      <c r="D125" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>775</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C126" t="s">
+        <v>777</v>
+      </c>
+      <c r="D126" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>778</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C127" t="s">
+        <v>780</v>
+      </c>
+      <c r="D127" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>781</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C128" t="s">
+        <v>783</v>
+      </c>
+      <c r="D128" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>784</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C129" t="s">
+        <v>786</v>
+      </c>
+      <c r="D129" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>787</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C130" t="s">
+        <v>789</v>
+      </c>
+      <c r="D130" s="1">
+        <v>15003501641</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>790</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C131" t="s">
+        <v>792</v>
+      </c>
+      <c r="D131" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>793</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C132" t="s">
+        <v>795</v>
+      </c>
+      <c r="D132" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>796</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C133" t="s">
+        <v>798</v>
+      </c>
+      <c r="D133" s="1">
+        <v>15504454303</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>799</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C134" t="s">
+        <v>801</v>
+      </c>
+      <c r="D134" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>802</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C135" t="s">
+        <v>804</v>
+      </c>
+      <c r="D135" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>805</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C136" t="s">
+        <v>807</v>
+      </c>
+      <c r="D136" s="1">
+        <v>13205610246</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>808</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C137" t="s">
+        <v>810</v>
+      </c>
+      <c r="D137" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>811</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C138" t="s">
+        <v>813</v>
+      </c>
+      <c r="D138" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>814</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C139" t="s">
+        <v>816</v>
+      </c>
+      <c r="D139" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>817</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C140" t="s">
+        <v>819</v>
+      </c>
+      <c r="D140" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>820</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C141" t="s">
+        <v>822</v>
+      </c>
+      <c r="D141" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>823</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C142" t="s">
+        <v>825</v>
+      </c>
+      <c r="D142" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>826</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C143" t="s">
+        <v>828</v>
+      </c>
+      <c r="D143" s="1">
+        <v>15204111728</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>829</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C144" t="s">
+        <v>831</v>
+      </c>
+      <c r="D144" s="1">
+        <v>13808547122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>832</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C145" t="s">
+        <v>834</v>
+      </c>
+      <c r="D145" s="1">
+        <v>15434643235</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>835</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C146" t="s">
+        <v>705</v>
+      </c>
+      <c r="D146" s="1">
+        <v>15832649835</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>836</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C147" t="s">
+        <v>705</v>
+      </c>
+      <c r="D147" s="1">
+        <v>15832649835</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>838</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C148" t="s">
+        <v>705</v>
+      </c>
+      <c r="D148" s="1">
+        <v>15832649835</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>839</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C149" t="s">
+        <v>841</v>
+      </c>
+      <c r="D149" s="1">
+        <v>18678654546</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>842</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C150" t="s">
+        <v>844</v>
+      </c>
+      <c r="D150" s="1">
+        <v>13906978877</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>845</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C151" t="s">
+        <v>847</v>
+      </c>
+      <c r="D151" s="1">
+        <v>13202830341</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>848</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C152" t="s">
+        <v>850</v>
+      </c>
+      <c r="D152" s="1">
+        <v>15801348239</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>851</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C153" t="s">
+        <v>853</v>
+      </c>
+      <c r="D153" s="1">
+        <v>13004027080</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>854</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C154" t="s">
+        <v>856</v>
+      </c>
+      <c r="D154" s="1">
+        <v>15502483887</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>857</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C155" t="s">
+        <v>859</v>
+      </c>
+      <c r="D155" s="1">
+        <v>13102633437</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>860</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C156" t="s">
+        <v>708</v>
+      </c>
+      <c r="D156" s="1">
+        <v>15112341238</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>862</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C157" t="s">
+        <v>864</v>
+      </c>
+      <c r="D157" s="1">
+        <v>15247682183</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>865</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C158" t="s">
+        <v>867</v>
+      </c>
+      <c r="D158" s="1">
+        <v>15841682583</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -2642,7 +7067,7 @@
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2650,7 +7075,7 @@
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2658,7 +7083,7 @@
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2666,7 +7091,7 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2674,7 +7099,7 @@
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2682,7 +7107,7 @@
       <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2690,7 +7115,7 @@
       <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2698,7 +7123,7 @@
       <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2706,7 +7131,7 @@
       <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2714,7 +7139,7 @@
       <c r="A11" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2722,7 +7147,7 @@
       <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2730,7 +7155,7 @@
       <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2738,7 +7163,7 @@
       <c r="A14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2746,7 +7171,7 @@
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2754,7 +7179,7 @@
       <c r="A16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2762,7 +7187,7 @@
       <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2770,7 +7195,7 @@
       <c r="A18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2778,7 +7203,7 @@
       <c r="A19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2786,7 +7211,7 @@
       <c r="A20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2794,7 +7219,7 @@
       <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2828,266 +7253,266 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="20" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="20" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3198,7 +7623,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>165</v>
       </c>
       <c r="B2" t="s">
@@ -3206,7 +7631,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B3" t="s">
@@ -3214,7 +7639,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>169</v>
       </c>
       <c r="B4" t="s">
@@ -3222,7 +7647,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B5" t="s">
@@ -3230,7 +7655,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>173</v>
       </c>
       <c r="B6" t="s">
@@ -3238,7 +7663,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>175</v>
       </c>
       <c r="B7" t="s">
@@ -3246,7 +7671,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>177</v>
       </c>
       <c r="B8" t="s">
@@ -3254,7 +7679,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>179</v>
       </c>
       <c r="B9" t="s">
@@ -3262,7 +7687,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>181</v>
       </c>
       <c r="B10" t="s">
@@ -3270,7 +7695,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>183</v>
       </c>
       <c r="B11" t="s">
@@ -3278,7 +7703,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>185</v>
       </c>
       <c r="B12" t="s">
@@ -3286,7 +7711,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>187</v>
       </c>
       <c r="B13" t="s">
@@ -3294,7 +7719,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>189</v>
       </c>
       <c r="B14" t="s">
@@ -3302,7 +7727,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>191</v>
       </c>
       <c r="B15" t="s">
@@ -3310,7 +7735,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>193</v>
       </c>
       <c r="B16" t="s">
@@ -3318,7 +7743,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>195</v>
       </c>
       <c r="B17" t="s">
@@ -3326,7 +7751,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>197</v>
       </c>
       <c r="B18" t="s">
@@ -3334,7 +7759,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>199</v>
       </c>
       <c r="B19" t="s">
@@ -3342,7 +7767,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>201</v>
       </c>
       <c r="B20" t="s">
@@ -3350,7 +7775,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>203</v>
       </c>
       <c r="B21" t="s">
@@ -3358,7 +7783,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>205</v>
       </c>
       <c r="B22" t="s">
@@ -3366,7 +7791,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B23" t="s">
@@ -3374,7 +7799,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>209</v>
       </c>
       <c r="B24" t="s">
@@ -3382,7 +7807,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>211</v>
       </c>
       <c r="B25" t="s">
@@ -3390,7 +7815,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>213</v>
       </c>
       <c r="B26" t="s">
@@ -3398,7 +7823,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="18" t="s">
         <v>215</v>
       </c>
       <c r="B27" t="s">
@@ -3406,7 +7831,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>217</v>
       </c>
       <c r="B28" t="s">
@@ -3435,218 +7860,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" ht="18" spans="1:2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" ht="18" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" ht="18" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" ht="18" spans="1:2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" ht="18" spans="1:2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" ht="18" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="18" ht="18" spans="1:2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="19" ht="18" spans="1:2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="20" ht="18" spans="1:2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="21" ht="18" spans="1:2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" ht="18" spans="1:2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="25" ht="18" spans="1:2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="26" ht="18" spans="1:2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" ht="18" spans="1:2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3672,210 +8097,210 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="7" ht="34" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="8" ht="34" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="9" ht="34" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="17" ht="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="19" ht="17" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="21" ht="17" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3901,122 +8326,122 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4032,7 +8457,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -4042,370 +8467,370 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="16" ht="28" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>408</v>
       </c>
     </row>

--- a/src/main/TestData/数据迁移.xlsx
+++ b/src/main/TestData/数据迁移.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700" firstSheet="2" activeTab="10"/>
+    <workbookView windowHeight="17700" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="百融001" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939">
   <si>
     <t>var_name</t>
   </si>
@@ -1023,274 +1023,487 @@
     <t>用户身份证所在省份</t>
   </si>
   <si>
-    <t>hds_s1_cust_aging_rank</t>
-  </si>
-  <si>
-    <t>好多数_客户手机号时效等级</t>
-  </si>
-  <si>
-    <t>hds_s1_cust_rich_rank</t>
-  </si>
-  <si>
-    <t>好多数_记录丰富度</t>
-  </si>
-  <si>
-    <t>hds_s1_addr_rich_rank</t>
-  </si>
-  <si>
-    <t>好多数_地址丰富度</t>
-  </si>
-  <si>
-    <t>hds_s1_total_tmallid_cnt</t>
-  </si>
-  <si>
-    <t>好多数_该手机号对应自然人在天猫上注册的ID个数</t>
-  </si>
-  <si>
-    <t>hds_s1_36m_total_purchase_cnt</t>
-  </si>
-  <si>
-    <t>好多数_最近3年总订单笔数</t>
-  </si>
-  <si>
-    <t>hds_s1_6m_total_purchase_cnt</t>
-  </si>
-  <si>
-    <t>好多数_最近6个月总订单笔数</t>
-  </si>
-  <si>
-    <t>hds_s1_36m_doub11_12_purchase_cnt</t>
-  </si>
-  <si>
-    <t>好多数_最近3年双11和双12总成交笔数</t>
-  </si>
-  <si>
-    <t>hds_s1_36m_month_max_purchase_cnt_excp_doub11_12</t>
-  </si>
-  <si>
-    <t>好多数_最近3年单月订单最大支付笔数（剔除双11&amp;12）</t>
-  </si>
-  <si>
-    <t>hds_s1_36m_total_purchse_money</t>
-  </si>
-  <si>
-    <t>好多数_最近3年总支付金额</t>
-  </si>
-  <si>
-    <t>hds_s1_total_otherplatform_cnt</t>
-  </si>
-  <si>
-    <t>好多数_该手机号对应自然人在其他平台上注册的ID个数</t>
-  </si>
-  <si>
-    <t>hds_s1_36m_day_max_purchase_cnt_excp_doub11_12</t>
-  </si>
-  <si>
-    <t>好多数_最近3年单日订单最大支付笔数（剔除双11&amp;12）</t>
-  </si>
-  <si>
-    <t>hds_s1_36m_doub11_12_total_purchase_money</t>
-  </si>
-  <si>
-    <t>好多数_最近3年双11和双12总成交金额</t>
-  </si>
-  <si>
-    <t>hds_s1_36m_day_max_purchase_money_excp_doub11_12</t>
-  </si>
-  <si>
-    <t>好多数_最近3年单日最大支付金额（剔除双11&amp;12）</t>
-  </si>
-  <si>
-    <t>hds_s1_36m_month_max_purchase_money_excp_doub11_12</t>
-  </si>
-  <si>
-    <t>好多数_最近3年单月最大支付金额（剔除双11&amp;12）</t>
-  </si>
-  <si>
-    <t>hds_s1_month_cnt_from_most_early_purchase_time</t>
-  </si>
-  <si>
-    <t>好多数_最近3年最早付款时间距今月份数</t>
-  </si>
-  <si>
-    <t>hds_s1_month_cnt_from_recent_purchase_time</t>
-  </si>
-  <si>
-    <t>好多数_最近付款时间距今的月份数</t>
-  </si>
-  <si>
-    <t>hds_s1_pay_record_month_cnt</t>
-  </si>
-  <si>
-    <t>好多数_最近3年有付款记录的月份数</t>
-  </si>
-  <si>
-    <t>hds_s1_36m_purchase_steady</t>
-  </si>
-  <si>
-    <t>好多数_最近3年支付稳定性</t>
-  </si>
-  <si>
-    <t>ym_xwf_finplus_code</t>
-  </si>
-  <si>
-    <t>友盟_finplus小微分响应状态码</t>
-  </si>
-  <si>
-    <t>ym_def_finplus_code</t>
-  </si>
-  <si>
-    <t>友盟_finplus新版大额分响应状态码</t>
-  </si>
-  <si>
-    <t>ym_xef_finplus_code</t>
-  </si>
-  <si>
-    <t>友盟_finplus新版小额分响应状态码</t>
-  </si>
-  <si>
-    <t>ym_xwf_finplus_score</t>
-  </si>
-  <si>
-    <t>友盟_finplus小微分</t>
-  </si>
-  <si>
-    <t>ym_def_finplus_score</t>
-  </si>
-  <si>
-    <t>友盟_finplus新版大额分</t>
-  </si>
-  <si>
-    <t>ym_xef_finplus_score</t>
-  </si>
-  <si>
-    <t>友盟_finplus新版小额分</t>
-  </si>
-  <si>
-    <t>br_frg_list_level</t>
-  </si>
-  <si>
-    <t>百融_查询人欺诈团伙等级</t>
-  </si>
-  <si>
-    <t>br_frg_group_num</t>
-  </si>
-  <si>
-    <t>百融_查询人欺诈团伙群组规模</t>
-  </si>
-  <si>
-    <t>br_frg_rule_final_weight</t>
-  </si>
-  <si>
-    <t>百融_最终欺诈规则评分</t>
-  </si>
-  <si>
-    <t>br_alu_rule_final_weight</t>
-  </si>
-  <si>
-    <t>百融_最终高风险规则评分</t>
-  </si>
-  <si>
-    <t>br_alu_d7_id_allnum</t>
-  </si>
-  <si>
-    <t>百融_近7天_身份证号查询的申请次数</t>
-  </si>
-  <si>
-    <t>br_alu_d15_id_allnum</t>
-  </si>
-  <si>
-    <t>百融_近15天_身份证号查询的申请次数</t>
-  </si>
-  <si>
-    <t>br_alu_m1_id_allnum</t>
-  </si>
-  <si>
-    <t>百融_近1个月_身份证号查询的申请次数</t>
-  </si>
-  <si>
-    <t>br_alu_m3_id_allnum</t>
-  </si>
-  <si>
-    <t>百融_近3个月_身份证号查询的申请次数</t>
-  </si>
-  <si>
-    <t>br_alu_m6_id_allnum</t>
-  </si>
-  <si>
-    <t>百融_近6个月_身份证号查询的申请次数</t>
-  </si>
-  <si>
-    <t>br_alu_m12_id_allnum</t>
-  </si>
-  <si>
-    <t>百融_近12个月_身份证号查询的申请次数</t>
-  </si>
-  <si>
-    <t>rh_hr_isfakephone</t>
-  </si>
-  <si>
-    <t>融慧_是否山寨机</t>
-  </si>
-  <si>
-    <t>rh_hr_ishr</t>
-  </si>
-  <si>
-    <t>融慧_风险等级</t>
-  </si>
-  <si>
-    <t>rh_hr_hr1rc001</t>
-  </si>
-  <si>
-    <t>融慧_高危信贷风险分_A</t>
-  </si>
-  <si>
-    <t>rh_hr_hr1rc002</t>
-  </si>
-  <si>
-    <t>融慧_高危信贷风险分_B</t>
-  </si>
-  <si>
-    <t>rh_hr_hr1rc003</t>
-  </si>
-  <si>
-    <t>融慧_短期高危信贷风险分_A</t>
-  </si>
-  <si>
-    <t>rh_hr_hr1rc004</t>
-  </si>
-  <si>
-    <t>融慧_短期高危信贷风险分_B</t>
-  </si>
-  <si>
-    <t>rh_hr_hr1rc005</t>
-  </si>
-  <si>
-    <t>融慧_近期高危信贷风险分_A</t>
-  </si>
-  <si>
-    <t>rh_hr_hr1rc006</t>
-  </si>
-  <si>
-    <t>融慧_近期高危信贷风险分_B</t>
-  </si>
-  <si>
-    <t>rh_hr_hr1rc007</t>
-  </si>
-  <si>
-    <t>融慧_中期高危信贷风险分_A</t>
-  </si>
-  <si>
-    <t>rh_hr_hr1rc008</t>
-  </si>
-  <si>
-    <t>融慧_中期高危信贷风险分_B</t>
-  </si>
-  <si>
-    <t>rh_hr_hrscore</t>
-  </si>
-  <si>
-    <t>融慧_高危信贷风险分</t>
+    <t>br_sl_id_bank_fraud_2</t>
+  </si>
+  <si>
+    <t>百融身份证查询银行(含信用卡)资信不佳</t>
+  </si>
+  <si>
+    <t>br_sl_id_nbank_bad_2</t>
+  </si>
+  <si>
+    <t>百融身份证查询非银(含全部非银类型)中风险</t>
+  </si>
+  <si>
+    <t>br_sl_id_nbank_overdue_2</t>
+  </si>
+  <si>
+    <t>百融身份证查询非银(含全部非银类型)一般风险</t>
+  </si>
+  <si>
+    <t>br_sl_id_nbank_cons_bad</t>
+  </si>
+  <si>
+    <t>百融身份证查询非银-持牌消费金融中风险</t>
+  </si>
+  <si>
+    <t>br_sl_id_nbank_finlea_bad</t>
+  </si>
+  <si>
+    <t>百融身份证查询查询非银-持牌融资租赁中风险</t>
+  </si>
+  <si>
+    <t>br_sl_id_nbank_finlea_overdue</t>
+  </si>
+  <si>
+    <t>百融身份证查询非银-持牌融资租赁一般风险</t>
+  </si>
+  <si>
+    <t>br_sl_id_bank_lost</t>
+  </si>
+  <si>
+    <t>百融身份证查询银行(含信用卡)高风险</t>
+  </si>
+  <si>
+    <t>br_sl_id_nbank_fraud</t>
+  </si>
+  <si>
+    <t>百融身份证查询非银(含全部非银类型)资信不佳</t>
+  </si>
+  <si>
+    <t>br_sl_id_nbank_lost</t>
+  </si>
+  <si>
+    <t>百融身份证查询非银(含全部非银类型)高风险</t>
+  </si>
+  <si>
+    <t>ali_af_score</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺诈分_标准版</t>
+  </si>
+  <si>
+    <t>ali_af_tags</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签</t>
+  </si>
+  <si>
+    <t>ali_af_tag_lr110</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_身份伪冒高风险</t>
+  </si>
+  <si>
+    <t>ali_af_tag_lr111</t>
+  </si>
+  <si>
+    <t>ali_af_tag_lr112</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_涉嫌欺诈风险</t>
+  </si>
+  <si>
+    <t>ali_af_tag_lr113</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_涉嫌薅羊毛风险</t>
+  </si>
+  <si>
+    <t>ali_af_tag_lr115</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_涉嫌黄赌毒恐暴</t>
+  </si>
+  <si>
+    <t>ali_af_tag_lr114</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_涉嫌虚假批量风险</t>
+  </si>
+  <si>
+    <t>ali_af_tag_lr116</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_涉嫌失信风险</t>
+  </si>
+  <si>
+    <t>ali_af_tag_br118</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_异常设备风险</t>
+  </si>
+  <si>
+    <t>ali_af_tag_br119</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_异常环境风险</t>
+  </si>
+  <si>
+    <t>ali_af_tag_od020</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_逾期风险高</t>
+  </si>
+  <si>
+    <t>ali_af_tag_od010</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_逾期风险中</t>
+  </si>
+  <si>
+    <t>ali_af_tag_od000</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_逾期风险低</t>
+  </si>
+  <si>
+    <t>ali_af_tag_da020</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_需求多样性高</t>
+  </si>
+  <si>
+    <t>ali_af_tag_da010</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_需求多样性中</t>
+  </si>
+  <si>
+    <t>ali_af_tag_da000</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_需求多样性低</t>
+  </si>
+  <si>
+    <t>ali_af_tag_br120</t>
+  </si>
+  <si>
+    <t>阿里_申请反欺标签_行为等级高风险</t>
+  </si>
+  <si>
+    <t>dhb_rl_black_list</t>
+  </si>
+  <si>
+    <t>电话邦_风险名单</t>
+  </si>
+  <si>
+    <t>dhb_rl_blacklist_type</t>
+  </si>
+  <si>
+    <t>电话邦_风险名单_类型</t>
+  </si>
+  <si>
+    <t>dhb_rl_black_list_1</t>
+  </si>
+  <si>
+    <t>电话邦_信贷逾期类名单</t>
+  </si>
+  <si>
+    <t>dhb_rl_black_list_2</t>
+  </si>
+  <si>
+    <t>电话邦_信贷欺诈类名单</t>
+  </si>
+  <si>
+    <t>dhb_rl_black_list_3</t>
+  </si>
+  <si>
+    <t>电话邦_不良名单</t>
+  </si>
+  <si>
+    <t>dhb_rl_black_list_5</t>
+  </si>
+  <si>
+    <t>电话邦_信贷失联黑名单</t>
+  </si>
+  <si>
+    <t>dhb_rl_black_list_6</t>
+  </si>
+  <si>
+    <t>电话邦_网络电商类黑名单</t>
+  </si>
+  <si>
+    <t>dhb_rl_black_list_7</t>
+  </si>
+  <si>
+    <t>电话邦_司法黑名单</t>
+  </si>
+  <si>
+    <t>dhb_rl_black_list_9</t>
+  </si>
+  <si>
+    <t>电话邦_电信诈骗名单</t>
+  </si>
+  <si>
+    <t>dhb_rl_black_list_15</t>
+  </si>
+  <si>
+    <t>电话邦_高危行为</t>
+  </si>
+  <si>
+    <t>dhb_rl_black_list_16</t>
+  </si>
+  <si>
+    <t>电话邦_虚拟小号</t>
+  </si>
+  <si>
+    <t>yzd_user_credit_limit_qy</t>
+  </si>
+  <si>
+    <t>颜值贷_迁移用户额度</t>
+  </si>
+  <si>
+    <t>up_consume_level</t>
+  </si>
+  <si>
+    <t>银联智策_消费能力</t>
+  </si>
+  <si>
+    <t>up_card_status</t>
+  </si>
+  <si>
+    <t>银联智策_卡使用状态</t>
+  </si>
+  <si>
+    <t>up_user_value</t>
+  </si>
+  <si>
+    <t>银联智策_持卡人价值</t>
+  </si>
+  <si>
+    <t>up_1m_trans_amt</t>
+  </si>
+  <si>
+    <t>银联智策_近1个月交易金额</t>
+  </si>
+  <si>
+    <t>up_3m_trans_amt</t>
+  </si>
+  <si>
+    <t>银联智策_近3个月交易金额</t>
+  </si>
+  <si>
+    <t>up_6m_trans_amt</t>
+  </si>
+  <si>
+    <t>银联智策_近6个月交易金额</t>
+  </si>
+  <si>
+    <t>up_1m_trans_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近1个月交易笔数</t>
+  </si>
+  <si>
+    <t>up_3m_trans_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近3个月交易笔数</t>
+  </si>
+  <si>
+    <t>up_6m_trans_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近6个月交易笔数</t>
+  </si>
+  <si>
+    <t>up_6m_trans_amt_month_avg</t>
+  </si>
+  <si>
+    <t>银联智策_近6个月月均交易金额</t>
+  </si>
+  <si>
+    <t>up_6m_trans_cnt_month_avg</t>
+  </si>
+  <si>
+    <t>银联智策_近6个月月均交易笔数</t>
+  </si>
+  <si>
+    <t>up_1m_pay_amt</t>
+  </si>
+  <si>
+    <t>银联智策_近1个月付款金额</t>
+  </si>
+  <si>
+    <t>up_1m_pay_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近1个月付款笔数</t>
+  </si>
+  <si>
+    <t>up_1m_pos_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近1个月POS交易笔数</t>
+  </si>
+  <si>
+    <t>up_6m_pos_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近6个月POS交易笔数</t>
+  </si>
+  <si>
+    <t>up_1m_midnight_amt</t>
+  </si>
+  <si>
+    <t>银联智策_近1个月午夜交易金额</t>
+  </si>
+  <si>
+    <t>up_1m_midnight_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近1个月午夜交易笔数</t>
+  </si>
+  <si>
+    <t>up_6m_midnight_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近6个月午夜交易笔数</t>
+  </si>
+  <si>
+    <t>up_1m_consume_amt</t>
+  </si>
+  <si>
+    <t>银联智策_近1个月消费金额</t>
+  </si>
+  <si>
+    <t>up_6m_consume_amt</t>
+  </si>
+  <si>
+    <t>银联智策_近6个月消费金额</t>
+  </si>
+  <si>
+    <t>up_12m_consume_amt</t>
+  </si>
+  <si>
+    <t>银联智策_近12个月消费金额</t>
+  </si>
+  <si>
+    <t>up_his_earliest_trans_date</t>
+  </si>
+  <si>
+    <t>银联智策_历史最早交易日期</t>
+  </si>
+  <si>
+    <t>up_city</t>
+  </si>
+  <si>
+    <t>银联智策_常用城市名称</t>
+  </si>
+  <si>
+    <t>up_current_province</t>
+  </si>
+  <si>
+    <t>银联智策_当月活动省市</t>
+  </si>
+  <si>
+    <t>up_12m_earliest_consume_months</t>
+  </si>
+  <si>
+    <t>银联智策_近12个月最早发生消费所在月距今月数</t>
+  </si>
+  <si>
+    <t>up_12m_trans_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近12个月交易笔数</t>
+  </si>
+  <si>
+    <t>up_12m_withdraw_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近12个月取现交易笔数</t>
+  </si>
+  <si>
+    <t>up_12m_online_trans_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近12个月线上交易笔数</t>
+  </si>
+  <si>
+    <t>up_12m_worktime_trans_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近12个月工作日的工作时间交易笔数</t>
+  </si>
+  <si>
+    <t>up_12m_consume_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近12个月消费笔数</t>
+  </si>
+  <si>
+    <t>up_1m_fail_trans_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近一个月所有失败交易笔数</t>
+  </si>
+  <si>
+    <t>up_1m_fail_trans_amt</t>
+  </si>
+  <si>
+    <t>银联智策_近一个月所有失败交易金额</t>
+  </si>
+  <si>
+    <t>up_1m_fail_trans_days</t>
+  </si>
+  <si>
+    <t>银联智策_近一个月所有失败交易天数</t>
+  </si>
+  <si>
+    <t>up_3m_fail_trans_amt</t>
+  </si>
+  <si>
+    <t>银联智策_近三个月所有失败交易金额</t>
+  </si>
+  <si>
+    <t>up_6m_fail_trans_days</t>
+  </si>
+  <si>
+    <t>银联智策_近六个月所有失败交易天数</t>
+  </si>
+  <si>
+    <t>up_1m_query_days</t>
+  </si>
+  <si>
+    <t>银联智策_近一个月查询天数</t>
+  </si>
+  <si>
+    <t>up_1m_shortofmoney_days</t>
+  </si>
+  <si>
+    <t>银联智策_近一个月资金不足天数</t>
+  </si>
+  <si>
+    <t>up_6m_shortofmoney_days</t>
+  </si>
+  <si>
+    <t>银联智策_近六个月资金不足天数</t>
+  </si>
+  <si>
+    <t>up_6m_shortofmoney_merchants</t>
+  </si>
+  <si>
+    <t>银联智策_近六个月发生资金不足交易商户数</t>
+  </si>
+  <si>
+    <t>up_6m_wrongpassword_cnt</t>
+  </si>
+  <si>
+    <t>银联智策_近六个月密码错误笔数</t>
+  </si>
+  <si>
+    <t>br_scorecust_1</t>
+  </si>
+  <si>
+    <t>百融_客制化评分_线上现金分期_1</t>
+  </si>
+  <si>
+    <t>mz_maas_mozhi_modeling_1</t>
+  </si>
+  <si>
+    <t>墨智_云真信_定制分</t>
   </si>
   <si>
     <t>uid</t>
@@ -2675,12 +2888,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2696,8 +2909,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2732,14 +2945,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2754,14 +2968,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2775,36 +3004,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2814,10 +3013,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2829,32 +3035,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2875,10 +3058,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2888,7 +3095,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2897,13 +3104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB8D00"/>
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2945,13 +3146,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2963,7 +3164,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2975,13 +3188,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2993,7 +3206,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3005,55 +3314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3065,84 +3332,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3166,11 +3361,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C7D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C7D0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3205,15 +3424,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3225,15 +3435,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3263,167 +3464,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3441,16 +3666,13 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3459,71 +3681,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3800,192 +4020,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.8125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="32.5625" style="18" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="30.8125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="32.5625" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4014,27 +4234,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>410</v>
+        <v>481</v>
       </c>
       <c r="C1" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>412</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="D2" s="1">
         <v>13354882205</v>
@@ -4042,13 +4262,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>417</v>
+        <v>488</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>489</v>
       </c>
       <c r="D3" s="1">
         <v>13354882201</v>
@@ -4056,13 +4276,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>490</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>417</v>
+        <v>488</v>
       </c>
       <c r="C4" t="s">
-        <v>418</v>
+        <v>489</v>
       </c>
       <c r="D4" s="1">
         <v>13354882201</v>
@@ -4070,13 +4290,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>491</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>421</v>
+        <v>492</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>493</v>
       </c>
       <c r="D5" s="1">
         <v>17759218006</v>
@@ -4084,13 +4304,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>424</v>
+        <v>495</v>
       </c>
       <c r="C6" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
       <c r="D6" s="1">
         <v>13354882211</v>
@@ -4098,13 +4318,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="C7" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="D7" s="1">
         <v>13354882311</v>
@@ -4112,13 +4332,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="C8" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="D8" s="1">
         <v>13354882311</v>
@@ -4126,13 +4346,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="D9" s="1">
         <v>13354882314</v>
@@ -4140,13 +4360,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="C10" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="D10" s="1">
         <v>13221397387</v>
@@ -4154,13 +4374,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>435</v>
+        <v>506</v>
       </c>
       <c r="C11" t="s">
-        <v>436</v>
+        <v>507</v>
       </c>
       <c r="D11" s="1">
         <v>15221397386</v>
@@ -4168,13 +4388,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>437</v>
+        <v>508</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>438</v>
+        <v>509</v>
       </c>
       <c r="C12" t="s">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="D12" s="1">
         <v>13221397389</v>
@@ -4182,13 +4402,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>511</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="D13" s="1">
         <v>13221397321</v>
@@ -4196,13 +4416,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>443</v>
+        <v>514</v>
       </c>
       <c r="C14" t="s">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="D14" s="1">
         <v>13211397321</v>
@@ -4210,13 +4430,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>515</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>445</v>
+        <v>516</v>
       </c>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="D15" s="1">
         <v>13211397321</v>
@@ -4224,13 +4444,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>447</v>
+        <v>518</v>
       </c>
       <c r="C16" t="s">
-        <v>448</v>
+        <v>519</v>
       </c>
       <c r="D16" s="1">
         <v>15823160024</v>
@@ -4238,13 +4458,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>520</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="C17" t="s">
-        <v>451</v>
+        <v>522</v>
       </c>
       <c r="D17" s="1">
         <v>17782032134</v>
@@ -4252,13 +4472,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>523</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
       <c r="C18" t="s">
-        <v>454</v>
+        <v>525</v>
       </c>
       <c r="D18" s="1">
         <v>15506711704</v>
@@ -4266,13 +4486,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>455</v>
+        <v>526</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="C19" t="s">
-        <v>457</v>
+        <v>528</v>
       </c>
       <c r="D19" s="1">
         <v>15707028732</v>
@@ -4280,13 +4500,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>529</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>531</v>
       </c>
       <c r="D20" s="1">
         <v>13800506210</v>
@@ -4294,13 +4514,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="C21" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="D21" s="1">
         <v>15507995091</v>
@@ -4308,13 +4528,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
       <c r="C22" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="D22" s="1">
         <v>13600040945</v>
@@ -4322,13 +4542,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>467</v>
+        <v>538</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="C23" t="s">
-        <v>469</v>
+        <v>540</v>
       </c>
       <c r="D23" s="1">
         <v>15602198205</v>
@@ -4336,13 +4556,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>470</v>
+        <v>541</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="C24" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="D24" s="1">
         <v>15104101297</v>
@@ -4350,13 +4570,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="C25" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="D25" s="1">
         <v>13200748991</v>
@@ -4364,13 +4584,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="C26" t="s">
-        <v>478</v>
+        <v>549</v>
       </c>
       <c r="D26" s="1">
         <v>13100103762</v>
@@ -4378,13 +4598,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="C27" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="D27" s="1">
         <v>15204111720</v>
@@ -4392,13 +4612,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="C28" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="D28" s="1">
         <v>15805214306</v>
@@ -4406,13 +4626,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>486</v>
+        <v>557</v>
       </c>
       <c r="C29" t="s">
-        <v>487</v>
+        <v>558</v>
       </c>
       <c r="D29" s="1">
         <v>15904714725</v>
@@ -4420,13 +4640,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>489</v>
+        <v>560</v>
       </c>
       <c r="C30" t="s">
-        <v>490</v>
+        <v>561</v>
       </c>
       <c r="D30" s="1">
         <v>13702193073</v>
@@ -4434,13 +4654,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>491</v>
+        <v>562</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>492</v>
+        <v>563</v>
       </c>
       <c r="C31" t="s">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="D31" s="1">
         <v>13401406367</v>
@@ -4448,13 +4668,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="C32" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="D32" s="1">
         <v>15101889089</v>
@@ -4462,13 +4682,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>498</v>
+        <v>569</v>
       </c>
       <c r="C33" t="s">
-        <v>499</v>
+        <v>570</v>
       </c>
       <c r="D33" s="1">
         <v>15502872138</v>
@@ -4476,13 +4696,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="C34" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
       <c r="D34" s="1">
         <v>13705724350</v>
@@ -4490,13 +4710,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>504</v>
+        <v>575</v>
       </c>
       <c r="C35" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
       <c r="D35" s="1">
         <v>15102141524</v>
@@ -4504,13 +4724,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
       <c r="C36" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="D36" s="1">
         <v>13703394870</v>
@@ -4518,13 +4738,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>510</v>
+        <v>581</v>
       </c>
       <c r="C37" t="s">
-        <v>511</v>
+        <v>582</v>
       </c>
       <c r="D37" s="1">
         <v>15112341235</v>
@@ -4532,13 +4752,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="C38" t="s">
-        <v>514</v>
+        <v>585</v>
       </c>
       <c r="D38" s="1">
         <v>15112341236</v>
@@ -4546,13 +4766,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>516</v>
+        <v>587</v>
       </c>
       <c r="C39" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="D39" s="1">
         <v>15112341237</v>
@@ -4560,13 +4780,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>518</v>
+        <v>589</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>519</v>
+        <v>590</v>
       </c>
       <c r="C40" t="s">
-        <v>520</v>
+        <v>591</v>
       </c>
       <c r="D40" s="1">
         <v>15204111728</v>
@@ -4574,13 +4794,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>521</v>
+        <v>592</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>522</v>
+        <v>593</v>
       </c>
       <c r="C41" t="s">
-        <v>523</v>
+        <v>594</v>
       </c>
       <c r="D41" s="1">
         <v>15204111728</v>
@@ -4588,13 +4808,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>524</v>
+        <v>595</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>525</v>
+        <v>596</v>
       </c>
       <c r="C42" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="D42" s="1">
         <v>15204111728</v>
@@ -4602,13 +4822,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>527</v>
+        <v>598</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>528</v>
+        <v>599</v>
       </c>
       <c r="C43" t="s">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="D43" s="1">
         <v>15903620690</v>
@@ -4616,13 +4836,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>530</v>
+        <v>601</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="C44" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="D44" s="1">
         <v>15905907727</v>
@@ -4630,13 +4850,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="C45" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="D45" s="1">
         <v>13307094103</v>
@@ -4644,13 +4864,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="C46" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="D46" s="1">
         <v>15004666735</v>
@@ -4658,13 +4878,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="C47" t="s">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="D47" s="1">
         <v>15808715063</v>
@@ -4672,13 +4892,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>543</v>
+        <v>614</v>
       </c>
       <c r="C48" t="s">
-        <v>544</v>
+        <v>615</v>
       </c>
       <c r="D48" s="1">
         <v>13412345678</v>
@@ -4686,13 +4906,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>546</v>
+        <v>617</v>
       </c>
       <c r="C49" t="s">
-        <v>547</v>
+        <v>618</v>
       </c>
       <c r="D49" s="1">
         <v>13605677104</v>
@@ -4700,13 +4920,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>548</v>
+        <v>619</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="C50" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
       <c r="D50" s="1">
         <v>13503968499</v>
@@ -4714,13 +4934,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="C51" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="D51" s="1">
         <v>13001874370</v>
@@ -4728,13 +4948,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="C52" t="s">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="D52" s="1">
         <v>15507375265</v>
@@ -4742,13 +4962,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>557</v>
+        <v>628</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>558</v>
+        <v>629</v>
       </c>
       <c r="C53" t="s">
-        <v>559</v>
+        <v>630</v>
       </c>
       <c r="D53" s="1">
         <v>15508122382</v>
@@ -4756,13 +4976,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="C54" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="D54" s="1">
         <v>15905840325</v>
@@ -4770,13 +4990,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="C55" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="D55" s="1">
         <v>15204111728</v>
@@ -4784,13 +5004,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
       <c r="C56" t="s">
-        <v>568</v>
+        <v>639</v>
       </c>
       <c r="D56" s="1">
         <v>15204111728</v>
@@ -4798,13 +5018,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="C57" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
       <c r="D57" s="1">
         <v>15204111728</v>
@@ -4812,13 +5032,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="C58" t="s">
-        <v>574</v>
+        <v>645</v>
       </c>
       <c r="D58" s="1">
         <v>15204111728</v>
@@ -4826,13 +5046,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>576</v>
+        <v>647</v>
       </c>
       <c r="C59" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="D59" s="1">
         <v>15204111728</v>
@@ -4840,13 +5060,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
       <c r="C60" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
       <c r="D60" s="1">
         <v>15204111728</v>
@@ -4854,13 +5074,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="C61" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
       <c r="D61" s="1">
         <v>15204111728</v>
@@ -4868,13 +5088,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="C62" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
       <c r="D62" s="1">
         <v>15204111728</v>
@@ -4882,13 +5102,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="C63" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="D63" s="1">
         <v>15204111728</v>
@@ -4896,13 +5116,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="C64" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="D64" s="1">
         <v>15204111728</v>
@@ -4910,13 +5130,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="C65" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="D65" s="1">
         <v>15204111728</v>
@@ -4924,13 +5144,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="C66" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="D66" s="1">
         <v>15204111728</v>
@@ -4938,13 +5158,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="C67" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="D67" s="1">
         <v>15204111728</v>
@@ -4952,13 +5172,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>603</v>
+        <v>674</v>
       </c>
       <c r="C68" t="s">
-        <v>604</v>
+        <v>675</v>
       </c>
       <c r="D68" s="1">
         <v>15208418800</v>
@@ -4966,13 +5186,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>606</v>
+        <v>677</v>
       </c>
       <c r="C69" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="D69" s="1">
         <v>15101796616</v>
@@ -4980,13 +5200,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="C70" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="D70" s="1">
         <v>13704165202</v>
@@ -4994,13 +5214,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="C71" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="D71" s="1">
         <v>13808393694</v>
@@ -5008,13 +5228,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="C72" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
       <c r="D72" s="1">
         <v>15106690895</v>
@@ -5022,13 +5242,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="C73" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="D73" s="1">
         <v>15204111728</v>
@@ -5036,13 +5256,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="C74" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="D74" s="1">
         <v>15204111728</v>
@@ -5050,13 +5270,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="C75" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="D75" s="1">
         <v>13402160975</v>
@@ -5064,13 +5284,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="C76" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
       <c r="D76" s="1">
         <v>15904918614</v>
@@ -5078,13 +5298,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>629</v>
+        <v>700</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>630</v>
+        <v>701</v>
       </c>
       <c r="C77" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="D77" s="1">
         <v>15203628409</v>
@@ -5092,13 +5312,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>633</v>
+        <v>704</v>
       </c>
       <c r="C78" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="D78" s="1">
         <v>13403383393</v>
@@ -5106,13 +5326,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>636</v>
+        <v>707</v>
       </c>
       <c r="C79" t="s">
-        <v>637</v>
+        <v>708</v>
       </c>
       <c r="D79" s="1">
         <v>15204111728</v>
@@ -5120,13 +5340,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>638</v>
+        <v>709</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>639</v>
+        <v>710</v>
       </c>
       <c r="C80" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="D80" s="1">
         <v>15204111728</v>
@@ -5134,13 +5354,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>642</v>
+        <v>713</v>
       </c>
       <c r="C81" t="s">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="D81" s="1">
         <v>15900335093</v>
@@ -5148,13 +5368,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>644</v>
+        <v>715</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>645</v>
+        <v>716</v>
       </c>
       <c r="C82" t="s">
-        <v>646</v>
+        <v>717</v>
       </c>
       <c r="D82" s="1">
         <v>13302897169</v>
@@ -5162,13 +5382,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>647</v>
+        <v>718</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>648</v>
+        <v>719</v>
       </c>
       <c r="C83" t="s">
-        <v>649</v>
+        <v>720</v>
       </c>
       <c r="D83" s="1">
         <v>13900783844</v>
@@ -5176,13 +5396,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>650</v>
+        <v>721</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>651</v>
+        <v>722</v>
       </c>
       <c r="C84" t="s">
-        <v>652</v>
+        <v>723</v>
       </c>
       <c r="D84" s="1">
         <v>13507440212</v>
@@ -5190,13 +5410,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>653</v>
+        <v>724</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>654</v>
+        <v>725</v>
       </c>
       <c r="C85" t="s">
-        <v>655</v>
+        <v>726</v>
       </c>
       <c r="D85" s="1">
         <v>13000247340</v>
@@ -5204,13 +5424,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>656</v>
+        <v>727</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>657</v>
+        <v>728</v>
       </c>
       <c r="C86" t="s">
-        <v>658</v>
+        <v>729</v>
       </c>
       <c r="D86" s="1">
         <v>13905594991</v>
@@ -5218,13 +5438,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>659</v>
+        <v>730</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>660</v>
+        <v>731</v>
       </c>
       <c r="C87" t="s">
-        <v>661</v>
+        <v>732</v>
       </c>
       <c r="D87" s="1">
         <v>15816397386</v>
@@ -5232,13 +5452,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>662</v>
+        <v>733</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>663</v>
+        <v>734</v>
       </c>
       <c r="C88" t="s">
-        <v>664</v>
+        <v>735</v>
       </c>
       <c r="D88" s="1">
         <v>15107742646</v>
@@ -5246,13 +5466,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>665</v>
+        <v>736</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>666</v>
+        <v>737</v>
       </c>
       <c r="C89" t="s">
-        <v>667</v>
+        <v>738</v>
       </c>
       <c r="D89" s="1">
         <v>15204111728</v>
@@ -5260,13 +5480,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>668</v>
+        <v>739</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>669</v>
+        <v>740</v>
       </c>
       <c r="C90" t="s">
-        <v>670</v>
+        <v>741</v>
       </c>
       <c r="D90" s="1">
         <v>15501975011</v>
@@ -5274,13 +5494,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>671</v>
+        <v>742</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>672</v>
+        <v>743</v>
       </c>
       <c r="C91" t="s">
-        <v>673</v>
+        <v>744</v>
       </c>
       <c r="D91" s="1">
         <v>13802242845</v>
@@ -5288,13 +5508,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>674</v>
+        <v>745</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>675</v>
+        <v>746</v>
       </c>
       <c r="C92" t="s">
-        <v>676</v>
+        <v>747</v>
       </c>
       <c r="D92" s="1">
         <v>15208018001</v>
@@ -5302,13 +5522,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>677</v>
+        <v>748</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>678</v>
+        <v>749</v>
       </c>
       <c r="C93" t="s">
-        <v>679</v>
+        <v>750</v>
       </c>
       <c r="D93" s="1">
         <v>13300034880</v>
@@ -5316,13 +5536,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>680</v>
+        <v>751</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>681</v>
+        <v>752</v>
       </c>
       <c r="C94" t="s">
-        <v>682</v>
+        <v>753</v>
       </c>
       <c r="D94" s="1">
         <v>15204111728</v>
@@ -5330,13 +5550,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>683</v>
+        <v>754</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>684</v>
+        <v>755</v>
       </c>
       <c r="C95" t="s">
-        <v>685</v>
+        <v>756</v>
       </c>
       <c r="D95" s="1">
         <v>13503703167</v>
@@ -5344,13 +5564,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>686</v>
+        <v>757</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>687</v>
+        <v>758</v>
       </c>
       <c r="C96" t="s">
-        <v>688</v>
+        <v>759</v>
       </c>
       <c r="D96" s="1">
         <v>13600791914</v>
@@ -5358,13 +5578,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>689</v>
+        <v>760</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>690</v>
+        <v>761</v>
       </c>
       <c r="C97" t="s">
-        <v>691</v>
+        <v>762</v>
       </c>
       <c r="D97" s="1">
         <v>13603434179</v>
@@ -5372,13 +5592,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>692</v>
+        <v>763</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>693</v>
+        <v>764</v>
       </c>
       <c r="C98" t="s">
-        <v>694</v>
+        <v>765</v>
       </c>
       <c r="D98" s="1">
         <v>13412345679</v>
@@ -5386,13 +5606,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>695</v>
+        <v>766</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>696</v>
+        <v>767</v>
       </c>
       <c r="C99" t="s">
-        <v>694</v>
+        <v>765</v>
       </c>
       <c r="D99" s="1">
         <v>13412345680</v>
@@ -5400,13 +5620,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>697</v>
+        <v>768</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>698</v>
+        <v>769</v>
       </c>
       <c r="C100" t="s">
-        <v>699</v>
+        <v>770</v>
       </c>
       <c r="D100" s="1">
         <v>13412345681</v>
@@ -5414,13 +5634,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>700</v>
+        <v>771</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>701</v>
+        <v>772</v>
       </c>
       <c r="C101" t="s">
-        <v>702</v>
+        <v>773</v>
       </c>
       <c r="D101" s="1">
         <v>17783470510</v>
@@ -5428,13 +5648,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>703</v>
+        <v>774</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>704</v>
+        <v>775</v>
       </c>
       <c r="C102" t="s">
-        <v>705</v>
+        <v>776</v>
       </c>
       <c r="D102" s="1">
         <v>18978654645</v>
@@ -5442,13 +5662,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>706</v>
+        <v>777</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>707</v>
+        <v>778</v>
       </c>
       <c r="C103" t="s">
-        <v>708</v>
+        <v>779</v>
       </c>
       <c r="D103" s="1">
         <v>13211112222</v>
@@ -5456,13 +5676,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>709</v>
+        <v>780</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>710</v>
+        <v>781</v>
       </c>
       <c r="C104" t="s">
-        <v>711</v>
+        <v>782</v>
       </c>
       <c r="D104" s="1">
         <v>15204111728</v>
@@ -5470,13 +5690,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>712</v>
+        <v>783</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>713</v>
+        <v>784</v>
       </c>
       <c r="C105" t="s">
-        <v>714</v>
+        <v>785</v>
       </c>
       <c r="D105" s="1">
         <v>15601590396</v>
@@ -5484,13 +5704,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>715</v>
+        <v>786</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>716</v>
+        <v>787</v>
       </c>
       <c r="C106" t="s">
-        <v>717</v>
+        <v>788</v>
       </c>
       <c r="D106" s="1">
         <v>13805663444</v>
@@ -5498,13 +5718,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>718</v>
+        <v>789</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>719</v>
+        <v>790</v>
       </c>
       <c r="C107" t="s">
-        <v>720</v>
+        <v>791</v>
       </c>
       <c r="D107" s="1">
         <v>13603605108</v>
@@ -5512,13 +5732,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>721</v>
+        <v>792</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>722</v>
+        <v>793</v>
       </c>
       <c r="C108" t="s">
-        <v>723</v>
+        <v>794</v>
       </c>
       <c r="D108" s="1">
         <v>15607157585</v>
@@ -5526,13 +5746,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>724</v>
+        <v>795</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>725</v>
+        <v>796</v>
       </c>
       <c r="C109" t="s">
-        <v>726</v>
+        <v>797</v>
       </c>
       <c r="D109" s="1">
         <v>15205006891</v>
@@ -5540,13 +5760,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>727</v>
+        <v>798</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>728</v>
+        <v>799</v>
       </c>
       <c r="C110" t="s">
-        <v>729</v>
+        <v>800</v>
       </c>
       <c r="D110" s="1">
         <v>15302973973</v>
@@ -5554,13 +5774,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>730</v>
+        <v>801</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>731</v>
+        <v>802</v>
       </c>
       <c r="C111" t="s">
-        <v>732</v>
+        <v>803</v>
       </c>
       <c r="D111" s="1">
         <v>15204111728</v>
@@ -5568,13 +5788,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>733</v>
+        <v>804</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>734</v>
+        <v>805</v>
       </c>
       <c r="C112" t="s">
-        <v>735</v>
+        <v>806</v>
       </c>
       <c r="D112" s="1">
         <v>15204111728</v>
@@ -5582,13 +5802,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>737</v>
+        <v>808</v>
       </c>
       <c r="C113" t="s">
-        <v>738</v>
+        <v>809</v>
       </c>
       <c r="D113" s="1">
         <v>15204111728</v>
@@ -5596,13 +5816,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>739</v>
+        <v>810</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>740</v>
+        <v>811</v>
       </c>
       <c r="C114" t="s">
-        <v>741</v>
+        <v>812</v>
       </c>
       <c r="D114" s="1">
         <v>15204111728</v>
@@ -5610,13 +5830,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>742</v>
+        <v>813</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>743</v>
+        <v>814</v>
       </c>
       <c r="C115" t="s">
-        <v>744</v>
+        <v>815</v>
       </c>
       <c r="D115" s="1">
         <v>15204111728</v>
@@ -5624,13 +5844,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>745</v>
+        <v>816</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>746</v>
+        <v>817</v>
       </c>
       <c r="C116" t="s">
-        <v>747</v>
+        <v>818</v>
       </c>
       <c r="D116" s="1">
         <v>15204111728</v>
@@ -5638,13 +5858,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>748</v>
+        <v>819</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>749</v>
+        <v>820</v>
       </c>
       <c r="C117" t="s">
-        <v>750</v>
+        <v>821</v>
       </c>
       <c r="D117" s="1">
         <v>15204111728</v>
@@ -5652,13 +5872,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>751</v>
+        <v>822</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>752</v>
+        <v>823</v>
       </c>
       <c r="C118" t="s">
-        <v>753</v>
+        <v>824</v>
       </c>
       <c r="D118" s="1">
         <v>15204111728</v>
@@ -5666,13 +5886,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>754</v>
+        <v>825</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>755</v>
+        <v>826</v>
       </c>
       <c r="C119" t="s">
-        <v>756</v>
+        <v>827</v>
       </c>
       <c r="D119" s="1">
         <v>15204111728</v>
@@ -5680,13 +5900,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>757</v>
+        <v>828</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>758</v>
+        <v>829</v>
       </c>
       <c r="C120" t="s">
-        <v>759</v>
+        <v>830</v>
       </c>
       <c r="D120" s="1">
         <v>15204111728</v>
@@ -5694,13 +5914,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>760</v>
+        <v>831</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>761</v>
+        <v>832</v>
       </c>
       <c r="C121" t="s">
-        <v>762</v>
+        <v>833</v>
       </c>
       <c r="D121" s="1">
         <v>15204111728</v>
@@ -5708,13 +5928,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>763</v>
+        <v>834</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>764</v>
+        <v>835</v>
       </c>
       <c r="C122" t="s">
-        <v>765</v>
+        <v>836</v>
       </c>
       <c r="D122" s="1">
         <v>15204111728</v>
@@ -5722,13 +5942,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>766</v>
+        <v>837</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>767</v>
+        <v>838</v>
       </c>
       <c r="C123" t="s">
-        <v>768</v>
+        <v>839</v>
       </c>
       <c r="D123" s="1">
         <v>15200315886</v>
@@ -5736,13 +5956,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>769</v>
+        <v>840</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>770</v>
+        <v>841</v>
       </c>
       <c r="C124" t="s">
-        <v>771</v>
+        <v>842</v>
       </c>
       <c r="D124" s="1">
         <v>15204111728</v>
@@ -5750,13 +5970,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>772</v>
+        <v>843</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="C125" t="s">
-        <v>774</v>
+        <v>845</v>
       </c>
       <c r="D125" s="1">
         <v>15204111728</v>
@@ -5764,13 +5984,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>775</v>
+        <v>846</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>776</v>
+        <v>847</v>
       </c>
       <c r="C126" t="s">
-        <v>777</v>
+        <v>848</v>
       </c>
       <c r="D126" s="1">
         <v>15204111728</v>
@@ -5778,13 +5998,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>778</v>
+        <v>849</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>779</v>
+        <v>850</v>
       </c>
       <c r="C127" t="s">
-        <v>780</v>
+        <v>851</v>
       </c>
       <c r="D127" s="1">
         <v>15204111728</v>
@@ -5792,13 +6012,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>781</v>
+        <v>852</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>782</v>
+        <v>853</v>
       </c>
       <c r="C128" t="s">
-        <v>783</v>
+        <v>854</v>
       </c>
       <c r="D128" s="1">
         <v>15204111728</v>
@@ -5806,13 +6026,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>784</v>
+        <v>855</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>785</v>
+        <v>856</v>
       </c>
       <c r="C129" t="s">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="D129" s="1">
         <v>15204111728</v>
@@ -5820,13 +6040,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>787</v>
+        <v>858</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>788</v>
+        <v>859</v>
       </c>
       <c r="C130" t="s">
-        <v>789</v>
+        <v>860</v>
       </c>
       <c r="D130" s="1">
         <v>15003501641</v>
@@ -5834,13 +6054,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>790</v>
+        <v>861</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>791</v>
+        <v>862</v>
       </c>
       <c r="C131" t="s">
-        <v>792</v>
+        <v>863</v>
       </c>
       <c r="D131" s="1">
         <v>15204111728</v>
@@ -5848,13 +6068,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>793</v>
+        <v>864</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>794</v>
+        <v>865</v>
       </c>
       <c r="C132" t="s">
-        <v>795</v>
+        <v>866</v>
       </c>
       <c r="D132" s="1">
         <v>15204111728</v>
@@ -5862,13 +6082,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>796</v>
+        <v>867</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>797</v>
+        <v>868</v>
       </c>
       <c r="C133" t="s">
-        <v>798</v>
+        <v>869</v>
       </c>
       <c r="D133" s="1">
         <v>15504454303</v>
@@ -5876,13 +6096,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>799</v>
+        <v>870</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>800</v>
+        <v>871</v>
       </c>
       <c r="C134" t="s">
-        <v>801</v>
+        <v>872</v>
       </c>
       <c r="D134" s="1">
         <v>15204111728</v>
@@ -5890,13 +6110,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>802</v>
+        <v>873</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>803</v>
+        <v>874</v>
       </c>
       <c r="C135" t="s">
-        <v>804</v>
+        <v>875</v>
       </c>
       <c r="D135" s="1">
         <v>15204111728</v>
@@ -5904,13 +6124,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>805</v>
+        <v>876</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>806</v>
+        <v>877</v>
       </c>
       <c r="C136" t="s">
-        <v>807</v>
+        <v>878</v>
       </c>
       <c r="D136" s="1">
         <v>13205610246</v>
@@ -5918,13 +6138,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>808</v>
+        <v>879</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>809</v>
+        <v>880</v>
       </c>
       <c r="C137" t="s">
-        <v>810</v>
+        <v>881</v>
       </c>
       <c r="D137" s="1">
         <v>15204111728</v>
@@ -5932,13 +6152,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>811</v>
+        <v>882</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>812</v>
+        <v>883</v>
       </c>
       <c r="C138" t="s">
-        <v>813</v>
+        <v>884</v>
       </c>
       <c r="D138" s="1">
         <v>15204111728</v>
@@ -5946,13 +6166,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>814</v>
+        <v>885</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>815</v>
+        <v>886</v>
       </c>
       <c r="C139" t="s">
-        <v>816</v>
+        <v>887</v>
       </c>
       <c r="D139" s="1">
         <v>15204111728</v>
@@ -5960,13 +6180,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>817</v>
+        <v>888</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>818</v>
+        <v>889</v>
       </c>
       <c r="C140" t="s">
-        <v>819</v>
+        <v>890</v>
       </c>
       <c r="D140" s="1">
         <v>15204111728</v>
@@ -5974,13 +6194,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>820</v>
+        <v>891</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>821</v>
+        <v>892</v>
       </c>
       <c r="C141" t="s">
-        <v>822</v>
+        <v>893</v>
       </c>
       <c r="D141" s="1">
         <v>15204111728</v>
@@ -5988,13 +6208,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>823</v>
+        <v>894</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>824</v>
+        <v>895</v>
       </c>
       <c r="C142" t="s">
-        <v>825</v>
+        <v>896</v>
       </c>
       <c r="D142" s="1">
         <v>15204111728</v>
@@ -6002,13 +6222,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>826</v>
+        <v>897</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>827</v>
+        <v>898</v>
       </c>
       <c r="C143" t="s">
-        <v>828</v>
+        <v>899</v>
       </c>
       <c r="D143" s="1">
         <v>15204111728</v>
@@ -6016,13 +6236,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>829</v>
+        <v>900</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>830</v>
+        <v>901</v>
       </c>
       <c r="C144" t="s">
-        <v>831</v>
+        <v>902</v>
       </c>
       <c r="D144" s="1">
         <v>13808547122</v>
@@ -6030,13 +6250,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>832</v>
+        <v>903</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>833</v>
+        <v>904</v>
       </c>
       <c r="C145" t="s">
-        <v>834</v>
+        <v>905</v>
       </c>
       <c r="D145" s="1">
         <v>15434643235</v>
@@ -6044,13 +6264,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>835</v>
+        <v>906</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>704</v>
+        <v>775</v>
       </c>
       <c r="C146" t="s">
-        <v>705</v>
+        <v>776</v>
       </c>
       <c r="D146" s="1">
         <v>15832649835</v>
@@ -6058,13 +6278,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>836</v>
+        <v>907</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>837</v>
+        <v>908</v>
       </c>
       <c r="C147" t="s">
-        <v>705</v>
+        <v>776</v>
       </c>
       <c r="D147" s="1">
         <v>15832649835</v>
@@ -6072,13 +6292,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>838</v>
+        <v>909</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>837</v>
+        <v>908</v>
       </c>
       <c r="C148" t="s">
-        <v>705</v>
+        <v>776</v>
       </c>
       <c r="D148" s="1">
         <v>15832649835</v>
@@ -6086,13 +6306,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>839</v>
+        <v>910</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>840</v>
+        <v>911</v>
       </c>
       <c r="C149" t="s">
-        <v>841</v>
+        <v>912</v>
       </c>
       <c r="D149" s="1">
         <v>18678654546</v>
@@ -6100,13 +6320,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>842</v>
+        <v>913</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>843</v>
+        <v>914</v>
       </c>
       <c r="C150" t="s">
-        <v>844</v>
+        <v>915</v>
       </c>
       <c r="D150" s="1">
         <v>13906978877</v>
@@ -6114,13 +6334,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>845</v>
+        <v>916</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>846</v>
+        <v>917</v>
       </c>
       <c r="C151" t="s">
-        <v>847</v>
+        <v>918</v>
       </c>
       <c r="D151" s="1">
         <v>13202830341</v>
@@ -6128,13 +6348,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>848</v>
+        <v>919</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>849</v>
+        <v>920</v>
       </c>
       <c r="C152" t="s">
-        <v>850</v>
+        <v>921</v>
       </c>
       <c r="D152" s="1">
         <v>15801348239</v>
@@ -6142,13 +6362,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>851</v>
+        <v>922</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>852</v>
+        <v>923</v>
       </c>
       <c r="C153" t="s">
-        <v>853</v>
+        <v>924</v>
       </c>
       <c r="D153" s="1">
         <v>13004027080</v>
@@ -6156,13 +6376,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>854</v>
+        <v>925</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>855</v>
+        <v>926</v>
       </c>
       <c r="C154" t="s">
-        <v>856</v>
+        <v>927</v>
       </c>
       <c r="D154" s="1">
         <v>15502483887</v>
@@ -6170,13 +6390,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>857</v>
+        <v>928</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>858</v>
+        <v>929</v>
       </c>
       <c r="C155" t="s">
-        <v>859</v>
+        <v>930</v>
       </c>
       <c r="D155" s="1">
         <v>13102633437</v>
@@ -6184,13 +6404,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>860</v>
+        <v>931</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>861</v>
+        <v>932</v>
       </c>
       <c r="C156" t="s">
-        <v>708</v>
+        <v>779</v>
       </c>
       <c r="D156" s="1">
         <v>15112341238</v>
@@ -6198,13 +6418,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>862</v>
+        <v>933</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>863</v>
+        <v>934</v>
       </c>
       <c r="C157" t="s">
-        <v>864</v>
+        <v>935</v>
       </c>
       <c r="D157" s="1">
         <v>15247682183</v>
@@ -6212,13 +6432,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>865</v>
+        <v>936</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>866</v>
+        <v>937</v>
       </c>
       <c r="C158" t="s">
-        <v>867</v>
+        <v>938</v>
       </c>
       <c r="D158" s="1">
         <v>15841682583</v>
@@ -6235,7 +6455,7 @@
   <sheetPr/>
   <dimension ref="A1:A158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -6246,792 +6466,792 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>437</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>444</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>455</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>467</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>470</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>491</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>518</v>
+        <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>521</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>524</v>
+        <v>595</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>527</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>530</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>545</v>
+        <v>616</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>548</v>
+        <v>619</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>557</v>
+        <v>628</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>608</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>629</v>
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>638</v>
+        <v>709</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>641</v>
+        <v>712</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>644</v>
+        <v>715</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>647</v>
+        <v>718</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>650</v>
+        <v>721</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>653</v>
+        <v>724</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>656</v>
+        <v>727</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>659</v>
+        <v>730</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>662</v>
+        <v>733</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>665</v>
+        <v>736</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>668</v>
+        <v>739</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>671</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>674</v>
+        <v>745</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>677</v>
+        <v>748</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>680</v>
+        <v>751</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>683</v>
+        <v>754</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>686</v>
+        <v>757</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>689</v>
+        <v>760</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>692</v>
+        <v>763</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>695</v>
+        <v>766</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>697</v>
+        <v>768</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>700</v>
+        <v>771</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>703</v>
+        <v>774</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>706</v>
+        <v>777</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>709</v>
+        <v>780</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>712</v>
+        <v>783</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>715</v>
+        <v>786</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>718</v>
+        <v>789</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>721</v>
+        <v>792</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>724</v>
+        <v>795</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>727</v>
+        <v>798</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>730</v>
+        <v>801</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>733</v>
+        <v>804</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>736</v>
+        <v>807</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>739</v>
+        <v>810</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>742</v>
+        <v>813</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>745</v>
+        <v>816</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>748</v>
+        <v>819</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>751</v>
+        <v>822</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>754</v>
+        <v>825</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>757</v>
+        <v>828</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>760</v>
+        <v>831</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>763</v>
+        <v>834</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>766</v>
+        <v>837</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>769</v>
+        <v>840</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>772</v>
+        <v>843</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>775</v>
+        <v>846</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>778</v>
+        <v>849</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>781</v>
+        <v>852</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>784</v>
+        <v>855</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>787</v>
+        <v>858</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>790</v>
+        <v>861</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>793</v>
+        <v>864</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>796</v>
+        <v>867</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>799</v>
+        <v>870</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>802</v>
+        <v>873</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>805</v>
+        <v>876</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>808</v>
+        <v>879</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>811</v>
+        <v>882</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>814</v>
+        <v>885</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>817</v>
+        <v>888</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>820</v>
+        <v>891</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>823</v>
+        <v>894</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>826</v>
+        <v>897</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>829</v>
+        <v>900</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>832</v>
+        <v>903</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>835</v>
+        <v>906</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>836</v>
+        <v>907</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>838</v>
+        <v>909</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>839</v>
+        <v>910</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>842</v>
+        <v>913</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>845</v>
+        <v>916</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>848</v>
+        <v>919</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>851</v>
+        <v>922</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>854</v>
+        <v>925</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>857</v>
+        <v>928</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>860</v>
+        <v>931</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>862</v>
+        <v>933</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>865</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -7067,7 +7287,7 @@
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7075,7 +7295,7 @@
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7083,7 +7303,7 @@
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7091,7 +7311,7 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="25" t="s">
         <v>54</v>
       </c>
     </row>
@@ -7099,7 +7319,7 @@
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7107,7 +7327,7 @@
       <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7115,7 +7335,7 @@
       <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7123,7 +7343,7 @@
       <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7131,7 +7351,7 @@
       <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7139,7 +7359,7 @@
       <c r="A11" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7147,7 +7367,7 @@
       <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7155,7 +7375,7 @@
       <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -7163,7 +7383,7 @@
       <c r="A14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7171,7 +7391,7 @@
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7179,7 +7399,7 @@
       <c r="A16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7187,7 +7407,7 @@
       <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>78</v>
       </c>
     </row>
@@ -7195,7 +7415,7 @@
       <c r="A18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7203,7 +7423,7 @@
       <c r="A19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -7211,7 +7431,7 @@
       <c r="A20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -7219,7 +7439,7 @@
       <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="25" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7253,266 +7473,266 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="23" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="23" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="23" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="23" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="23" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="23" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="23" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="23" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="23" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="23" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="23" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="23" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="23" t="s">
         <v>152</v>
       </c>
     </row>
@@ -7623,7 +7843,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>165</v>
       </c>
       <c r="B2" t="s">
@@ -7631,7 +7851,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>167</v>
       </c>
       <c r="B3" t="s">
@@ -7639,7 +7859,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>169</v>
       </c>
       <c r="B4" t="s">
@@ -7647,7 +7867,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>171</v>
       </c>
       <c r="B5" t="s">
@@ -7655,7 +7875,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>173</v>
       </c>
       <c r="B6" t="s">
@@ -7663,7 +7883,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>175</v>
       </c>
       <c r="B7" t="s">
@@ -7671,7 +7891,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>177</v>
       </c>
       <c r="B8" t="s">
@@ -7679,7 +7899,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>179</v>
       </c>
       <c r="B9" t="s">
@@ -7687,7 +7907,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>181</v>
       </c>
       <c r="B10" t="s">
@@ -7695,7 +7915,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B11" t="s">
@@ -7703,7 +7923,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="21" t="s">
         <v>185</v>
       </c>
       <c r="B12" t="s">
@@ -7711,7 +7931,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="21" t="s">
         <v>187</v>
       </c>
       <c r="B13" t="s">
@@ -7719,7 +7939,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="21" t="s">
         <v>189</v>
       </c>
       <c r="B14" t="s">
@@ -7727,7 +7947,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="21" t="s">
         <v>191</v>
       </c>
       <c r="B15" t="s">
@@ -7735,7 +7955,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="21" t="s">
         <v>193</v>
       </c>
       <c r="B16" t="s">
@@ -7743,7 +7963,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="21" t="s">
         <v>195</v>
       </c>
       <c r="B17" t="s">
@@ -7751,7 +7971,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="21" t="s">
         <v>197</v>
       </c>
       <c r="B18" t="s">
@@ -7759,7 +7979,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="21" t="s">
         <v>199</v>
       </c>
       <c r="B19" t="s">
@@ -7767,7 +7987,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="20" t="s">
         <v>201</v>
       </c>
       <c r="B20" t="s">
@@ -7775,7 +7995,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>203</v>
       </c>
       <c r="B21" t="s">
@@ -7783,7 +8003,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>205</v>
       </c>
       <c r="B22" t="s">
@@ -7791,7 +8011,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="20" t="s">
         <v>207</v>
       </c>
       <c r="B23" t="s">
@@ -7799,7 +8019,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="20" t="s">
         <v>209</v>
       </c>
       <c r="B24" t="s">
@@ -7807,7 +8027,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>211</v>
       </c>
       <c r="B25" t="s">
@@ -7815,7 +8035,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B26" t="s">
@@ -7823,7 +8043,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="21" t="s">
         <v>215</v>
       </c>
       <c r="B27" t="s">
@@ -7831,7 +8051,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="20" t="s">
         <v>217</v>
       </c>
       <c r="B28" t="s">
@@ -7868,210 +8088,210 @@
       </c>
     </row>
     <row r="2" ht="18" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" ht="18" spans="1:2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" ht="18" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" ht="18" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" ht="18" spans="1:2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" ht="18" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" ht="18" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="18" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="18" ht="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="18" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="19" ht="18" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="18" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="20" ht="18" spans="1:2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="18" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="21" ht="18" spans="1:2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="18" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="23" ht="18" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="18" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="24" ht="18" spans="1:2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="18" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="25" ht="18" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="18" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="26" ht="18" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="18" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="27" ht="18" spans="1:2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="18" t="s">
         <v>240</v>
       </c>
     </row>
@@ -8105,202 +8325,202 @@
       </c>
     </row>
     <row r="2" ht="17" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" ht="17" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="6" ht="17" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="16" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="7" ht="34" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="16" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="8" ht="34" spans="1:2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="9" ht="34" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="16" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="16" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="12" ht="17" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="16" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="16" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="14" ht="17" spans="1:2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="16" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="16" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="16" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="17" ht="17" spans="1:2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="16" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="16" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="19" ht="17" spans="1:2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="20" ht="17" spans="1:2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="16" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="21" ht="17" spans="1:2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="16" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="16" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="16" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="16" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="16" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="16" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8334,114 +8554,114 @@
       </c>
     </row>
     <row r="2" ht="15" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>318</v>
       </c>
     </row>
@@ -8454,10 +8674,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -8499,7 +8719,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -8530,7 +8750,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" ht="28" spans="1:2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>333</v>
       </c>
@@ -8538,7 +8758,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" ht="14.75" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>335</v>
       </c>
@@ -8546,292 +8766,580 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+    <row r="11" ht="15.75" spans="1:2">
+      <c r="A11" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="12" ht="15.75" spans="1:2">
+      <c r="A12" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="1:2">
-      <c r="A13" s="3" t="s">
+    <row r="13" ht="15.75" spans="1:2">
+      <c r="A13" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="14" ht="28" spans="1:2">
-      <c r="A14" s="3" t="s">
+    <row r="14" ht="15.75" spans="1:2">
+      <c r="A14" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:2">
+      <c r="A15" s="5" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="15" ht="28" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="16" ht="15.75" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="16" ht="28" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="17" ht="15.75" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="17" ht="28" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="18" ht="15.75" spans="1:2">
+      <c r="A18" s="5" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="19" ht="15.75" spans="1:2">
+      <c r="A19" s="5" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="20" ht="15.75" spans="1:2">
+      <c r="A20" s="5" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="21" ht="15.75" spans="1:2">
+      <c r="A21" s="5" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="22" ht="15.75" spans="1:2">
+      <c r="A22" s="5" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="23" ht="15.75" spans="1:2">
+      <c r="A23" s="5" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="24" ht="15.75" spans="1:2">
+      <c r="A24" s="5" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="25" ht="15.75" spans="1:2">
+      <c r="A25" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="26" ht="15.75" spans="1:2">
+      <c r="A26" s="5" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="27" ht="15.75" spans="1:2">
+      <c r="A27" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B27" s="4" t="s">
+    </row>
+    <row r="28" ht="15.75" spans="1:2">
+      <c r="A28" s="5" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B28" s="4" t="s">
+    </row>
+    <row r="29" ht="15.75" spans="1:2">
+      <c r="A29" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="30" ht="15.75" spans="1:2">
+      <c r="A30" s="5" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B30" s="4" t="s">
+    </row>
+    <row r="31" ht="15.75" spans="1:2">
+      <c r="A31" s="5" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="32" ht="15.75" spans="1:2">
+      <c r="A32" s="5" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="33" ht="15.75" spans="1:2">
+      <c r="A33" s="5" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="34" ht="15.75" spans="1:2">
+      <c r="A34" s="5" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="35" ht="15.75" spans="1:2">
+      <c r="A35" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="36" ht="15.75" spans="1:2">
+      <c r="A36" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B36" s="4" t="s">
+    </row>
+    <row r="37" ht="15.75" spans="1:2">
+      <c r="A37" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B37" s="4" t="s">
+    </row>
+    <row r="38" ht="15.75" spans="1:2">
+      <c r="A38" s="5" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B38" s="4" t="s">
+    </row>
+    <row r="39" ht="15.75" spans="1:2">
+      <c r="A39" s="5" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="40" ht="15.75" spans="1:2">
+      <c r="A40" s="5" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="B41" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="B41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
+      <c r="B42" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+      <c r="B43" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="B43" s="4" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="B44" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B44" s="4" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
+      <c r="B45" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B45" s="4" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="7" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
+      <c r="B46" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="B46" s="4" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
         <v>408</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/TestData/数据迁移.xlsx
+++ b/src/main/TestData/数据迁移.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="28000" windowHeight="12240" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="百融001" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667">
   <si>
     <t>var_name</t>
   </si>
@@ -281,637 +281,367 @@
     <t>优分灰名单</t>
   </si>
   <si>
-    <t>br_m3_cell_caon_orgnum</t>
-  </si>
-  <si>
-    <t>百融_按手机号_近3个月申请线上现金分期的机构数</t>
-  </si>
-  <si>
-    <t>br_m12_id_caoff_allnum</t>
-  </si>
-  <si>
-    <t>百融_按身份证号_近12个月申请线下现金分期的次数</t>
-  </si>
-  <si>
-    <t>br_m3_id_nbank_cf_orgnum</t>
-  </si>
-  <si>
-    <t>百融_按身份证号_近3个月在非银机构-消费类分期申请机构数</t>
-  </si>
-  <si>
-    <t>br_m12_id_avg_monnum</t>
-  </si>
-  <si>
-    <t>百融_按身份证号_近12个月平均每月申请次数</t>
-  </si>
-  <si>
-    <t>br_m3_id_nbank_week_orgnum</t>
-  </si>
-  <si>
-    <t>百融_按身份证号_近3个月在非银机构周末申请机构数</t>
-  </si>
-  <si>
-    <t>br_m6_id_nbank_ca_orgnum</t>
-  </si>
-  <si>
-    <t>百融_按身份证号_近6个月在非银机构-现金类分期申请机构数</t>
-  </si>
-  <si>
-    <t>br_m3_cell_nbank_cons_allnum</t>
-  </si>
-  <si>
-    <t>百融_按手机号_近3个月在非银机构-持牌消费金融机构申请次数</t>
-  </si>
-  <si>
-    <t>br_m6_id_nbank_sloan_allnum</t>
-  </si>
-  <si>
-    <t>百融_按身份证号_近6个月在非银机构-持牌小贷机构申请次数</t>
-  </si>
-  <si>
-    <t>br_m1_id_caoff_allnum</t>
-  </si>
-  <si>
-    <t>百融_按身份证号_近1个月申请线下现金分期的次数</t>
-  </si>
-  <si>
-    <t>br_m1_cell_rel_allnum</t>
-  </si>
-  <si>
-    <t>百融_按手机号_近1个月申请信用卡（类信用卡）的次数</t>
-  </si>
-  <si>
-    <t>xy_apply_latest_six_month</t>
-  </si>
-  <si>
-    <t>新颜雷达_近6个月总查询笔数</t>
-  </si>
-  <si>
-    <t>xy_behavior_loans_overdue_count</t>
-  </si>
-  <si>
-    <t>新颜雷达_贷款逾期订单数</t>
-  </si>
-  <si>
-    <t>xy_behavior_loans_history_fail_fee</t>
-  </si>
-  <si>
-    <t>新颜雷达_历史贷款机构失败扣款笔数</t>
-  </si>
-  <si>
-    <t>xy_behavior_loans_score</t>
-  </si>
-  <si>
-    <t>新颜雷达_贷款行为分</t>
-  </si>
-  <si>
-    <t>xy_behavior_latest_one_month_fail</t>
-  </si>
-  <si>
-    <t>新颜雷达_近1个月贷款机构失败扣款笔数</t>
-  </si>
-  <si>
-    <t>xy_behavior_latest_three_month</t>
-  </si>
-  <si>
-    <t>新颜雷达_近3个月总查询笔数</t>
-  </si>
-  <si>
-    <t>xy_current_loans_org_count</t>
-  </si>
-  <si>
-    <t>新颜雷达_贷款机构数</t>
-  </si>
-  <si>
-    <t>bh_rev_overdue_account_count_d90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百行_循环授信_近90天内发生逾期账户数 </t>
-  </si>
-  <si>
-    <t>bh_rev_overdue_account_count_d360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百行_循环授信_近360天内发生逾期账户数 </t>
-  </si>
-  <si>
-    <t>bh_rev_account_count_d360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百行_循环授信_近360天累计循环授信账户数 </t>
-  </si>
-  <si>
-    <t>bh_rev_overdue_account_count_d30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百行_循环授信_近30天内发生逾期账户数 </t>
-  </si>
-  <si>
-    <t>bh_rev_summary_remaining_overdue_accountCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百行_循环授信_当前逾期账户数 </t>
-  </si>
-  <si>
-    <t>bh_nonrev_overdue_loan_count_d30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百行_非循环授信_近30天发生逾期贷款笔数 </t>
-  </si>
-  <si>
-    <t>bh_rev_account_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">百行_循环授信_近3年累计循环授信账户数 </t>
-  </si>
-  <si>
-    <t>bh_nonrev_remaining_overdue_amount</t>
-  </si>
-  <si>
-    <t>百行_非循环授信_当前逾期金额</t>
-  </si>
-  <si>
     <t>br_sl_id_bank_fraud_2</t>
   </si>
   <si>
-    <t>百融身份证查询银行(含信用卡)资信不佳</t>
-  </si>
-  <si>
-    <t>br_sl_id_nbank_bad_2</t>
-  </si>
-  <si>
-    <t>百融身份证查询非银(含全部非银类型)中风险</t>
-  </si>
-  <si>
-    <t>br_sl_id_nbank_overdue_2</t>
-  </si>
-  <si>
-    <t>百融身份证查询非银(含全部非银类型)一般风险</t>
-  </si>
-  <si>
-    <t>br_sl_id_nbank_cons_bad</t>
-  </si>
-  <si>
-    <t>百融身份证查询非银-持牌消费金融中风险</t>
-  </si>
-  <si>
-    <t>br_sl_id_nbank_finlea_bad</t>
-  </si>
-  <si>
-    <t>百融身份证查询查询非银-持牌融资租赁中风险</t>
-  </si>
-  <si>
-    <t>br_sl_id_nbank_finlea_overdue</t>
-  </si>
-  <si>
-    <t>百融身份证查询非银-持牌融资租赁一般风险</t>
-  </si>
-  <si>
     <t>br_sl_id_bank_lost</t>
   </si>
   <si>
-    <t>百融身份证查询银行(含信用卡)高风险</t>
-  </si>
-  <si>
     <t>br_sl_id_nbank_fraud</t>
   </si>
   <si>
-    <t>百融身份证查询非银(含全部非银类型)资信不佳</t>
-  </si>
-  <si>
     <t>br_sl_id_nbank_lost</t>
   </si>
   <si>
-    <t>百融身份证查询非银(含全部非银类型)高风险</t>
+    <t>br_scorecust_1</t>
+  </si>
+  <si>
+    <t>SLIDNBANKP2PRFU</t>
+  </si>
+  <si>
+    <t>SLPHNBANKP2PRFUS</t>
+  </si>
+  <si>
+    <t>TDICHIGHRISKZONE</t>
+  </si>
+  <si>
+    <t>ym_xwf_finplus_score</t>
+  </si>
+  <si>
+    <t>rh_hr_hr1rc001</t>
+  </si>
+  <si>
+    <t>rh_hr_hr1rc002</t>
+  </si>
+  <si>
+    <t>rh_hr_hrscore</t>
+  </si>
+  <si>
+    <t>rh_hr_hr1rc006</t>
   </si>
   <si>
     <t>ali_af_score</t>
   </si>
   <si>
-    <t>阿里_申请反欺诈分_标准版</t>
-  </si>
-  <si>
-    <t>ali_af_tags</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签</t>
-  </si>
-  <si>
-    <t>ali_af_tag_lr110</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_身份伪冒高风险</t>
-  </si>
-  <si>
-    <t>ali_af_tag_lr111</t>
-  </si>
-  <si>
-    <t>ali_af_tag_lr112</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_涉嫌欺诈风险</t>
-  </si>
-  <si>
-    <t>ali_af_tag_lr113</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_涉嫌薅羊毛风险</t>
-  </si>
-  <si>
-    <t>ali_af_tag_lr115</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_涉嫌黄赌毒恐暴</t>
-  </si>
-  <si>
-    <t>ali_af_tag_lr114</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_涉嫌虚假批量风险</t>
-  </si>
-  <si>
-    <t>ali_af_tag_lr116</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_涉嫌失信风险</t>
-  </si>
-  <si>
-    <t>ali_af_tag_br118</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_异常设备风险</t>
-  </si>
-  <si>
-    <t>ali_af_tag_br119</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_异常环境风险</t>
-  </si>
-  <si>
-    <t>ali_af_tag_od020</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_逾期风险高</t>
-  </si>
-  <si>
-    <t>ali_af_tag_od010</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_逾期风险中</t>
-  </si>
-  <si>
-    <t>ali_af_tag_od000</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_逾期风险低</t>
-  </si>
-  <si>
-    <t>ali_af_tag_da020</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_需求多样性高</t>
-  </si>
-  <si>
-    <t>ali_af_tag_da010</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_需求多样性中</t>
-  </si>
-  <si>
-    <t>ali_af_tag_da000</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_需求多样性低</t>
-  </si>
-  <si>
-    <t>ali_af_tag_br120</t>
-  </si>
-  <si>
-    <t>阿里_申请反欺标签_行为等级高风险</t>
-  </si>
-  <si>
-    <t>dhb_rl_black_list</t>
-  </si>
-  <si>
-    <t>电话邦_风险名单</t>
-  </si>
-  <si>
-    <t>dhb_rl_blacklist_type</t>
-  </si>
-  <si>
-    <t>电话邦_风险名单_类型</t>
-  </si>
-  <si>
-    <t>dhb_rl_black_list_1</t>
-  </si>
-  <si>
-    <t>电话邦_信贷逾期类名单</t>
-  </si>
-  <si>
-    <t>dhb_rl_black_list_2</t>
-  </si>
-  <si>
-    <t>电话邦_信贷欺诈类名单</t>
-  </si>
-  <si>
-    <t>dhb_rl_black_list_3</t>
-  </si>
-  <si>
-    <t>电话邦_不良名单</t>
-  </si>
-  <si>
-    <t>dhb_rl_black_list_5</t>
-  </si>
-  <si>
-    <t>电话邦_信贷失联黑名单</t>
-  </si>
-  <si>
-    <t>dhb_rl_black_list_6</t>
-  </si>
-  <si>
-    <t>电话邦_网络电商类黑名单</t>
-  </si>
-  <si>
-    <t>dhb_rl_black_list_7</t>
-  </si>
-  <si>
-    <t>电话邦_司法黑名单</t>
-  </si>
-  <si>
-    <t>dhb_rl_black_list_9</t>
-  </si>
-  <si>
-    <t>电话邦_电信诈骗名单</t>
-  </si>
-  <si>
-    <t>dhb_rl_black_list_15</t>
-  </si>
-  <si>
-    <t>电话邦_高危行为</t>
-  </si>
-  <si>
-    <t>dhb_rl_black_list_16</t>
-  </si>
-  <si>
-    <t>电话邦_虚拟小号</t>
+    <t>yzd_user_current_overdue_days</t>
+  </si>
+  <si>
+    <t>颜值贷用户当前逾期天数</t>
+  </si>
+  <si>
+    <t>yzd_user_rec_30d_max_overdue_days</t>
+  </si>
+  <si>
+    <t>颜值贷用户近30天最大逾期天数</t>
+  </si>
+  <si>
+    <t>yzd_user_rec_90d_max_overdue_days</t>
+  </si>
+  <si>
+    <t>颜值贷用户近90天最大逾期天数</t>
+  </si>
+  <si>
+    <t>yzd_user_rec_180d_max_overdue_days</t>
+  </si>
+  <si>
+    <t>颜值贷用户近180天最大逾期天数</t>
+  </si>
+  <si>
+    <t>yzd_user_rec_360d_max_overdue_days</t>
+  </si>
+  <si>
+    <t>颜值贷用户近360天最大逾期天数</t>
+  </si>
+  <si>
+    <t>yzd_user_rec_his_max_overdue_days</t>
+  </si>
+  <si>
+    <t>颜值贷用户历史天最大逾期天数</t>
+  </si>
+  <si>
+    <t>model_yzd_all_a_fea_score</t>
+  </si>
+  <si>
+    <t>用户在模型yzd_all_a下的score值</t>
+  </si>
+  <si>
+    <t>model_yzd_all_a_fea_rank</t>
+  </si>
+  <si>
+    <t>用户在模型yzd_all_a下的rank值</t>
+  </si>
+  <si>
+    <t>yzd_ely_pmnt_ord_cnt</t>
+  </si>
+  <si>
+    <t>距本次提现还未到期却提前还款的订单数</t>
+  </si>
+  <si>
+    <t>yzd_ord_cnt_p30d</t>
+  </si>
+  <si>
+    <t>距本次提现30天内用户提现次数</t>
+  </si>
+  <si>
+    <t>yzd_ord_cnt_p90d</t>
+  </si>
+  <si>
+    <t>距本次提现90天内用户提现次数</t>
+  </si>
+  <si>
+    <t>yzd_dist_fst_diburse_intvl</t>
+  </si>
+  <si>
+    <t>本次提现据首次提现间隔（天）</t>
+  </si>
+  <si>
+    <t>yzd_if_move</t>
+  </si>
+  <si>
+    <t>是否迁移用户</t>
+  </si>
+  <si>
+    <t>yzd_inc_ord_ely_pmnt_cnt_p90d</t>
+  </si>
+  <si>
+    <t>近90天新增订单提前还款订单数</t>
+  </si>
+  <si>
+    <t>yzd_settle_ord_cnt</t>
+  </si>
+  <si>
+    <t>已结清订单数</t>
+  </si>
+  <si>
+    <t>yzd_used_amount</t>
+  </si>
+  <si>
+    <t>颜值贷已使用金额</t>
+  </si>
+  <si>
+    <t>yzd_remain_amount</t>
+  </si>
+  <si>
+    <t>颜值贷剩余金额</t>
+  </si>
+  <si>
+    <t>yzd_overdue_cnt_dpd3</t>
+  </si>
+  <si>
+    <t>颜值贷逾期次数(逾期三天(不含)以上的次数)</t>
+  </si>
+  <si>
+    <t>yzd_userphone_rec30d_contact_custid_cnt</t>
+  </si>
+  <si>
+    <t>颜值贷申请人手机号码命中授信时间在近30天内的已申请人的紧急联系人手机号码的不同申请人数量</t>
+  </si>
+  <si>
+    <t>yzd_contact_rec30d_contact_custid_cnt</t>
+  </si>
+  <si>
+    <t>颜值贷申请人紧急联系人手机号码命中授信时间近30天的已有申请人的紧急联系人手机号码的不同申请人数量</t>
+  </si>
+  <si>
+    <t>yzd_pre_rep_cnt_90d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近90天提前还款次数</t>
+  </si>
+  <si>
+    <t>yzd_pre_rep_cnt_180d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近180天提前还款次数</t>
+  </si>
+  <si>
+    <t>yzd_pre_rep_cnt_360d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近360天提前还款次数</t>
+  </si>
+  <si>
+    <t>yzd_rebalanced_cnt_30d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近30天逾期还款次数</t>
+  </si>
+  <si>
+    <t>yzd_rebalanced_cnt_60d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近60天逾期还款次数</t>
+  </si>
+  <si>
+    <t>yzd_rebalanced_cnt_90d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近90天逾期还款次数</t>
+  </si>
+  <si>
+    <t>yzd_rebalanced_cnt_180d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近180天逾期还款次数</t>
+  </si>
+  <si>
+    <t>yzd_rebalanced_cnt_360d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近360天逾期还款次数</t>
+  </si>
+  <si>
+    <t>yzd_closed_order_cnt_30d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近30天结清笔数</t>
+  </si>
+  <si>
+    <t>yzd_closed_order_cnt_60d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近60天结清笔数</t>
+  </si>
+  <si>
+    <t>yzd_closed_order_cnt_90d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近90天结清笔数</t>
+  </si>
+  <si>
+    <t>yzd_closed_order_cnt_180d</t>
+  </si>
+  <si>
+    <t>颜值贷用户近180天结清笔数</t>
+  </si>
+  <si>
+    <t>yzd_ovd_repay_amt_rf_repay_rto_p271d</t>
+  </si>
+  <si>
+    <t>还款时间在过去271个自然日内，用户逾期还款金额在总还款金额中的占比</t>
+  </si>
+  <si>
+    <t>yzd_ovd_repay_amt_rf_repay_rto_p181d</t>
+  </si>
+  <si>
+    <t>还款时间在过去181个自然日内，用户逾期还款金额在总还款金额中的占比</t>
+  </si>
+  <si>
+    <t>yzd_first_normal_repay_time_diff_p361d</t>
+  </si>
+  <si>
+    <t>应还款日在过去361个自然日内，当前时间距用户第一次正常还款时间天数</t>
+  </si>
+  <si>
+    <t>yzd_ovd_repay_rto_p3repayment</t>
+  </si>
+  <si>
+    <t>过去3笔还款记录中，逾期还款占比</t>
+  </si>
+  <si>
+    <t>yzd_ely_repay_rto_rf_repay_p181d</t>
+  </si>
+  <si>
+    <t>还款时间在过去181个自然日内，提前还款次数在总还款次数中的占比</t>
+  </si>
+  <si>
+    <t>yzd_ovd_days_rf_repay_max_p91d</t>
+  </si>
+  <si>
+    <t>还款时间在过去91个自然日内，最大逾期还款天数</t>
+  </si>
+  <si>
+    <t>yzd_ovd_days_rf_repay_min_p91d</t>
+  </si>
+  <si>
+    <t>还款时间在过去91个自然日内，最小逾期还款天数</t>
+  </si>
+  <si>
+    <t>yzd_ovd_days_rf_due_min_p181d</t>
+  </si>
+  <si>
+    <t>应还款日在过去181个自然日内，最小逾期还款天数</t>
+  </si>
+  <si>
+    <t>yzd_ovd_days_rf_due_max_p181d</t>
+  </si>
+  <si>
+    <t>应还款日在过去181个自然日内，最大逾期还款天数</t>
+  </si>
+  <si>
+    <t>yzd_normal_repay_cnt_rf_due_p181d</t>
+  </si>
+  <si>
+    <t>应还款日在过去181个自然日内，正常还款次数</t>
+  </si>
+  <si>
+    <t>yzd_ovd_days_last_p2pay_off_ord</t>
+  </si>
+  <si>
+    <t>最近两笔应结清订单中,距当前时间最近的一笔逾期还款的逾期天数</t>
+  </si>
+  <si>
+    <t>yzd_appl_ord_cnt_p91d</t>
+  </si>
+  <si>
+    <t>提现申请时间在过去91个自然日内，提现申请次数</t>
+  </si>
+  <si>
+    <t>yzd_ord_succ_amt_rto_p181d</t>
+  </si>
+  <si>
+    <t>提现申请时间在过去181个自然日内，提现成功金额在总申请提现金额中的占比</t>
+  </si>
+  <si>
+    <t>yzd_idnum_prov</t>
+  </si>
+  <si>
+    <t>用户身份证所在省份</t>
+  </si>
+  <si>
+    <t>model_yzd_old_b_fea_score</t>
+  </si>
+  <si>
+    <t>该用户在模型yzd_old_b下的评分</t>
+  </si>
+  <si>
+    <t>model_yzd_old_b_fea_rank</t>
+  </si>
+  <si>
+    <t>该用户在模型yzd_old_b下的风险等级</t>
+  </si>
+  <si>
+    <t>yzd_first_normal_repay_time_diff_p360d</t>
+  </si>
+  <si>
+    <t>应还款日在过去360个自然日内，当前时间距用户第一次正常还款时间天数</t>
+  </si>
+  <si>
+    <t>yzd_ovd_days_rf_due_min_p180d</t>
+  </si>
+  <si>
+    <t>应还款日在过去180个自然日内，最小逾期还款天数</t>
+  </si>
+  <si>
+    <t>yzd_ovd_days_rf_due_max_p180d</t>
+  </si>
+  <si>
+    <t>应还款日在过去180个自然日内，最大逾期还款天数</t>
+  </si>
+  <si>
+    <t>yzd_normal_repay_cnt_rf_due_p180d</t>
+  </si>
+  <si>
+    <t>应还款日在过去180个自然日内，正常还款次数</t>
+  </si>
+  <si>
+    <t>颜值贷用户当前逾期天数_RT</t>
   </si>
   <si>
     <t>yzd_user_credit_limit_qy</t>
   </si>
   <si>
     <t>颜值贷_迁移用户额度</t>
-  </si>
-  <si>
-    <t>up_consume_level</t>
-  </si>
-  <si>
-    <t>银联智策_消费能力</t>
-  </si>
-  <si>
-    <t>up_card_status</t>
-  </si>
-  <si>
-    <t>银联智策_卡使用状态</t>
-  </si>
-  <si>
-    <t>up_user_value</t>
-  </si>
-  <si>
-    <t>银联智策_持卡人价值</t>
-  </si>
-  <si>
-    <t>up_1m_trans_amt</t>
-  </si>
-  <si>
-    <t>银联智策_近1个月交易金额</t>
-  </si>
-  <si>
-    <t>up_3m_trans_amt</t>
-  </si>
-  <si>
-    <t>银联智策_近3个月交易金额</t>
-  </si>
-  <si>
-    <t>up_6m_trans_amt</t>
-  </si>
-  <si>
-    <t>银联智策_近6个月交易金额</t>
-  </si>
-  <si>
-    <t>up_1m_trans_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近1个月交易笔数</t>
-  </si>
-  <si>
-    <t>up_3m_trans_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近3个月交易笔数</t>
-  </si>
-  <si>
-    <t>up_6m_trans_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近6个月交易笔数</t>
-  </si>
-  <si>
-    <t>up_6m_trans_amt_month_avg</t>
-  </si>
-  <si>
-    <t>银联智策_近6个月月均交易金额</t>
-  </si>
-  <si>
-    <t>up_6m_trans_cnt_month_avg</t>
-  </si>
-  <si>
-    <t>银联智策_近6个月月均交易笔数</t>
-  </si>
-  <si>
-    <t>up_1m_pay_amt</t>
-  </si>
-  <si>
-    <t>银联智策_近1个月付款金额</t>
-  </si>
-  <si>
-    <t>up_1m_pay_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近1个月付款笔数</t>
-  </si>
-  <si>
-    <t>up_1m_pos_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近1个月POS交易笔数</t>
-  </si>
-  <si>
-    <t>up_6m_pos_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近6个月POS交易笔数</t>
-  </si>
-  <si>
-    <t>up_1m_midnight_amt</t>
-  </si>
-  <si>
-    <t>银联智策_近1个月午夜交易金额</t>
-  </si>
-  <si>
-    <t>up_1m_midnight_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近1个月午夜交易笔数</t>
-  </si>
-  <si>
-    <t>up_6m_midnight_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近6个月午夜交易笔数</t>
-  </si>
-  <si>
-    <t>up_1m_consume_amt</t>
-  </si>
-  <si>
-    <t>银联智策_近1个月消费金额</t>
-  </si>
-  <si>
-    <t>up_6m_consume_amt</t>
-  </si>
-  <si>
-    <t>银联智策_近6个月消费金额</t>
-  </si>
-  <si>
-    <t>up_12m_consume_amt</t>
-  </si>
-  <si>
-    <t>银联智策_近12个月消费金额</t>
-  </si>
-  <si>
-    <t>up_his_earliest_trans_date</t>
-  </si>
-  <si>
-    <t>银联智策_历史最早交易日期</t>
-  </si>
-  <si>
-    <t>up_city</t>
-  </si>
-  <si>
-    <t>银联智策_常用城市名称</t>
-  </si>
-  <si>
-    <t>up_current_province</t>
-  </si>
-  <si>
-    <t>银联智策_当月活动省市</t>
-  </si>
-  <si>
-    <t>up_12m_earliest_consume_months</t>
-  </si>
-  <si>
-    <t>银联智策_近12个月最早发生消费所在月距今月数</t>
-  </si>
-  <si>
-    <t>up_12m_trans_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近12个月交易笔数</t>
-  </si>
-  <si>
-    <t>up_12m_withdraw_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近12个月取现交易笔数</t>
-  </si>
-  <si>
-    <t>up_12m_online_trans_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近12个月线上交易笔数</t>
-  </si>
-  <si>
-    <t>up_12m_worktime_trans_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近12个月工作日的工作时间交易笔数</t>
-  </si>
-  <si>
-    <t>up_12m_consume_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近12个月消费笔数</t>
-  </si>
-  <si>
-    <t>up_1m_fail_trans_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近一个月所有失败交易笔数</t>
-  </si>
-  <si>
-    <t>up_1m_fail_trans_amt</t>
-  </si>
-  <si>
-    <t>银联智策_近一个月所有失败交易金额</t>
-  </si>
-  <si>
-    <t>up_1m_fail_trans_days</t>
-  </si>
-  <si>
-    <t>银联智策_近一个月所有失败交易天数</t>
-  </si>
-  <si>
-    <t>up_3m_fail_trans_amt</t>
-  </si>
-  <si>
-    <t>银联智策_近三个月所有失败交易金额</t>
-  </si>
-  <si>
-    <t>up_6m_fail_trans_days</t>
-  </si>
-  <si>
-    <t>银联智策_近六个月所有失败交易天数</t>
-  </si>
-  <si>
-    <t>up_1m_query_days</t>
-  </si>
-  <si>
-    <t>银联智策_近一个月查询天数</t>
-  </si>
-  <si>
-    <t>up_1m_shortofmoney_days</t>
-  </si>
-  <si>
-    <t>银联智策_近一个月资金不足天数</t>
-  </si>
-  <si>
-    <t>up_6m_shortofmoney_days</t>
-  </si>
-  <si>
-    <t>银联智策_近六个月资金不足天数</t>
-  </si>
-  <si>
-    <t>up_6m_shortofmoney_merchants</t>
-  </si>
-  <si>
-    <t>银联智策_近六个月发生资金不足交易商户数</t>
-  </si>
-  <si>
-    <t>up_6m_wrongpassword_cnt</t>
-  </si>
-  <si>
-    <t>银联智策_近六个月密码错误笔数</t>
-  </si>
-  <si>
-    <t>br_scorecust_1</t>
-  </si>
-  <si>
-    <t>百融_客制化评分_线上现金分期_1</t>
-  </si>
-  <si>
-    <t>mz_maas_mozhi_modeling_1</t>
-  </si>
-  <si>
-    <t>墨智_云真信_定制分</t>
   </si>
   <si>
     <t>uid</t>
@@ -2297,11 +2027,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2316,21 +2046,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF172B4D"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2341,48 +2059,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2393,9 +2079,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2417,9 +2102,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2434,37 +2118,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2479,13 +2134,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2500,7 +2224,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,67 +2290,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2584,97 +2338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2690,8 +2360,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2715,50 +2433,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFC1C7D0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC1C7D0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC1C7D0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC1C7D0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2778,17 +2457,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2810,6 +2489,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2819,196 +2509,195 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3337,192 +3026,192 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.8125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="32.5625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="30.8125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.5625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3559,7 +3248,7 @@
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3567,7 +3256,7 @@
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3575,7 +3264,7 @@
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3583,7 +3272,7 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3591,7 +3280,7 @@
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3599,7 +3288,7 @@
       <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3607,7 +3296,7 @@
       <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3615,7 +3304,7 @@
       <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3623,7 +3312,7 @@
       <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3631,7 +3320,7 @@
       <c r="A11" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3639,7 +3328,7 @@
       <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3647,7 +3336,7 @@
       <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3655,7 +3344,7 @@
       <c r="A14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3663,7 +3352,7 @@
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3671,7 +3360,7 @@
       <c r="A16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3679,7 +3368,7 @@
       <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3687,7 +3376,7 @@
       <c r="A18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3695,7 +3384,7 @@
       <c r="A19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3703,7 +3392,7 @@
       <c r="A20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3711,7 +3400,7 @@
       <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3724,224 +3413,90 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="51.8125" customWidth="1"/>
-    <col min="2" max="2" width="49.4765625" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:2">
+    <row r="1" ht="18" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="17" spans="1:2">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" ht="17" spans="1:2">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" ht="34" spans="1:2">
-      <c r="A4" s="9" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" ht="17" spans="1:2">
-      <c r="A5" s="9" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" ht="17" spans="1:2">
-      <c r="A6" s="9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" ht="34" spans="1:2">
-      <c r="A7" s="9" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="9" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" ht="34" spans="1:2">
-      <c r="A8" s="9" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="9" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="9" ht="34" spans="1:2">
-      <c r="A9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" ht="17" spans="1:2">
-      <c r="A10" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" ht="17" spans="1:2">
-      <c r="A11" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" ht="17" spans="1:2">
-      <c r="A12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" ht="17" spans="1:2">
-      <c r="A13" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" ht="17" spans="1:2">
-      <c r="A14" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" ht="17" spans="1:2">
-      <c r="A15" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" ht="17" spans="1:2">
-      <c r="A16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" ht="17" spans="1:2">
-      <c r="A17" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" ht="17" spans="1:2">
-      <c r="A18" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" ht="17" spans="1:2">
-      <c r="A19" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" ht="17" spans="1:2">
-      <c r="A20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" ht="17" spans="1:2">
-      <c r="A21" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" ht="17" spans="1:2">
-      <c r="A22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" ht="17" spans="1:2">
-      <c r="A23" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" ht="17" spans="1:2">
-      <c r="A24" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" ht="17" spans="1:2">
-      <c r="A25" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" ht="17" spans="1:2">
-      <c r="A26" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3953,16 +3508,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="35.546875" customWidth="1"/>
-    <col min="2" max="2" width="42.84375" customWidth="1"/>
+    <col min="1" max="1" width="38.4375" customWidth="1"/>
+    <col min="2" max="2" width="93.6875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:2">
@@ -3974,651 +3529,435 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" ht="14.75" spans="1:2">
-      <c r="A10" s="3" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:2">
-      <c r="A11" s="5" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B29" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:2">
-      <c r="A12" s="5" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B30" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:2">
-      <c r="A13" s="5" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:2">
-      <c r="A14" s="5" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="B32" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="16" ht="15.75" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="B33" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="B34" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="B35" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="B36" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="6" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="B37" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="B38" t="s">
         <v>174</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="B39" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="23" ht="15.75" spans="1:2">
-      <c r="A23" s="5" t="s">
+      <c r="B40" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="B41" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" spans="1:2">
-      <c r="A25" s="5" t="s">
+      <c r="B42" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="26" ht="15.75" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="B43" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" ht="15.75" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="B44" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="B45" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="6" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="29" ht="15.75" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="B46" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="6" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="30" ht="15.75" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="B47" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="6" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="31" ht="15.75" spans="1:2">
-      <c r="A31" s="5" t="s">
+      <c r="B48" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="6" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="32" ht="15.75" spans="1:2">
-      <c r="A32" s="5" t="s">
+      <c r="B49" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="6" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="B50" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="6" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="34" ht="15.75" spans="1:2">
-      <c r="A34" s="5" t="s">
+      <c r="B51" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="6" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="35" ht="15.75" spans="1:2">
-      <c r="A35" s="5" t="s">
+      <c r="B52" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="6" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="36" ht="15.75" spans="1:2">
-      <c r="A36" s="5" t="s">
+      <c r="B53" t="s">
         <v>204</v>
       </c>
-      <c r="B36" s="6" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" ht="15.75" spans="1:2">
-      <c r="A37" s="5" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B55" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" spans="1:2">
-      <c r="A38" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" spans="1:2">
-      <c r="A39" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" spans="1:2">
-      <c r="A40" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4632,8 +3971,8 @@
   <sheetPr/>
   <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -4646,27 +3985,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>301</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="D2" s="1">
         <v>13354882205</v>
@@ -4674,13 +4013,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="D3" s="1">
         <v>13354882201</v>
@@ -4688,13 +4027,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1">
         <v>13354882201</v>
@@ -4702,13 +4041,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>219</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>221</v>
       </c>
       <c r="D5" s="1">
         <v>17759218006</v>
@@ -4716,13 +4055,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>222</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>313</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="D6" s="1">
         <v>13354882211</v>
@@ -4730,13 +4069,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1">
         <v>13354882311</v>
@@ -4744,13 +4083,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D8" s="1">
         <v>13354882311</v>
@@ -4758,13 +4097,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D9" s="1">
         <v>13354882314</v>
@@ -4772,13 +4111,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="D10" s="1">
         <v>13221397387</v>
@@ -4786,13 +4125,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1">
         <v>15221397386</v>
@@ -4800,13 +4139,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="D12" s="1">
         <v>13221397389</v>
@@ -4814,13 +4153,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="D13" s="1">
         <v>13221397321</v>
@@ -4828,13 +4167,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>332</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="D14" s="1">
         <v>13211397321</v>
@@ -4842,13 +4181,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>243</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>334</v>
+        <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="D15" s="1">
         <v>13211397321</v>
@@ -4856,13 +4195,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c r="D16" s="1">
         <v>15823160024</v>
@@ -4870,13 +4209,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>339</v>
+        <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="D17" s="1">
         <v>17782032134</v>
@@ -4884,13 +4223,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>341</v>
+        <v>251</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>342</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="D18" s="1">
         <v>15506711704</v>
@@ -4898,13 +4237,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>254</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>345</v>
+        <v>255</v>
       </c>
       <c r="C19" t="s">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="D19" s="1">
         <v>15707028732</v>
@@ -4912,13 +4251,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>347</v>
+        <v>257</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="D20" s="1">
         <v>13800506210</v>
@@ -4926,13 +4265,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>351</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="D21" s="1">
         <v>15507995091</v>
@@ -4940,13 +4279,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>353</v>
+        <v>263</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="C22" t="s">
-        <v>355</v>
+        <v>265</v>
       </c>
       <c r="D22" s="1">
         <v>13600040945</v>
@@ -4954,13 +4293,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>356</v>
+        <v>266</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>268</v>
       </c>
       <c r="D23" s="1">
         <v>15602198205</v>
@@ -4968,13 +4307,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>269</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="C24" t="s">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="D24" s="1">
         <v>15104101297</v>
@@ -4982,13 +4321,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>272</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>363</v>
+        <v>273</v>
       </c>
       <c r="C25" t="s">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="D25" s="1">
         <v>13200748991</v>
@@ -4996,13 +4335,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>367</v>
+        <v>277</v>
       </c>
       <c r="D26" s="1">
         <v>13100103762</v>
@@ -5010,13 +4349,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>369</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="D27" s="1">
         <v>15204111720</v>
@@ -5024,13 +4363,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="C28" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
       <c r="D28" s="1">
         <v>15805214306</v>
@@ -5038,13 +4377,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>284</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="C29" t="s">
-        <v>376</v>
+        <v>286</v>
       </c>
       <c r="D29" s="1">
         <v>15904714725</v>
@@ -5052,13 +4391,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>378</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s">
-        <v>379</v>
+        <v>289</v>
       </c>
       <c r="D30" s="1">
         <v>13702193073</v>
@@ -5066,13 +4405,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>382</v>
+        <v>292</v>
       </c>
       <c r="D31" s="1">
         <v>13401406367</v>
@@ -5080,13 +4419,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="C32" t="s">
-        <v>385</v>
+        <v>295</v>
       </c>
       <c r="D32" s="1">
         <v>15101889089</v>
@@ -5094,13 +4433,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>296</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="C33" t="s">
-        <v>388</v>
+        <v>298</v>
       </c>
       <c r="D33" s="1">
         <v>15502872138</v>
@@ -5108,13 +4447,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
-        <v>391</v>
+        <v>301</v>
       </c>
       <c r="D34" s="1">
         <v>13705724350</v>
@@ -5122,13 +4461,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>392</v>
+        <v>302</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="C35" t="s">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="D35" s="1">
         <v>15102141524</v>
@@ -5136,13 +4475,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>396</v>
+        <v>306</v>
       </c>
       <c r="C36" t="s">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="D36" s="1">
         <v>13703394870</v>
@@ -5150,13 +4489,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>398</v>
+        <v>308</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="C37" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="D37" s="1">
         <v>15112341235</v>
@@ -5164,13 +4503,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>402</v>
+        <v>312</v>
       </c>
       <c r="C38" t="s">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="D38" s="1">
         <v>15112341236</v>
@@ -5178,13 +4517,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="C39" t="s">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="D39" s="1">
         <v>15112341237</v>
@@ -5192,13 +4531,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>407</v>
+        <v>317</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>408</v>
+        <v>318</v>
       </c>
       <c r="C40" t="s">
-        <v>409</v>
+        <v>319</v>
       </c>
       <c r="D40" s="1">
         <v>15204111728</v>
@@ -5206,13 +4545,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>410</v>
+        <v>320</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>411</v>
+        <v>321</v>
       </c>
       <c r="C41" t="s">
-        <v>412</v>
+        <v>322</v>
       </c>
       <c r="D41" s="1">
         <v>15204111728</v>
@@ -5220,13 +4559,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>413</v>
+        <v>323</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>414</v>
+        <v>324</v>
       </c>
       <c r="C42" t="s">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="D42" s="1">
         <v>15204111728</v>
@@ -5234,13 +4573,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>416</v>
+        <v>326</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>417</v>
+        <v>327</v>
       </c>
       <c r="C43" t="s">
-        <v>418</v>
+        <v>328</v>
       </c>
       <c r="D43" s="1">
         <v>15903620690</v>
@@ -5248,13 +4587,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>419</v>
+        <v>329</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="C44" t="s">
-        <v>421</v>
+        <v>331</v>
       </c>
       <c r="D44" s="1">
         <v>15905907727</v>
@@ -5262,13 +4601,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>422</v>
+        <v>332</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="C45" t="s">
-        <v>424</v>
+        <v>334</v>
       </c>
       <c r="D45" s="1">
         <v>13307094103</v>
@@ -5276,13 +4615,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>426</v>
+        <v>336</v>
       </c>
       <c r="C46" t="s">
-        <v>427</v>
+        <v>337</v>
       </c>
       <c r="D46" s="1">
         <v>15004666735</v>
@@ -5290,13 +4629,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>428</v>
+        <v>338</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>429</v>
+        <v>339</v>
       </c>
       <c r="C47" t="s">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="D47" s="1">
         <v>15808715063</v>
@@ -5304,13 +4643,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>431</v>
+        <v>341</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>432</v>
+        <v>342</v>
       </c>
       <c r="C48" t="s">
-        <v>433</v>
+        <v>343</v>
       </c>
       <c r="D48" s="1">
         <v>13412345678</v>
@@ -5318,13 +4657,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>435</v>
+        <v>345</v>
       </c>
       <c r="C49" t="s">
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="D49" s="1">
         <v>13605677104</v>
@@ -5332,13 +4671,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>438</v>
+        <v>348</v>
       </c>
       <c r="C50" t="s">
-        <v>439</v>
+        <v>349</v>
       </c>
       <c r="D50" s="1">
         <v>13503968499</v>
@@ -5346,13 +4685,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
       <c r="C51" t="s">
-        <v>442</v>
+        <v>352</v>
       </c>
       <c r="D51" s="1">
         <v>13001874370</v>
@@ -5360,13 +4699,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>353</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>444</v>
+        <v>354</v>
       </c>
       <c r="C52" t="s">
-        <v>445</v>
+        <v>355</v>
       </c>
       <c r="D52" s="1">
         <v>15507375265</v>
@@ -5374,13 +4713,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>446</v>
+        <v>356</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>447</v>
+        <v>357</v>
       </c>
       <c r="C53" t="s">
-        <v>448</v>
+        <v>358</v>
       </c>
       <c r="D53" s="1">
         <v>15508122382</v>
@@ -5388,13 +4727,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>449</v>
+        <v>359</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="C54" t="s">
-        <v>451</v>
+        <v>361</v>
       </c>
       <c r="D54" s="1">
         <v>15905840325</v>
@@ -5402,13 +4741,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>453</v>
+        <v>363</v>
       </c>
       <c r="C55" t="s">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="D55" s="1">
         <v>15204111728</v>
@@ -5416,13 +4755,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>455</v>
+        <v>365</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="C56" t="s">
-        <v>457</v>
+        <v>367</v>
       </c>
       <c r="D56" s="1">
         <v>15204111728</v>
@@ -5430,13 +4769,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>458</v>
+        <v>368</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>459</v>
+        <v>369</v>
       </c>
       <c r="C57" t="s">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="D57" s="1">
         <v>15204111728</v>
@@ -5444,13 +4783,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>462</v>
+        <v>372</v>
       </c>
       <c r="C58" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
       <c r="D58" s="1">
         <v>15204111728</v>
@@ -5458,13 +4797,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="C59" t="s">
-        <v>466</v>
+        <v>376</v>
       </c>
       <c r="D59" s="1">
         <v>15204111728</v>
@@ -5472,13 +4811,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>467</v>
+        <v>377</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>468</v>
+        <v>378</v>
       </c>
       <c r="C60" t="s">
-        <v>469</v>
+        <v>379</v>
       </c>
       <c r="D60" s="1">
         <v>15204111728</v>
@@ -5486,13 +4825,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>471</v>
+        <v>381</v>
       </c>
       <c r="C61" t="s">
-        <v>472</v>
+        <v>382</v>
       </c>
       <c r="D61" s="1">
         <v>15204111728</v>
@@ -5500,13 +4839,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>473</v>
+        <v>383</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>474</v>
+        <v>384</v>
       </c>
       <c r="C62" t="s">
-        <v>475</v>
+        <v>385</v>
       </c>
       <c r="D62" s="1">
         <v>15204111728</v>
@@ -5514,13 +4853,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>476</v>
+        <v>386</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>477</v>
+        <v>387</v>
       </c>
       <c r="C63" t="s">
-        <v>478</v>
+        <v>388</v>
       </c>
       <c r="D63" s="1">
         <v>15204111728</v>
@@ -5528,13 +4867,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>479</v>
+        <v>389</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="C64" t="s">
-        <v>481</v>
+        <v>391</v>
       </c>
       <c r="D64" s="1">
         <v>15204111728</v>
@@ -5542,13 +4881,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>482</v>
+        <v>392</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>483</v>
+        <v>393</v>
       </c>
       <c r="C65" t="s">
-        <v>484</v>
+        <v>394</v>
       </c>
       <c r="D65" s="1">
         <v>15204111728</v>
@@ -5556,13 +4895,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>485</v>
+        <v>395</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>486</v>
+        <v>396</v>
       </c>
       <c r="C66" t="s">
-        <v>487</v>
+        <v>397</v>
       </c>
       <c r="D66" s="1">
         <v>15204111728</v>
@@ -5570,13 +4909,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>488</v>
+        <v>398</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="C67" t="s">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="D67" s="1">
         <v>15204111728</v>
@@ -5584,13 +4923,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>491</v>
+        <v>401</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>492</v>
+        <v>402</v>
       </c>
       <c r="C68" t="s">
-        <v>493</v>
+        <v>403</v>
       </c>
       <c r="D68" s="1">
         <v>15208418800</v>
@@ -5598,13 +4937,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>494</v>
+        <v>404</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="C69" t="s">
-        <v>496</v>
+        <v>406</v>
       </c>
       <c r="D69" s="1">
         <v>15101796616</v>
@@ -5612,13 +4951,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>497</v>
+        <v>407</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>498</v>
+        <v>408</v>
       </c>
       <c r="C70" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="D70" s="1">
         <v>13704165202</v>
@@ -5626,13 +4965,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>501</v>
+        <v>411</v>
       </c>
       <c r="C71" t="s">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="D71" s="1">
         <v>13808393694</v>
@@ -5640,13 +4979,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>504</v>
+        <v>414</v>
       </c>
       <c r="C72" t="s">
-        <v>505</v>
+        <v>415</v>
       </c>
       <c r="D72" s="1">
         <v>15106690895</v>
@@ -5654,13 +4993,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>506</v>
+        <v>416</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="C73" t="s">
-        <v>508</v>
+        <v>418</v>
       </c>
       <c r="D73" s="1">
         <v>15204111728</v>
@@ -5668,13 +5007,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>509</v>
+        <v>419</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="C74" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="D74" s="1">
         <v>15204111728</v>
@@ -5682,13 +5021,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="C75" t="s">
-        <v>514</v>
+        <v>424</v>
       </c>
       <c r="D75" s="1">
         <v>13402160975</v>
@@ -5696,13 +5035,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>515</v>
+        <v>425</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>516</v>
+        <v>426</v>
       </c>
       <c r="C76" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="D76" s="1">
         <v>15904918614</v>
@@ -5710,13 +5049,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>519</v>
+        <v>429</v>
       </c>
       <c r="C77" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="D77" s="1">
         <v>15203628409</v>
@@ -5724,13 +5063,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>521</v>
+        <v>431</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>522</v>
+        <v>432</v>
       </c>
       <c r="C78" t="s">
-        <v>523</v>
+        <v>433</v>
       </c>
       <c r="D78" s="1">
         <v>13403383393</v>
@@ -5738,13 +5077,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>524</v>
+        <v>434</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>525</v>
+        <v>435</v>
       </c>
       <c r="C79" t="s">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="D79" s="1">
         <v>15204111728</v>
@@ -5752,13 +5091,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>527</v>
+        <v>437</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="C80" t="s">
-        <v>529</v>
+        <v>439</v>
       </c>
       <c r="D80" s="1">
         <v>15204111728</v>
@@ -5766,13 +5105,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>530</v>
+        <v>440</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
       <c r="C81" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="D81" s="1">
         <v>15900335093</v>
@@ -5780,13 +5119,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>533</v>
+        <v>443</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="C82" t="s">
-        <v>535</v>
+        <v>445</v>
       </c>
       <c r="D82" s="1">
         <v>13302897169</v>
@@ -5794,13 +5133,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>536</v>
+        <v>446</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>537</v>
+        <v>447</v>
       </c>
       <c r="C83" t="s">
-        <v>538</v>
+        <v>448</v>
       </c>
       <c r="D83" s="1">
         <v>13900783844</v>
@@ -5808,13 +5147,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>539</v>
+        <v>449</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="C84" t="s">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="D84" s="1">
         <v>13507440212</v>
@@ -5822,13 +5161,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>542</v>
+        <v>452</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>543</v>
+        <v>453</v>
       </c>
       <c r="C85" t="s">
-        <v>544</v>
+        <v>454</v>
       </c>
       <c r="D85" s="1">
         <v>13000247340</v>
@@ -5836,13 +5175,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>545</v>
+        <v>455</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>546</v>
+        <v>456</v>
       </c>
       <c r="C86" t="s">
-        <v>547</v>
+        <v>457</v>
       </c>
       <c r="D86" s="1">
         <v>13905594991</v>
@@ -5850,13 +5189,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>548</v>
+        <v>458</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>549</v>
+        <v>459</v>
       </c>
       <c r="C87" t="s">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="D87" s="1">
         <v>15816397386</v>
@@ -5864,13 +5203,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>552</v>
+        <v>462</v>
       </c>
       <c r="C88" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="D88" s="1">
         <v>15107742646</v>
@@ -5878,13 +5217,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>554</v>
+        <v>464</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>555</v>
+        <v>465</v>
       </c>
       <c r="C89" t="s">
-        <v>556</v>
+        <v>466</v>
       </c>
       <c r="D89" s="1">
         <v>15204111728</v>
@@ -5892,13 +5231,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>557</v>
+        <v>467</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
       <c r="C90" t="s">
-        <v>559</v>
+        <v>469</v>
       </c>
       <c r="D90" s="1">
         <v>15501975011</v>
@@ -5906,13 +5245,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>560</v>
+        <v>470</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="C91" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="D91" s="1">
         <v>13802242845</v>
@@ -5920,13 +5259,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>563</v>
+        <v>473</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="C92" t="s">
-        <v>565</v>
+        <v>475</v>
       </c>
       <c r="D92" s="1">
         <v>15208018001</v>
@@ -5934,13 +5273,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>567</v>
+        <v>477</v>
       </c>
       <c r="C93" t="s">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="D93" s="1">
         <v>13300034880</v>
@@ -5948,13 +5287,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>569</v>
+        <v>479</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="C94" t="s">
-        <v>571</v>
+        <v>481</v>
       </c>
       <c r="D94" s="1">
         <v>15204111728</v>
@@ -5962,13 +5301,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="C95" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="D95" s="1">
         <v>13503703167</v>
@@ -5976,13 +5315,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="C96" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="D96" s="1">
         <v>13600791914</v>
@@ -5990,13 +5329,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="C97" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="D97" s="1">
         <v>13603434179</v>
@@ -6004,13 +5343,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="C98" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="D98" s="1">
         <v>13412345679</v>
@@ -6018,13 +5357,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="C99" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="D99" s="1">
         <v>13412345680</v>
@@ -6032,13 +5371,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>587</v>
+        <v>497</v>
       </c>
       <c r="C100" t="s">
-        <v>588</v>
+        <v>498</v>
       </c>
       <c r="D100" s="1">
         <v>13412345681</v>
@@ -6046,13 +5385,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>589</v>
+        <v>499</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>590</v>
+        <v>500</v>
       </c>
       <c r="C101" t="s">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="D101" s="1">
         <v>17783470510</v>
@@ -6060,13 +5399,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>592</v>
+        <v>502</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="C102" t="s">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="D102" s="1">
         <v>18978654645</v>
@@ -6074,13 +5413,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>595</v>
+        <v>505</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>596</v>
+        <v>506</v>
       </c>
       <c r="C103" t="s">
-        <v>597</v>
+        <v>507</v>
       </c>
       <c r="D103" s="1">
         <v>13211112222</v>
@@ -6088,13 +5427,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>598</v>
+        <v>508</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
       <c r="C104" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="D104" s="1">
         <v>15204111728</v>
@@ -6102,13 +5441,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>601</v>
+        <v>511</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>602</v>
+        <v>512</v>
       </c>
       <c r="C105" t="s">
-        <v>603</v>
+        <v>513</v>
       </c>
       <c r="D105" s="1">
         <v>15601590396</v>
@@ -6116,13 +5455,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="C106" t="s">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="D106" s="1">
         <v>13805663444</v>
@@ -6130,13 +5469,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>607</v>
+        <v>517</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="C107" t="s">
-        <v>609</v>
+        <v>519</v>
       </c>
       <c r="D107" s="1">
         <v>13603605108</v>
@@ -6144,13 +5483,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="C108" t="s">
-        <v>612</v>
+        <v>522</v>
       </c>
       <c r="D108" s="1">
         <v>15607157585</v>
@@ -6158,13 +5497,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>613</v>
+        <v>523</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>614</v>
+        <v>524</v>
       </c>
       <c r="C109" t="s">
-        <v>615</v>
+        <v>525</v>
       </c>
       <c r="D109" s="1">
         <v>15205006891</v>
@@ -6172,13 +5511,13 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>616</v>
+        <v>526</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>617</v>
+        <v>527</v>
       </c>
       <c r="C110" t="s">
-        <v>618</v>
+        <v>528</v>
       </c>
       <c r="D110" s="1">
         <v>15302973973</v>
@@ -6186,13 +5525,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>619</v>
+        <v>529</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="C111" t="s">
-        <v>621</v>
+        <v>531</v>
       </c>
       <c r="D111" s="1">
         <v>15204111728</v>
@@ -6200,13 +5539,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>622</v>
+        <v>532</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>623</v>
+        <v>533</v>
       </c>
       <c r="C112" t="s">
-        <v>624</v>
+        <v>534</v>
       </c>
       <c r="D112" s="1">
         <v>15204111728</v>
@@ -6214,13 +5553,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>625</v>
+        <v>535</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>626</v>
+        <v>536</v>
       </c>
       <c r="C113" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
       <c r="D113" s="1">
         <v>15204111728</v>
@@ -6228,13 +5567,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>628</v>
+        <v>538</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>629</v>
+        <v>539</v>
       </c>
       <c r="C114" t="s">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="D114" s="1">
         <v>15204111728</v>
@@ -6242,13 +5581,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>631</v>
+        <v>541</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>632</v>
+        <v>542</v>
       </c>
       <c r="C115" t="s">
-        <v>633</v>
+        <v>543</v>
       </c>
       <c r="D115" s="1">
         <v>15204111728</v>
@@ -6256,13 +5595,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>634</v>
+        <v>544</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>635</v>
+        <v>545</v>
       </c>
       <c r="C116" t="s">
-        <v>636</v>
+        <v>546</v>
       </c>
       <c r="D116" s="1">
         <v>15204111728</v>
@@ -6270,13 +5609,13 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>637</v>
+        <v>547</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>638</v>
+        <v>548</v>
       </c>
       <c r="C117" t="s">
-        <v>639</v>
+        <v>549</v>
       </c>
       <c r="D117" s="1">
         <v>15204111728</v>
@@ -6284,13 +5623,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>641</v>
+        <v>551</v>
       </c>
       <c r="C118" t="s">
-        <v>642</v>
+        <v>552</v>
       </c>
       <c r="D118" s="1">
         <v>15204111728</v>
@@ -6298,13 +5637,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>643</v>
+        <v>553</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>644</v>
+        <v>554</v>
       </c>
       <c r="C119" t="s">
-        <v>645</v>
+        <v>555</v>
       </c>
       <c r="D119" s="1">
         <v>15204111728</v>
@@ -6312,13 +5651,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>647</v>
+        <v>557</v>
       </c>
       <c r="C120" t="s">
-        <v>648</v>
+        <v>558</v>
       </c>
       <c r="D120" s="1">
         <v>15204111728</v>
@@ -6326,13 +5665,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>650</v>
+        <v>560</v>
       </c>
       <c r="C121" t="s">
-        <v>651</v>
+        <v>561</v>
       </c>
       <c r="D121" s="1">
         <v>15204111728</v>
@@ -6340,13 +5679,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>652</v>
+        <v>562</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>653</v>
+        <v>563</v>
       </c>
       <c r="C122" t="s">
-        <v>654</v>
+        <v>564</v>
       </c>
       <c r="D122" s="1">
         <v>15204111728</v>
@@ -6354,13 +5693,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>655</v>
+        <v>565</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>656</v>
+        <v>566</v>
       </c>
       <c r="C123" t="s">
-        <v>657</v>
+        <v>567</v>
       </c>
       <c r="D123" s="1">
         <v>15200315886</v>
@@ -6368,13 +5707,13 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>658</v>
+        <v>568</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>659</v>
+        <v>569</v>
       </c>
       <c r="C124" t="s">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="D124" s="1">
         <v>15204111728</v>
@@ -6382,13 +5721,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>662</v>
+        <v>572</v>
       </c>
       <c r="C125" t="s">
-        <v>663</v>
+        <v>573</v>
       </c>
       <c r="D125" s="1">
         <v>15204111728</v>
@@ -6396,13 +5735,13 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>664</v>
+        <v>574</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>665</v>
+        <v>575</v>
       </c>
       <c r="C126" t="s">
-        <v>666</v>
+        <v>576</v>
       </c>
       <c r="D126" s="1">
         <v>15204111728</v>
@@ -6410,13 +5749,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>667</v>
+        <v>577</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="C127" t="s">
-        <v>669</v>
+        <v>579</v>
       </c>
       <c r="D127" s="1">
         <v>15204111728</v>
@@ -6424,13 +5763,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>670</v>
+        <v>580</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>671</v>
+        <v>581</v>
       </c>
       <c r="C128" t="s">
-        <v>672</v>
+        <v>582</v>
       </c>
       <c r="D128" s="1">
         <v>15204111728</v>
@@ -6438,13 +5777,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>673</v>
+        <v>583</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>674</v>
+        <v>584</v>
       </c>
       <c r="C129" t="s">
-        <v>675</v>
+        <v>585</v>
       </c>
       <c r="D129" s="1">
         <v>15204111728</v>
@@ -6452,13 +5791,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>676</v>
+        <v>586</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>677</v>
+        <v>587</v>
       </c>
       <c r="C130" t="s">
-        <v>678</v>
+        <v>588</v>
       </c>
       <c r="D130" s="1">
         <v>15003501641</v>
@@ -6466,13 +5805,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>679</v>
+        <v>589</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>680</v>
+        <v>590</v>
       </c>
       <c r="C131" t="s">
-        <v>681</v>
+        <v>591</v>
       </c>
       <c r="D131" s="1">
         <v>15204111728</v>
@@ -6480,13 +5819,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>682</v>
+        <v>592</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>683</v>
+        <v>593</v>
       </c>
       <c r="C132" t="s">
-        <v>684</v>
+        <v>594</v>
       </c>
       <c r="D132" s="1">
         <v>15204111728</v>
@@ -6494,13 +5833,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>685</v>
+        <v>595</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>686</v>
+        <v>596</v>
       </c>
       <c r="C133" t="s">
-        <v>687</v>
+        <v>597</v>
       </c>
       <c r="D133" s="1">
         <v>15504454303</v>
@@ -6508,13 +5847,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>688</v>
+        <v>598</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>689</v>
+        <v>599</v>
       </c>
       <c r="C134" t="s">
-        <v>690</v>
+        <v>600</v>
       </c>
       <c r="D134" s="1">
         <v>15204111728</v>
@@ -6522,13 +5861,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>691</v>
+        <v>601</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>692</v>
+        <v>602</v>
       </c>
       <c r="C135" t="s">
-        <v>693</v>
+        <v>603</v>
       </c>
       <c r="D135" s="1">
         <v>15204111728</v>
@@ -6536,13 +5875,13 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>694</v>
+        <v>604</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>695</v>
+        <v>605</v>
       </c>
       <c r="C136" t="s">
-        <v>696</v>
+        <v>606</v>
       </c>
       <c r="D136" s="1">
         <v>13205610246</v>
@@ -6550,13 +5889,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>697</v>
+        <v>607</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>698</v>
+        <v>608</v>
       </c>
       <c r="C137" t="s">
-        <v>699</v>
+        <v>609</v>
       </c>
       <c r="D137" s="1">
         <v>15204111728</v>
@@ -6564,13 +5903,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>700</v>
+        <v>610</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>701</v>
+        <v>611</v>
       </c>
       <c r="C138" t="s">
-        <v>702</v>
+        <v>612</v>
       </c>
       <c r="D138" s="1">
         <v>15204111728</v>
@@ -6578,13 +5917,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>703</v>
+        <v>613</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>704</v>
+        <v>614</v>
       </c>
       <c r="C139" t="s">
-        <v>705</v>
+        <v>615</v>
       </c>
       <c r="D139" s="1">
         <v>15204111728</v>
@@ -6592,13 +5931,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>706</v>
+        <v>616</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>707</v>
+        <v>617</v>
       </c>
       <c r="C140" t="s">
-        <v>708</v>
+        <v>618</v>
       </c>
       <c r="D140" s="1">
         <v>15204111728</v>
@@ -6606,13 +5945,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>709</v>
+        <v>619</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>710</v>
+        <v>620</v>
       </c>
       <c r="C141" t="s">
-        <v>711</v>
+        <v>621</v>
       </c>
       <c r="D141" s="1">
         <v>15204111728</v>
@@ -6620,13 +5959,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>712</v>
+        <v>622</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>713</v>
+        <v>623</v>
       </c>
       <c r="C142" t="s">
-        <v>714</v>
+        <v>624</v>
       </c>
       <c r="D142" s="1">
         <v>15204111728</v>
@@ -6634,13 +5973,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>715</v>
+        <v>625</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>716</v>
+        <v>626</v>
       </c>
       <c r="C143" t="s">
-        <v>717</v>
+        <v>627</v>
       </c>
       <c r="D143" s="1">
         <v>15204111728</v>
@@ -6648,13 +5987,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>718</v>
+        <v>628</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>719</v>
+        <v>629</v>
       </c>
       <c r="C144" t="s">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="D144" s="1">
         <v>13808547122</v>
@@ -6662,13 +6001,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>721</v>
+        <v>631</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>722</v>
+        <v>632</v>
       </c>
       <c r="C145" t="s">
-        <v>723</v>
+        <v>633</v>
       </c>
       <c r="D145" s="1">
         <v>15434643235</v>
@@ -6676,13 +6015,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>724</v>
+        <v>634</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="C146" t="s">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="D146" s="1">
         <v>15832649835</v>
@@ -6690,13 +6029,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>725</v>
+        <v>635</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>726</v>
+        <v>636</v>
       </c>
       <c r="C147" t="s">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="D147" s="1">
         <v>15832649835</v>
@@ -6704,13 +6043,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>727</v>
+        <v>637</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>726</v>
+        <v>636</v>
       </c>
       <c r="C148" t="s">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="D148" s="1">
         <v>15832649835</v>
@@ -6718,13 +6057,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>728</v>
+        <v>638</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>729</v>
+        <v>639</v>
       </c>
       <c r="C149" t="s">
-        <v>730</v>
+        <v>640</v>
       </c>
       <c r="D149" s="1">
         <v>18678654546</v>
@@ -6732,13 +6071,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>731</v>
+        <v>641</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>732</v>
+        <v>642</v>
       </c>
       <c r="C150" t="s">
-        <v>733</v>
+        <v>643</v>
       </c>
       <c r="D150" s="1">
         <v>13906978877</v>
@@ -6746,13 +6085,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>734</v>
+        <v>644</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>735</v>
+        <v>645</v>
       </c>
       <c r="C151" t="s">
-        <v>736</v>
+        <v>646</v>
       </c>
       <c r="D151" s="1">
         <v>13202830341</v>
@@ -6760,13 +6099,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>737</v>
+        <v>647</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>738</v>
+        <v>648</v>
       </c>
       <c r="C152" t="s">
-        <v>739</v>
+        <v>649</v>
       </c>
       <c r="D152" s="1">
         <v>15801348239</v>
@@ -6774,13 +6113,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>740</v>
+        <v>650</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>741</v>
+        <v>651</v>
       </c>
       <c r="C153" t="s">
-        <v>742</v>
+        <v>652</v>
       </c>
       <c r="D153" s="1">
         <v>13004027080</v>
@@ -6788,13 +6127,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>743</v>
+        <v>653</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>744</v>
+        <v>654</v>
       </c>
       <c r="C154" t="s">
-        <v>745</v>
+        <v>655</v>
       </c>
       <c r="D154" s="1">
         <v>15502483887</v>
@@ -6802,13 +6141,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>746</v>
+        <v>656</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>747</v>
+        <v>657</v>
       </c>
       <c r="C155" t="s">
-        <v>748</v>
+        <v>658</v>
       </c>
       <c r="D155" s="1">
         <v>13102633437</v>
@@ -6816,13 +6155,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>750</v>
+        <v>660</v>
       </c>
       <c r="C156" t="s">
-        <v>597</v>
+        <v>507</v>
       </c>
       <c r="D156" s="1">
         <v>15112341238</v>
@@ -6830,13 +6169,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>751</v>
+        <v>661</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>752</v>
+        <v>662</v>
       </c>
       <c r="C157" t="s">
-        <v>753</v>
+        <v>663</v>
       </c>
       <c r="D157" s="1">
         <v>15247682183</v>
@@ -6844,13 +6183,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>754</v>
+        <v>664</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>755</v>
+        <v>665</v>
       </c>
       <c r="C158" t="s">
-        <v>756</v>
+        <v>666</v>
       </c>
       <c r="D158" s="1">
         <v>15841682583</v>
